--- a/output/workabroad_jobs.xlsx
+++ b/output/workabroad_jobs.xlsx
@@ -397,29 +397,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Source ID</v>
+        <v>Job Title</v>
       </c>
       <c r="B1" t="str">
-        <v>Job Title</v>
+        <v>Company Name</v>
       </c>
       <c r="C1" t="str">
-        <v>Company Name</v>
+        <v>Description</v>
       </c>
       <c r="D1" t="str">
-        <v>Description</v>
+        <v>Employment Type</v>
       </c>
       <c r="E1" t="str">
-        <v>Employment Type</v>
+        <v>Source</v>
       </c>
       <c r="F1" t="str">
-        <v>Source</v>
+        <v>Currency</v>
       </c>
       <c r="G1" t="str">
         <v>Minimum Salary</v>
@@ -434,13 +434,13 @@
         <v>Province</v>
       </c>
       <c r="K1" t="str">
+        <v>Country</v>
+      </c>
+      <c r="L1" t="str">
         <v>Application URL</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>Remote Work</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Qualifications</v>
       </c>
       <c r="N1" t="str">
         <v>Company Logo</v>
@@ -451,31 +451,37 @@
       <c r="P1" t="str">
         <v>Closing Date</v>
       </c>
+      <c r="Q1" t="str">
+        <v>Source ID</v>
+      </c>
+      <c r="R1" t="str">
+        <v>TESDA Qualification Codes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3348202</v>
+        <v>(BODYSHOP TEAM LEADER) AUTO MECHANIC</v>
       </c>
       <c r="B2" t="str">
-        <v>(BODYSHOP TEAM LEADER) AUTO MECHANIC</v>
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
       </c>
       <c r="C2" t="str">
-        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
       </c>
       <c r="D2" t="str">
-        <v>Not specified</v>
+        <v>Full-time</v>
       </c>
       <c r="E2" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F2" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>SAR</v>
       </c>
       <c r="G2" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="H2" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="I2" t="str">
         <v>Riyadh</v>
@@ -484,16 +490,16 @@
         <v>Riyadh Region</v>
       </c>
       <c r="K2" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L2" t="str">
         <v>https://www.workabroad.ph/job/3348202</v>
       </c>
-      <c r="L2" t="str">
-        <v>On-site</v>
-      </c>
       <c r="M2" t="str">
-        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+        <v>On-site</v>
       </c>
       <c r="N2" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/e3954be5518c8dee6a22ceae6dd8a7fcd56fa10d5acc16a8de686db4f8bc4e6a243ecf32346a6c84d6504814afe7c2ec0b941273633807678ec971e2d354dcf4dhtsxudMjz3px0A5dXVSMkekRcMvr5Qekgey1nzBYjU-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/02c1765a249496a53dc7a4de6cc864af5d74fbd7372de981e6075b05f80eeecb4c6871f3a86dcce210ee99eff214322332fa14c4fff6f4ceb9aef6b8cada15c4QXOhGYXPFfTpTpuevvMa8AR4Vo92xjnNDVRXRjeyP6U-</v>
       </c>
       <c r="O2" t="str">
         <v>11/24/2025</v>
@@ -501,31 +507,34 @@
       <c r="P2" t="str">
         <v>01/22/2026</v>
       </c>
+      <c r="Q2" t="str">
+        <v>3348202</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3349069</v>
+        <v>(JUNIOR QUANTITY) SURVEYOR</v>
       </c>
       <c r="B3" t="str">
-        <v>(JUNIOR QUANTITY) SURVEYOR</v>
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
       </c>
       <c r="C3" t="str">
-        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+        <v>• Assist in preparing cost estimates, bills of quantities (BOQ), and tender documents. • Measure and quantify materials, labour, and equipment based on drawings and specifications. • Support cost planning, budgeting, and cost control activities during various project stages. • Assist with tender evaluation, contractor comparisons, and recommendations. • Conduct site visits to gather information, monitor progress, and assist in valuing work done. • Help prepare interim payment applications, variation orders, and final accounts. • Collaborate with project managers, contractors, and suppliers to gather pricing information and clarify project requirements. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor&amp;apos;s / College Degree holder in Engineering(Mechanical); Quantity Survey or similar fields. • Experience in a resort/5-star hospitality projetcs</v>
       </c>
       <c r="D3" t="str">
-        <v>• Assist in preparing cost estimates, bills of quantities (BOQ), and tender documents. • Measure and quantify materials, labour, and equipment based on drawings and specifications. • Support cost planning, budgeting, and cost control activities during various project stages. • Assist with tender evaluation, contractor comparisons, and recommendations. • Conduct site visits to gather information, monitor progress, and assist in valuing work done. • Help prepare interim payment applications, variation orders, and final accounts. • Collaborate with project managers, contractors, and suppliers to gather pricing information and clarify project requirements.</v>
+        <v>Full-time</v>
       </c>
       <c r="E3" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F3" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>USD</v>
       </c>
       <c r="G3" t="str">
-        <v>USD 1,000</v>
+        <v>1,000</v>
       </c>
       <c r="H3" t="str">
-        <v>USD 1,300</v>
+        <v>1,300</v>
       </c>
       <c r="I3" t="str">
         <v>Malé</v>
@@ -534,16 +543,16 @@
         <v>Maldives</v>
       </c>
       <c r="K3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L3" t="str">
         <v>https://www.workabroad.ph/job/3349069</v>
       </c>
-      <c r="L3" t="str">
-        <v>On-site</v>
-      </c>
       <c r="M3" t="str">
-        <v>• A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Engineering(Mechanical); Quantity Survey or similar fields. • Experience in a resort/5-star hospitality projetcs</v>
+        <v>On-site</v>
       </c>
       <c r="N3" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/cd56b52d028d4049b2c43ec0611a4f10e19182fb9ca1fa0b76b93fcc10f407d03dca078ac64686386e4fad86b56acd160fe97ce83c0604464b3c49ea582e22e4RpDW~xrja547oZK6KS6kZ7Oo2Azn068oDuw2PIjRaT4-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/9035e7ec2d1e2b753c4ac443e7411df51a314b6398aee5f309c543ff1f2502dc3278e456927e82e319149f11bd176442bdf80550d8adc7ff6325b99ee5a2e807glO7JluDDas03yweSFpcI6bAq12gVGt7Y7KXzSJBSAE-</v>
       </c>
       <c r="O3" t="str">
         <v>11/28/2025</v>
@@ -551,31 +560,34 @@
       <c r="P3" t="str">
         <v>01/26/2026</v>
       </c>
+      <c r="Q3" t="str">
+        <v>3349069</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3348214</v>
+        <v>(MECHANICAL TEAM LEADER) AUTO MECHANIC</v>
       </c>
       <c r="B4" t="str">
-        <v>(MECHANICAL TEAM LEADER) AUTO MECHANIC</v>
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
       </c>
       <c r="C4" t="str">
-        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
       </c>
       <c r="D4" t="str">
-        <v>Not specified</v>
+        <v>Full-time</v>
       </c>
       <c r="E4" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F4" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>SAR</v>
       </c>
       <c r="G4" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="H4" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="I4" t="str">
         <v>Riyadh</v>
@@ -584,16 +596,16 @@
         <v>Riyadh Region</v>
       </c>
       <c r="K4" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L4" t="str">
         <v>https://www.workabroad.ph/job/3348214</v>
       </c>
-      <c r="L4" t="str">
-        <v>On-site</v>
-      </c>
       <c r="M4" t="str">
-        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+        <v>On-site</v>
       </c>
       <c r="N4" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/0ecc87b0feccd9a811b30793e98b9e5375b80331fa5af35d4c5a15ca01b2ee645e23621168da4f677a8e6c3608c30abe11169776efa23983a2f617efd46e66a8n7V3x5adSK~y8GhbY.UL6H0tIWTi7RPV5NtmmRB0ZJQ-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c7343d18216823d7754605a6b0987d4604c28abf1e1f3c0fcb938f455faf115ae7e21c3a4be10a24a1313563364a1f872f7b49e8ea85a5a3b40cbcda825278aazf3VjZJ~8dFnGlGMdBUEJ3g6SrmynEZnXYQorEVR1fs-</v>
       </c>
       <c r="O4" t="str">
         <v>11/24/2025</v>
@@ -601,31 +613,34 @@
       <c r="P4" t="str">
         <v>01/22/2026</v>
       </c>
+      <c r="Q4" t="str">
+        <v>3348214</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3348211</v>
+        <v>(MECHANICAL WORKSHOP SUPERVISOR) AUTO MECHANIC</v>
       </c>
       <c r="B5" t="str">
-        <v>(QUALITY CONTROLLER) AUTO MECHANIC</v>
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
       </c>
       <c r="C5" t="str">
-        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
       </c>
       <c r="D5" t="str">
-        <v>Not specified</v>
+        <v>Full-time</v>
       </c>
       <c r="E5" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F5" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>SAR</v>
       </c>
       <c r="G5" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="H5" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="I5" t="str">
         <v>Riyadh</v>
@@ -634,16 +649,16 @@
         <v>Riyadh Region</v>
       </c>
       <c r="K5" t="str">
-        <v>https://www.workabroad.ph/job/3348211</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="L5" t="str">
-        <v>On-site</v>
+        <v>https://www.workabroad.ph/job/3348213</v>
       </c>
       <c r="M5" t="str">
-        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+        <v>On-site</v>
       </c>
       <c r="N5" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/59ddf53c8aa626fb4905a7af6798b660373f2086f697cf34f8230713190c7ede81493d2aa5252d7ea92bb2d7cffe01cc3215d161e8a7b38248477ea0d90233b3d.45hXMAnUIp3AvVaPf.ZpaL~DXiDZXGOr7wwGqgie0-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/424503a8f0db7dcc9d43d5b40e959865b724bc8985d8bd2e425a94578471f452ec655e178ee4a1b96f53b2c8c322d7a9e6723825afe79b969ea8c57a585bf015~jPPvoqJVFEWKltGV34BtMfA70TY5bGDg4f6sSwLZnk-</v>
       </c>
       <c r="O5" t="str">
         <v>11/24/2025</v>
@@ -651,31 +666,34 @@
       <c r="P5" t="str">
         <v>01/22/2026</v>
       </c>
+      <c r="Q5" t="str">
+        <v>3348213</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3349068</v>
+        <v>(MEP QUANTITY) SURVEYOR</v>
       </c>
       <c r="B6" t="str">
-        <v>(MEP QUANTITY) SURVEYOR</v>
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
       </c>
       <c r="C6" t="str">
-        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+        <v>• Prepare cost estimation, bills of quantities and tender documents. • Understanding the client requirements and quantities take off as per marking and RCP drawings. • Preparing BOQ (bill of quantities) by studying specification sheets from the sales team. • Identifying gaps between BOQ and drawings, specifications and conditions of the contract and taking it for a logical closure. • Participation in the pre-tendering activities with client, architect and project managers and raising relevant pre-bid queries from the given tender. • Preparing interim and final valuations, variations and claims of the construction site • Collaborate with stakeholders to optimize project outcomes and achieve value for money. • Managing project budgets, including forecasting and monitoring costs. • Maintaining accurate records and documentation of all project-related costs and financial transactions. • Provide expert advice on procurement, risk management and cost-saving measures. Qualification: • A minimum of 10 year(s) of working experience is required. • Candidates must be a Bachelor&amp;apos;s / College Degree holder in Engineering(Electrical/Electronic); Engineering(Mechanical); Quantity Survey or similar fields. • Must have experience in a resort/5-star hospitality projects. • Proficiency in cost estimation and cost management techniques. • Proficiency in relevant software and tools for quantity surveying. • Ability to manage multiple projects simultaneously and prioritize tasks effectively.</v>
       </c>
       <c r="D6" t="str">
-        <v>• Prepare cost estimation, bills of quantities and tender documents. • Understanding the client requirements and quantities take off as per marking and RCP drawings. • Preparing BOQ (bill of quantities) by studying specification sheets from the sales team. • Identifying gaps between BOQ and drawings, specifications and conditions of the contract and taking it for a logical closure. • Participation in the pre-tendering activities with client, architect and project managers and raising relevant pre-bid queries from the given tender. • Preparing interim and final valuations, variations and claims of the construction site • Collaborate with stakeholders to optimize project outcomes and achieve value for money. • Managing project budgets, including forecasting and monitoring costs. • Maintaining accurate records and documentation of all project-related costs and financial transactions. • Provide expert advice on procurement, risk management and cost-saving measures.</v>
+        <v>Full-time</v>
       </c>
       <c r="E6" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F6" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>USD</v>
       </c>
       <c r="G6" t="str">
-        <v>USD 3,000</v>
+        <v>3,000</v>
       </c>
       <c r="H6" t="str">
-        <v>USD 3,500</v>
+        <v>3,500</v>
       </c>
       <c r="I6" t="str">
         <v>Malé</v>
@@ -684,16 +702,16 @@
         <v>Maldives</v>
       </c>
       <c r="K6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L6" t="str">
         <v>https://www.workabroad.ph/job/3349068</v>
       </c>
-      <c r="L6" t="str">
-        <v>On-site</v>
-      </c>
       <c r="M6" t="str">
-        <v>• A minimum of 10 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Engineering(Electrical/Electronic); Engineering(Mechanical); Quantity Survey or similar fields. • Must have experience in a resort/5-star hospitality projects. • Proficiency in cost estimation and cost management techniques. • Proficiency in relevant software and tools for quantity surveying. • Ability to manage multiple projects simultaneously and prioritize tasks effectively.</v>
+        <v>On-site</v>
       </c>
       <c r="N6" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/132efbb796d37d863ee72b13a721faff1b918db0b8cd1e0ab05ee2030e24b4600b114651bc9113f3e91a6c6b8da1b0921e93ae899b98f2e061dd7576aaf32d0bfBChGLvYBtjQSp0qll6aCJRlnnzvx8eXF9rp7bY7lQI-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/fe53994d1a25a846f3baac9659e43fbf692e605c8f6bb565369518227895c56ea1fdd03ec9f81b3cc12cbcee4095359eeb71e2a5ed5d4b8fcec2d31eda7f78713hwSpyvuKp4CBPrRuS5SEQKQV3LuYIGSmzSupNEMRmQ-</v>
       </c>
       <c r="O6" t="str">
         <v>11/28/2025</v>
@@ -701,31 +719,34 @@
       <c r="P6" t="str">
         <v>01/26/2026</v>
       </c>
+      <c r="Q6" t="str">
+        <v>3349068</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3348213</v>
+        <v>(QUALITY CONTROLLER) AUTO MECHANIC</v>
       </c>
       <c r="B7" t="str">
-        <v>(MECHANICAL WORKSHOP SUPERVISOR) AUTO MECHANIC</v>
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
       </c>
       <c r="C7" t="str">
-        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
       </c>
       <c r="D7" t="str">
-        <v>Not specified</v>
+        <v>Full-time</v>
       </c>
       <c r="E7" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F7" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>SAR</v>
       </c>
       <c r="G7" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="H7" t="str">
-        <v>SAR 2,500</v>
+        <v>2,500</v>
       </c>
       <c r="I7" t="str">
         <v>Riyadh</v>
@@ -734,16 +755,16 @@
         <v>Riyadh Region</v>
       </c>
       <c r="K7" t="str">
-        <v>https://www.workabroad.ph/job/3348213</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="L7" t="str">
-        <v>On-site</v>
+        <v>https://www.workabroad.ph/job/3348211</v>
       </c>
       <c r="M7" t="str">
-        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+        <v>On-site</v>
       </c>
       <c r="N7" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/3d4127d376f664f867d34668ade7ea3227e2a18031d1ca4017733561ae8512ed91a26ac1ddfd660c031d1e2610f6c1479afc0eb07faa8831d2add82aadcb23b7MiXSz09owStUtsn29B0Qe~GWF6ZaoxvjwAfugXEgv8k-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/4e7370988aca1ddc8fdc436007ca5df87b70edf0f64a2b1fe88f5fe33467d17035895d2f4d37b96c94eca39a7b2c3a2bd5d0e1038a08794b95e896b1e84eb3b1yRi~5xr9OrWiPOHGxpA3cyT5M7XEj5M3YxnXr9DzjCw-</v>
       </c>
       <c r="O7" t="str">
         <v>11/24/2025</v>
@@ -751,31 +772,34 @@
       <c r="P7" t="str">
         <v>01/22/2026</v>
       </c>
+      <c r="Q7" t="str">
+        <v>3348211</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3351110</v>
+        <v>(SITE) HUMAN RESOURCES EXECUTIVE</v>
       </c>
       <c r="B8" t="str">
-        <v>(STRUCTURAL) INSPECTOR</v>
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
       </c>
       <c r="C8" t="str">
-        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+        <v>• Responsible for recruitment, performance management, employee relations, training and development, and implementing HR policies and procedures that align with the company&amp;apos;s strategic objectives/ • Leading HR operations, ensuring compliance with Maldivian Labor laws, and supporting the organization in achieving its business goals through effective people management. • Maintain records of travel requests, approvals , and bookings. • Maintain and update the leave tracker for all employees, • Process leave applications and ensure compliance with company policy. • Monitor and maintain accurate employees attendance records across project sites. • Address and resolve queries from employees working at different project sites in a timely manner. • Conduct periodic site visits to engage with employees and address HR-related concerns. • Support HR projects and initiative as required. • Freedom to carry out professionally the responsibilities and tasks described above. • Authority to choose between known Human Resource Management practices, methodologies and fair practices procedures to attain and maintain high HR standards. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor&amp;apos;s / College Degree holder in Business Studies/Administration/Management; Human Resource Management or similar fields. • 5+ years of HR Experience, preferably in the construction/contracting industry or handling site-based workforce. • Proficiency in MS Excel and HR System. • Flexibility to travel to various project site as required. • Ability to handle travel bookings and ticketing coordination.</v>
       </c>
       <c r="D8" t="str">
-        <v>• Inspect structural works including foundations, concrete, steel structures, and precast elements. • Verify compliance with approved drawings, specifications, and structural design requirements. • Inspect reinforcement fixing, formwork, concreting, curing, and structural finishes. • Monitor structural steel fabrication, erection, bolting, and welding works. • Witness concrete pouring, sampling, and testing activities. • Prepare inspection reports, checklists, and daily site records. • Raise Non-Conformance Reports (NCRs) for defective or non-compliant works. • Coordinate inspections with contractors, QA/QC teams, and consultants. • Ensure works comply with local building codes and international standards (ACI, BS, ASTM, Eurocode, etc.) • Report critical structural issues immediately to project management.</v>
+        <v>Full-time</v>
       </c>
       <c r="E8" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F8" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>USD</v>
       </c>
       <c r="G8" t="str">
-        <v>USD 1,000</v>
+        <v>800</v>
       </c>
       <c r="H8" t="str">
-        <v>USD 1,000</v>
+        <v>900</v>
       </c>
       <c r="I8" t="str">
         <v>Malé</v>
@@ -784,177 +808,6882 @@
         <v>Maldives</v>
       </c>
       <c r="K8" t="str">
-        <v>https://www.workabroad.ph/job/3351110</v>
+        <v>N/A</v>
       </c>
       <c r="L8" t="str">
-        <v>On-site</v>
+        <v>https://www.workabroad.ph/job/3350407</v>
       </c>
       <c r="M8" t="str">
-        <v>• A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Engineering(Civil) or similar fields. • Experience as a Structural Inspector in hotel and resort construction projects. • Strong knowledge of concrete, steel, and structural works</v>
+        <v>On-site</v>
       </c>
       <c r="N8" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/70335bb888530ffa5f831d0da46eb7a869e54f209e30e5e5abc19cacb62a4834f18d3d476dbd0b5119043656c0a7513a2187986df16e6dc7af11e27eca0eb61bsUU8ofqR2KqYhRsDGbT88E6s7s91M39IZ15X1d4TqVU-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/b173c9eee0f540400a1bb267ff944bb90efdcac7a31e5a6a6adaccd8c2c9ec12148dea24832b7fa82671ffa32b01d473c8e6baa11ab25631772e316e9fe92713q7T.lWJpLKRAPKxxvFx1eIZ1hGurNY3nq4kjoXupPFw-</v>
       </c>
       <c r="O8" t="str">
-        <v>12/23/2025</v>
+        <v>12/15/2025</v>
       </c>
       <c r="P8" t="str">
-        <v>01/21/2026</v>
+        <v>02/12/2026</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>3350407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3353224</v>
+        <v>(STRUCTURAL) INSPECTOR</v>
       </c>
       <c r="B9" t="str">
-        <v>• Electrician – Maintenance</v>
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
       </c>
       <c r="C9" t="str">
-        <v>AL ASSAL MANPOWER INC.</v>
+        <v>• Inspect structural works including foundations, concrete, steel structures, and precast elements. • Verify compliance with approved drawings, specifications, and structural design requirements. • Inspect reinforcement fixing, formwork, concreting, curing, and structural finishes. • Monitor structural steel fabrication, erection, bolting, and welding works. • Witness concrete pouring, sampling, and testing activities. • Prepare inspection reports, checklists, and daily site records. • Raise Non-Conformance Reports (NCRs) for defective or non-compliant works. • Coordinate inspections with contractors, QA/QC teams, and consultants. • Ensure works comply with local building codes and international standards (ACI, BS, ASTM, Eurocode, etc.) • Report critical structural issues immediately to project management. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor&amp;apos;s / College Degree holder in Engineering(Civil) or similar fields. • Experience as a Structural Inspector in hotel and resort construction projects. • Strong knowledge of concrete, steel, and structural works</v>
       </c>
       <c r="D9" t="str">
-        <v>Not specified</v>
+        <v>Full-time</v>
       </c>
       <c r="E9" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F9" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>USD</v>
       </c>
       <c r="G9" t="str">
-        <v>TBD</v>
+        <v>1,000</v>
       </c>
       <c r="H9" t="str">
-        <v>TBD</v>
+        <v>1,000</v>
       </c>
       <c r="I9" t="str">
-        <v>Ras Al Khaimah</v>
+        <v>Malé</v>
       </c>
       <c r="J9" t="str">
-        <v>Ras al-Khaimah</v>
+        <v>Maldives</v>
       </c>
       <c r="K9" t="str">
-        <v>https://www.workabroad.ph/job/3353224</v>
+        <v>N/A</v>
       </c>
       <c r="L9" t="str">
-        <v>On-site</v>
+        <v>https://www.workabroad.ph/job/3351110</v>
       </c>
       <c r="M9" t="str">
-        <v>• o Diploma or ITI in Electrical Engineering • o Diploma or ITI in Electrical Engineering • o Knowledge of electrical systems and components</v>
+        <v>On-site</v>
       </c>
       <c r="N9" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/31697fb79e6ba78eec4bb53000b50fd42848de7ab0d2af677d42e9f456143b472a9faeffc30922c18981f885a70de121c6376f9173c5c5fc0625f23dbcb0a663Y4k7r4GOZYKaDlhtxd6DvnM3OAR.1iX7sAWHxCayV5M-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c9dee61e9cc8a4b246b546dec55b2b4f8e9ebe1403fd08445e0264316a95e52fb70450548f51da550e8075535e16d73494323fb697a9203f79044c9e20a8d7cbDJpXEOBNRKPPXxeOeu~L.upZiNv.oT2Tq2STeOj209k-</v>
       </c>
       <c r="O9" t="str">
-        <v>01/15/2026</v>
+        <v>12/23/2025</v>
       </c>
       <c r="P9" t="str">
-        <v>02/13/2026</v>
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>3351110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3350407</v>
+        <v>• Electrician – Maintenance</v>
       </c>
       <c r="B10" t="str">
-        <v>(SITE) HUMAN RESOURCES EXECUTIVE</v>
+        <v>AL ASSAL MANPOWER INC.</v>
       </c>
       <c r="C10" t="str">
-        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • o Diploma or ITI in Electrical Engineering • o Diploma or ITI in Electrical Engineering • o Knowledge of electrical systems and components</v>
       </c>
       <c r="D10" t="str">
-        <v>• Responsible for recruitment, performance management, employee relations, training and development, and implementing HR policies and procedures that align with the company's strategic objectives/ • Leading HR operations, ensuring compliance with Maldivian Labor laws, and supporting the organization in achieving its business goals through effective people management. • Maintain records of travel requests, approvals , and bookings. • Maintain and update the leave tracker for all employees, • Process leave applications and ensure compliance with company policy. • Monitor and maintain accurate employees attendance records across project sites. • Address and resolve queries from employees working at different project sites in a timely manner. • Conduct periodic site visits to engage with employees and address HR-related concerns. • Support HR projects and initiative as required. • Freedom to carry out professionally the responsibilities and tasks described above. • Authority to choose between known Human Resource Management practices, methodologies and fair practices procedures to attain and maintain high HR standards.</v>
+        <v>Full-time</v>
       </c>
       <c r="E10" t="str">
-        <v>Full-time</v>
+        <v>WorkAbroad.ph</v>
       </c>
       <c r="F10" t="str">
-        <v>WorkAbroad.ph</v>
+        <v>N/A</v>
       </c>
       <c r="G10" t="str">
-        <v>USD 800</v>
+        <v>TBD</v>
       </c>
       <c r="H10" t="str">
-        <v>USD 900</v>
+        <v>TBD</v>
       </c>
       <c r="I10" t="str">
-        <v>Malé</v>
+        <v>Ras Al Khaimah</v>
       </c>
       <c r="J10" t="str">
-        <v>Maldives</v>
+        <v>Ras al-Khaimah</v>
       </c>
       <c r="K10" t="str">
-        <v>https://www.workabroad.ph/job/3350407</v>
+        <v>United Arab Emirates</v>
       </c>
       <c r="L10" t="str">
-        <v>On-site</v>
+        <v>https://www.workabroad.ph/job/3353224</v>
       </c>
       <c r="M10" t="str">
-        <v>• A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Business Studies/Administration/Management; Human Resource Management or similar fields. • 5+ years of HR Experience, preferably in the construction/contracting industry or handling site-based workforce. • Proficiency in MS Excel and HR System. • Flexibility to travel to various project site as required. • Ability to handle travel bookings and ticketing coordination.</v>
+        <v>On-site</v>
       </c>
       <c r="N10" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/f271bab76b79532db5b107f1dffda2be354e6377d12bd11c46e6b0fe599af4a1030243a1693fd34da0f5365927fc1c66d5dc3dd329352bf53c9ade66441fb172MoKNnnUbupx5A7Bc5msEFEt9TQ3Vajm9Aac.hE45oPc-</v>
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c85efecc7c4b065b07914be81d2e7c62f181963d3951f7bd5d2cd5b058adebb583339894562e492e50c3b47f8fc6b3c2756077cac7ebf67b9f7e7d243a1ebe7fzWlunU~6m4yXoYzd179rk4M~Qtcrv4K2jbS5LOOWZGI-</v>
       </c>
       <c r="O10" t="str">
-        <v>12/15/2025</v>
+        <v>01/15/2026</v>
       </c>
       <c r="P10" t="str">
-        <v>02/12/2026</v>
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>3353224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>• Helper</v>
+      </c>
+      <c r="B11" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C11" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • o To maintain optimum running of the plant and high quality production by assisting more senior colleagues in carrying out their roles • o To maintain optimum running of the plant and high quality production by assisting more senior colleagues in carrying out their roles • o Knowledge of manufacturing environment</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E11" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H11" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Ras Al Khaimah</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Ras al-Khaimah</v>
+      </c>
+      <c r="K11" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L11" t="str">
+        <v>https://www.workabroad.ph/job/3353225</v>
+      </c>
+      <c r="M11" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N11" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/f909454105e61a51045dc084dc11047e41d6ab5b336b3cf1b505e3cdf8f393899dee4af53618f9e2db369e543414d48375480c3e2376db41f351d3cd81ba0adcWIeg9FRiAgvc~tIm8I90dBhHQnpHQuzOCOcDrsUT3yU-</v>
+      </c>
+      <c r="O11" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P11" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>3353225</v>
+      </c>
+      <c r="R11" t="str">
+        <v>SOCDOW214, SOCDOW217, SOCDOW222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0RTHODONTIC</v>
+      </c>
+      <c r="B12" t="str">
+        <v>SAMANTHA MANPOWER RECRUITMENT AGENCY INC.</v>
+      </c>
+      <c r="C12" t="str">
+        <v>DMW License No: POEA-084-LB-122221-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • creating treatment plans, diagnosing dental malocclusions, interpreting diagnostic tests, • creating treatment plans, diagnosing dental malocclusions, • interpreting diagnostic tests, collaborating with other dental professionals, and managing staff.</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E12" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F12" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G12" t="str">
+        <v>8,000</v>
+      </c>
+      <c r="H12" t="str">
+        <v>9,200</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L12" t="str">
+        <v>https://www.workabroad.ph/job/3352864</v>
+      </c>
+      <c r="M12" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N12" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/e6ff634b9afd4dac6c178355802d2b92a816fe04222cfa3e2f33c755b8e9e68665049b89851a921fdb4d9d473418edfffef9c7d114942abc1f2c7104761d4ee6oEU~o4Fbf2R7sZnNS0abXHPuS6xHlSG2DbZscJLMk34-</v>
+      </c>
+      <c r="O12" t="str">
+        <v>01/13/2026</v>
+      </c>
+      <c r="P12" t="str">
+        <v>02/11/2026</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>3352864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2D CADD draftsman (ALL Disciplines)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ARAM ENTERPRISES INC.</v>
+      </c>
+      <c r="C13" t="str">
+        <v>• Associate Degree in Engineering or Architecture, or Two (2) Years Technical College in Drafting Technology or equivalent acceptable by User Organization. • Bachelor’s Degree in Architecture or any Engineering Field would be an advantage • Fully conversant in computer operations with emphasis on the current version of Microstation V8i, Microsoft Office (Word and Excel.) knowledge in Adobe Photoshop CS4 and Autodesk 3ds would be an advantage. • Six years’ experience in Engineering and Design Office producing drawing related to building construction and renovation; two (2) years of which in computer aided design drafting (CADD), specializing in required disciplines. Additional Information:</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E13" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F13" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2,900</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2,900</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Dhahran</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L13" t="str">
+        <v>https://www.workabroad.ph/job/3352862</v>
+      </c>
+      <c r="M13" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N13" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/504ccb30494a771319a4a6edcdc7caa82ea5f6524a3c815845813615c24290f42340c39d14f7fe7cc0c035961c7b8364267f5547e752d8e84871d7567e841f59os5wblhZ97PC~tsY3HZ5xG1LfqJKsQ.degNWku8hI54-</v>
+      </c>
+      <c r="O13" t="str">
+        <v>01/13/2026</v>
+      </c>
+      <c r="P13" t="str">
+        <v>02/11/2026</v>
+      </c>
+      <c r="Q13" t="str">
         <v>3352862</v>
       </c>
-      <c r="B11" t="str">
-        <v>2D CADD draftsman (ALL Disciplines)</v>
-      </c>
-      <c r="C11" t="str">
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3D CAKE DECORATOR</v>
+      </c>
+      <c r="B14" t="str">
+        <v>J-MAC INTERNATIONAL MANPOWER AGENCY</v>
+      </c>
+      <c r="C14" t="str">
+        <v>• known for creating sculptural, art-inspired cakes that are considered haute pâtisserie. • creating unique, art-focused centerpieces for events, often featured at high-profile weddings and occasions. • Sculpt, mold, and decorate cakes using fondant, buttercream, and other mediums to create 3D figures and elaborate designs. • Bake, assemble, fill, and frost cakes, ensuring quality and consistency. • Work with customers to bring custom cake ideas to life. • Can provide sample works or portfolio Additional Information:</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E14" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F14" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G14" t="str">
+        <v>4,200</v>
+      </c>
+      <c r="H14" t="str">
+        <v>4,500</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L14" t="str">
+        <v>https://www.workabroad.ph/job/3350208</v>
+      </c>
+      <c r="M14" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N14" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O14" t="str">
+        <v>12/11/2025</v>
+      </c>
+      <c r="P14" t="str">
+        <v>02/08/2026</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>3350208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3D Visualizer / Architect</v>
+      </c>
+      <c r="B15" t="str">
         <v>ARAM ENTERPRISES INC.</v>
       </c>
-      <c r="D11" t="str">
-        <v>Not specified</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Full-time</v>
-      </c>
-      <c r="F11" t="str">
-        <v>WorkAbroad.ph</v>
-      </c>
-      <c r="G11" t="str">
-        <v>SAR 2,900</v>
-      </c>
-      <c r="H11" t="str">
-        <v>SAR 2,900</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Dhahran</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="C15" t="str">
+        <v>• Bachelor&amp;apos;s degree in Architecture, Interior Design, or related field (preferred). With at least 1-3 years experience. • Proficiency in 3D software (3ds Max, V-Ray, SketchUp, AutoCAD). Strong skills in realistic rendering, technical accuracy, and spatial design • Create detailed 3D renders for exhibitions, events, and activations. Develop architectural 3D proposals to support pitch and project delivery. Ensure all 3D designs comply with client requirements and event standards.</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E15" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F15" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G15" t="str">
+        <v>3,500</v>
+      </c>
+      <c r="H15" t="str">
+        <v>4,000</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J15" t="str">
         <v>Eastern Province</v>
       </c>
-      <c r="K11" t="str">
-        <v>https://www.workabroad.ph/job/3352862</v>
-      </c>
-      <c r="L11" t="str">
-        <v>On-site</v>
-      </c>
-      <c r="M11" t="str">
-        <v>• Associate Degree in Engineering or Architecture, or Two (2) Years Technical College in Drafting Technology or equivalent acceptable by User Organization. • Bachelor’s Degree in Architecture or any Engineering Field would be an advantage • Fully conversant in computer operations with emphasis on the current version of Microstation V8i, Microsoft Office (Word and Excel.) knowledge in Adobe Photoshop CS4 and Autodesk 3ds would be an advantage. • Six years’ experience in Engineering and Design Office producing drawing related to building construction and renovation; two (2) years of which in computer aided design drafting (CADD), specializing in required disciplines.</v>
-      </c>
-      <c r="N11" t="str">
-        <v>https://www.workabroad.ph/download/document/hirer/logos/6d8204dc28b8f7e3274221992a209c530270a0543dc6041bcb7eded679f923e5625c66b3c2c5f7536dbf7efb72050d8fae3f030e69813122f622438f780e0575ctcZdBbgdXyrOXXiYaXjazhNKQ0k7ZRKthmc.p8nzng-</v>
-      </c>
-      <c r="O11" t="str">
+      <c r="K15" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L15" t="str">
+        <v>https://www.workabroad.ph/job/3352268</v>
+      </c>
+      <c r="M15" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N15" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/bf3ff11dd0a69fa4a9cc656379e3f71778863d3345832c7416bdeb76c6f50fcbbb5db746e2d4289487c0dc0f4d565f9979bd45f1fe6670f0d9fb965b92f44354SZJzF5tJckuk0nEqn8cl3C87GPN8X1~kmE250FpWRME-</v>
+      </c>
+      <c r="O15" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P15" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>3352268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>6 x 4 DUMP TRUCK DRIVER - New Zealand</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C16" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • High school diploma or GED. With valid commercial drivers license. • Clean driving record. Excellent problem-solving skills. Exceptional customer services kills • Working knowledge of construction site safety , truck maintenance and road safety regulations . Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Proven experience operating a standard dump truck. Additional Information: • Proven experience operating a standard dump truck.</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E16" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F16" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H16" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Taupo</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Waikato Region</v>
+      </c>
+      <c r="K16" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="L16" t="str">
+        <v>https://www.workabroad.ph/job/3353645</v>
+      </c>
+      <c r="M16" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N16" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/f7a6f537052b77e962e7a762784f4252bdc55222bd39c372ac3d93fd8158f72f07b3f618c6f84da14f221639130443813005c54329fbadcdd0eff2334ba68e7b1GRMl1MVfuBIQTFPmMthbMg.BOSFW~prlYxH1o18KaM-</v>
+      </c>
+      <c r="O16" t="str">
+        <v>01/19/2026</v>
+      </c>
+      <c r="P16" t="str">
+        <v>02/17/2026</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>3353645</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6G WELDER CS (TIG&amp;ARC)</v>
+      </c>
+      <c r="B17" t="str">
+        <v>WIZARD INTERNATIONAL MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C17" t="str">
+        <v>DMW License No: DMW-023-LB-09162024-PL For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Read and interpret blueprints and welding specifications to determine the appropriate welding process • Ensure welded parts meet quality and welding standards • Conduct inspections and tests on welded structures to identify any defects or imperfections • Maintain welding equipment and tools in proper working condition Additional Information:</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E17" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F17" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G17" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H17" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L17" t="str">
+        <v>https://www.workabroad.ph/job/3353311</v>
+      </c>
+      <c r="M17" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N17" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O17" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P17" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>3353311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>6G WELDER SS (TIG&amp;ARC)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>WIZARD INTERNATIONAL MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C18" t="str">
+        <v>DMW License No: DMW-023-LB-09162024-PL For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Weld small and large components such as copper plumbing, beams, and pipelines. • Use specialized machinery for industrial welding and oversee machines that perform the same job. • Assess welded surfaces, structures and components to identify errors. • Follow and enforce strict safety regulations such as wearing heat-resistant gloves, protective masks, and safety shoes. • Weld components in flat, vertical, and overhead positions. Additional Information:</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E18" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F18" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G18" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H18" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L18" t="str">
+        <v>https://www.workabroad.ph/job/3353262</v>
+      </c>
+      <c r="M18" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N18" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O18" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P18" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>3353262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>A/C MECHANIC</v>
+      </c>
+      <c r="B19" t="str">
+        <v>EAST WEST PLACEMENT CENTER, INC</v>
+      </c>
+      <c r="C19" t="str">
+        <v>DMW License No: POEA-198-LB-121322-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Candidates must be at least High school Graduate, but have at least Diploma or certification related to the field. • Minimum of 5 years work experience in respective discipline preferably in Oil &amp; Gas construction and GCC countries. • Good in communication skills and physically fit.</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E19" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F19" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H19" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Khobar</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L19" t="str">
+        <v>https://www.workabroad.ph/job/3350607</v>
+      </c>
+      <c r="M19" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N19" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/ef7169713b1a967cda2f568eaddf72dca88a70573029d85ec86e724162b1745de600fae554d07ea01272b6d31885e68c018a617f2c02bf955862aad9a8ef26f0kupLV8t6uSISPLEJikWo4JNf7gB4gjDkCysUqCKe01M-</v>
+      </c>
+      <c r="O19" t="str">
+        <v>12/16/2025</v>
+      </c>
+      <c r="P19" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>3350607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>AC/HVAC TECHNICIAN</v>
+      </c>
+      <c r="B20" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C20" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • With Proven 3 years work experience as AC/HVAC Technician. Ensure these systems operate efficiently and safely in residential, commercial, and industrial settings • Experience in Preventive Maintenance, troubleshooting, compressor installation for PACU (Carrier, Trane, Petra) and inverter-type Split/Concealed units (York, Carrier, LG, Samsung). • Install new HVACR systems and associated electrical components and wiring. Diagnose system malfunctions, troubleshoot problems, and repair or replace worn or defective parts. • Perform routine maintenance, such as cleaning coils, lubricating parts, and inspecting electrical connections to prevent future issues. • Diagnosing issues, performing routine maintenance, replacing parts, reading blueprints of HVAC system, Chiller, Coolers and maintaining detailed service records.</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E20" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F20" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H20" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L20" t="str">
+        <v>https://www.workabroad.ph/job/3352886</v>
+      </c>
+      <c r="M20" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N20" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/2654629d76eb36d3caa469ff65d86898a26dcf45d26eadeccf7a571faac085685ddb62d3b527bbe05bcd9d862cb347c6e959161ed7fc1fce2795a871e7742798N1av~P5l9sNRdFCCViVGr5IvThWh9EziGdlWrCM.7TE-</v>
+      </c>
+      <c r="O20" t="str">
         <v>01/13/2026</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P20" t="str">
         <v>02/11/2026</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>3352886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>ACCOUNTANT</v>
+      </c>
+      <c r="B21" t="str">
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+      </c>
+      <c r="C21" t="str">
+        <v>• Perform monthly sales and general ledger closing, including journal entries. • Preparation of various balance sheet schedules and P&amp;L Statement • Preparation of quarterly and annual financial reports • Review and approve supplier invoices as per terms of the contract/P.O. • Performing audits and resolving descripancies. • Provides financial information to management by researching and analyzing accounting data; preparing reports • Summarizes current financial status by collecting information; preparing balance sheet, profit and loss statements, and other reports. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Bachelor&amp;apos;s / College Degree holder in Finance/Accountancy/Banking or similar fields. • Special licenses or certification may be preferred • Understanding of mathematics, financial processes and accounting Additional Information: • Special licenses or certification may be preferred • Understanding of mathematics, financial processes and accounting</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E21" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F21" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G21" t="str">
+        <v>4,500</v>
+      </c>
+      <c r="H21" t="str">
+        <v>4,500</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Al Jubayl</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L21" t="str">
+        <v>https://www.workabroad.ph/job/3348190</v>
+      </c>
+      <c r="M21" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N21" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/2cd5388fbe6369344e9e7669095ee24e3b29bd48280fff4c5fb3f43d328b6815c4807ff42a3b56c131013443bd4979927be404517cc3a0d5f4c1963ebb1c218aDwW9dndJZ.QTQYRlEbH8644pqnL4.F~Ej5aRt9MDMK0-</v>
+      </c>
+      <c r="O21" t="str">
+        <v>11/24/2025</v>
+      </c>
+      <c r="P21" t="str">
+        <v>01/22/2026</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>3348190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>ACCOUNTANT - Papua New Guinea</v>
+      </c>
+      <c r="B22" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C22" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Bachelors degree in Accounting . Passed the CPA exam and obtained CPA certification • Experience in Accounting (Preferrable in auditing and accounting firm) Accuracy and attention to details. • Similar experience as a Certified Practicing Accountant . Proficiency in accounting software Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Prof'l License(Passed Board/Bar/Prof'l License Exam) holder. • Time management and organizational skills . Multi tasking skills</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E22" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F22" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G22" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H22" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I22" t="str">
+        <v>National Capital District</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L22" t="str">
+        <v>https://www.workabroad.ph/job/3352366</v>
+      </c>
+      <c r="M22" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N22" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/44b11d6e2619e69edd99246b5a44f2e78738d8280388d1899f584fc58f75287374b71a56109dc4da94cc5bf2c5db9cd017e9df81fbb6fcf35050cb7f901fe92eW1pSs3sRL.7UdoGakykjwXsmNKAOec1lG.z0lZs~LzI-</v>
+      </c>
+      <c r="O22" t="str">
+        <v>01/08/2026</v>
+      </c>
+      <c r="P22" t="str">
+        <v>02/06/2026</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>3352366</v>
+      </c>
+      <c r="R22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Accountant Non CPA / CPA</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BENCHSTONE ENTERPRISE INCORPORATED</v>
+      </c>
+      <c r="C23" t="str">
+        <v>• Maintain accurate ledgers, process transactions, and prepare financial statements (balance sheets, income statements, cash flow). • Analyze financial data, create budgets and forecasts, and offer insights to improve profitability and reduce costs. • Ensure adherence to laws, regulations, and accounting standards (GAAP); conduct internal audits and risk assessments. • Prepare and file tax returns, advising on tax liability and potential savings • Reconcile bank statements and resolve financial discrepancies. • Assist with payroll, accounts payable/receivable, and provide data for strategic financial planning. Additional Information:</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E23" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F23" t="str">
+        <v>QAR</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L23" t="str">
+        <v>https://www.workabroad.ph/job/3352296</v>
+      </c>
+      <c r="M23" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N23" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a445a20c7f6fb05f54415cebf3396529f1e710108a5933bf423d50aabd517c2d75786deefb47f70e6fbd997d2ff000a1d88829a18c45a70d3b8ed7b00c8c0665AW0KgC3E.~kslWIdKijKUf2rcZBvmdz.TzQ8NAY5qjE-</v>
+      </c>
+      <c r="O23" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P23" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>3352296</v>
+      </c>
+      <c r="R23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>ACCOUNTANT/BOOKKEEPER</v>
+      </c>
+      <c r="B24" t="str">
+        <v>INTERNATIONAL SKILL DEVELOPMENT, INC.</v>
+      </c>
+      <c r="C24" t="str">
+        <v>• Undertake bookkeping tasks reconciliations and filing. Record Transactions: Accurately enter all financial data (income, expenses, invoices, payments) into the general ledger. • Accounts Payable/Receivable (AP/AR): Manage vendor invoices, process payments, track client invoices, and follow up on overdue accounts. • Bank Reconciliation: Match internal records with bank statements to identify and resolve discrepancies. Payroll: Process employee wages, withholding, and tax payments. • Financial Reporting: Generate basic reports like balance sheets, income statements, and cash flow summaries. • Data Accuracy: Review financial records for errors and maintain organized filing systems. Tax Support: Assist with preparing and filing tax documents and returns. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Finance/Accountancy/Banking or similar fields. • Graduate of Bachelor of Science in Accountancy. Fluency in English, expertise in Accounting software such as Xero, Excellent attention to detail and accuracy. • Organizational and time-management skills.</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E24" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F24" t="str">
+        <v>FKP</v>
+      </c>
+      <c r="G24" t="str">
+        <v>10</v>
+      </c>
+      <c r="H24" t="str">
+        <v>12</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Falkland Islands</v>
+      </c>
+      <c r="J24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="K24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L24" t="str">
+        <v>https://www.workabroad.ph/job/3351761</v>
+      </c>
+      <c r="M24" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N24" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/466bc239c198f8b276a2b5434a3cfaa827243d6091fd9298c87bc7546591e8fed01372ab81e4a956701a17bdca4bbec6a42f9c6ac56ca40244ffb048534a69b27qS0WOwmgkS.YVqs4ztUUhU~q53cQWm6YPq5rUSIZnQ-</v>
+      </c>
+      <c r="O24" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P24" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>3351761</v>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Accounts and Admin. Asst. Manager&amp;apos;</v>
+      </c>
+      <c r="B25" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C25" t="str">
+        <v>• With atleast 4 years work experience as Accounts and Admin. Asst. Manager/Supervisor in Retail/Wholesales/Merchandising and Distributor companies. • Oversees both the accounting and administrative functions of an organization. • Supporting the Finance &amp; Administration Manager, managing financial records, processing transactions, ensuring compliance, and handling various administrative tasks. Qualification: • A minimum of 4 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Must Have Work Experience in Wholesales/Retail/Merchandise and Distributor companies.</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E25" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F25" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G25" t="str">
+        <v>650</v>
+      </c>
+      <c r="H25" t="str">
+        <v>800</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Port-Vila</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Shefa</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Vanuatu</v>
+      </c>
+      <c r="L25" t="str">
+        <v>https://www.workabroad.ph/job/3348415</v>
+      </c>
+      <c r="M25" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N25" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/18087d2629ff8697e0e4f957ae016e0e8cd3fdebd2fdcd5d9fac4116a4ac84378e78eb6dc05c38aa37909a1dcb20ae689d587772877e24cde6c6d385bc0017b3C2X8lN8ZUC5w~G32bLOsHS4F~PEB~COlcX1hQVpoRzU-</v>
+      </c>
+      <c r="O25" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P25" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>3348415</v>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>ADMIN ASSISTANT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C26" t="str">
+        <v>• Schedule meetings, appointments, and travel arrangements for supervisors or teams; Maintain and update calendars to avoid scheduling conflicts. • Communicate with Board Members, schedule Board Meetings, and arrange meeting agendas. Liaise with clients and business guests. Project and event coordination. • Schedule meetings. Prepare conference rooms for meetings. Make travel arrangements for executives. See more. Print and copy documents as needed</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E26" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F26" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G26" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H26" t="str">
+        <v>4,000</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L26" t="str">
+        <v>https://www.workabroad.ph/job/3349900</v>
+      </c>
+      <c r="M26" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N26" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/0a53dc11ed50f397187da0022a3629f45c807067f3ad2e9454784ce43cbd4e4b0b5836cbd7f3705da26d788fa9238a5d166b1cb5df095e8aadfcff76deddd225eMgxntdPOiVihrPhjnhIbhbx~oKZCBOgC0JrrrnWJ6U-</v>
+      </c>
+      <c r="O26" t="str">
+        <v>12/05/2025</v>
+      </c>
+      <c r="P26" t="str">
+        <v>02/02/2026</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>3349900</v>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Administration Officer</v>
+      </c>
+      <c r="B27" t="str">
+        <v>LANDBASE HUMAN RESOURCES COMPANY</v>
+      </c>
+      <c r="C27" t="str">
+        <v>DMW License No: POEA-230-LB-112215-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Key duties include managing inventory, booking meetings, handling confidential documents, organizing travel, and acting as a point person for inquiries, requiring strong organizational, communication, and time-management skills. • manages daily office operations, providing crucial support by handling supplies, records, scheduling, correspondence, and assisting staff/visitors to ensure smooth, efficient organizational workflow, often involving budget tracking and policy impleme • Organization, communication, time management, attention to detail, problem-solving, multitasking, and proficiency with office software (MS Office). Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Business Studies/Administration/Management; Hospitality/Tourism Management or similar fields. • High level of responsiveness and agility. Should have accuracy in data entry. Experience with office management software like MS Office</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E27" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F27" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G27" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H27" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L27" t="str">
+        <v>https://www.workabroad.ph/job/3351967</v>
+      </c>
+      <c r="M27" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N27" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/ee2b08119f6c025602d44dd32df872bd122494f5c684f60e80eb6995219cee91a3657f9e80315bd7c9cfd573610e99b4854495ebe6ad1ad08eaee8a73b3e70c5iDLQCzTuPik6VvOMNZkdzykImsIvJhzqAobS02Nmggc-</v>
+      </c>
+      <c r="O27" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P27" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>3351967</v>
+      </c>
+      <c r="R27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Administrative Assistant</v>
+      </c>
+      <c r="B28" t="str">
+        <v>MRH GLOBAL PERSONNEL SERVICES, INC.</v>
+      </c>
+      <c r="C28" t="str">
+        <v>• Screening calls, directing inquiries, composing emails, handling mail/faxes, greeting visitors. • Key duties involve managing communication, coordinating logistics, supporting managers, and handling data entry, making them central to office efficiency. • Administrative assistants provide support to managers, other employees, and office visitors by handling a variety of tasks in order to ensure that all interactions between the organization and others are positive and productive. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Business Studies/Administration/Management or similar fields. • Candidates must have a work experience in any Retail business.</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E28" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F28" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G28" t="str">
+        <v>900</v>
+      </c>
+      <c r="H28" t="str">
+        <v>900</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Koror</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Koror</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Palau</v>
+      </c>
+      <c r="L28" t="str">
+        <v>https://www.workabroad.ph/job/3351822</v>
+      </c>
+      <c r="M28" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N28" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/b705161df306a0247d7c1a73df7aa61d7405ac4a3f2d28a1304b0647e85bd5c9a04379b37a99d6e43600dbd2f8e36fcb63ff9e13c6bf8bb7b1f56683b9b63de5QxyqJUDZyAFyVVyQli1k9XWUM0XRi.zDETB6kgZA3Po-</v>
+      </c>
+      <c r="O28" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P28" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>3351822</v>
+      </c>
+      <c r="R28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Administrative Officers - Papua New Guinea</v>
+      </c>
+      <c r="B29" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C29" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Proven work experience as an Administrative Officer, Administrator or similar role • With basic knowledge in Mandarin • Solid knowledge of office procedures Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Experience with office management software like MS Office (MS Excel and MS Word, specifically) • Excellent written and verbal communication skills • Strong organizational skills with a problem-solving attitude</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E29" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F29" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G29" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H29" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L29" t="str">
+        <v>https://www.workabroad.ph/job/3348743</v>
+      </c>
+      <c r="M29" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N29" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a797bcbbae5f57b8901778db6db870f05e55a6c74bc696ecb5b1de8ca046fd51a7c8765cdea34e556898e5c3ef988b698f127cb4de04fc2d73de2f15d712deb2wI9cZ5035qrs5LqTjDsLCVz4466R0sqXjsRaQPT8yno-</v>
+      </c>
+      <c r="O29" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P29" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>3348743</v>
+      </c>
+      <c r="R29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Advertising Designer</v>
+      </c>
+      <c r="B30" t="str">
+        <v>FGS EAST ASIA TECHNICAL RESOURCE MANAGEMENT INC</v>
+      </c>
+      <c r="C30" t="str">
+        <v>• Create design for booth exhibition • Develop visual concept and layout • Maintain and evolve visual identity and brand guidelines across all projects. Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Advertising / Media; Architecture / Urban Studies; Art &amp; Design or similar fields. • With knowledge and proficiency in using SketchUp application</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E30" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F30" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G30" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H30" t="str">
+        <v>3,450</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L30" t="str">
+        <v>https://www.workabroad.ph/job/3352666</v>
+      </c>
+      <c r="M30" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N30" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/6f261604414c59877b17b7f23e6dc594457b6e4bc22aa5a6335769dc5e7be06ce26bdb2e59b402fe2903e89025174b3ee84d0cf2ed4de288cb5c2ce90e9de937UeHvx6C8xaZony3.2zjgHjeLiqT3EwSsU48qS4jNEgQ-</v>
+      </c>
+      <c r="O30" t="str">
+        <v>01/12/2026</v>
+      </c>
+      <c r="P30" t="str">
+        <v>02/10/2026</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>3352666</v>
+      </c>
+      <c r="R30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>AESTHETIC SURGERY NURSE</v>
+      </c>
+      <c r="B31" t="str">
+        <v>IMES GLOBAL, INC.</v>
+      </c>
+      <c r="C31" t="str">
+        <v>DMW License No: POEA-189-LB-120720-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Deliver a high-quality care to patients undergoing cosmetic and reconstructive procedures in a clinical setting. • Works closely with plastic surgeons and the clinic team to ensure patients receive safe, effective and compassionate care before, during, and after procedures. • The ideal candidate is detail-oriented, skilled in both technical and interpersonal aspects of nursing, and comfortable working in a fast-paced, patient-focused environment. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be a Prof'l License(Passed Board/Bar/Prof'l License Exam) holder. • Experience in cosmetic or surgical nursing is strongly preferred with CPR/BLS certification. • Knowledge of aesthetic procedures and skincare products (e.g., Botox, fillers, laser treatments) is a plus. • Ability to maintain discretion and patient confidentiality. • Strong interpersonal and communication skills. Additional Information: • Experience in cosmetic or surgical nursing is strongly preferred with CPR/BLS certification. • Knowledge of aesthetic procedures and skincare products (e.g., Botox, fillers, laser treatments) is a plus. • Ability to maintain discretion and patient confidentiality. • Strong interpersonal and communication skills.</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E31" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F31" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G31" t="str">
+        <v>5,500</v>
+      </c>
+      <c r="H31" t="str">
+        <v>6,000</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L31" t="str">
+        <v>https://www.workabroad.ph/job/3348326</v>
+      </c>
+      <c r="M31" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N31" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/60ba4e5a3b5744ed9dc2bde0903506efe9ddc00f6a051d5ee0daf9ccb826a439eea5946b9cb9657e2032c83d6130e1400156df44c3f7ff684b9ca12a15d27502f7Owmp5BKKDhaJ0lbNNv8Mc~~PkN1IvRR7Nt5hMM9to-</v>
+      </c>
+      <c r="O31" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P31" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>3348326</v>
+      </c>
+      <c r="R31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>AGRICULTURAL WORKER</v>
+      </c>
+      <c r="B32" t="str">
+        <v>PRINCIPALIA MANAGEMENT AND PERSONNEL CONSULTANTS, INC</v>
+      </c>
+      <c r="C32" t="str">
+        <v>DMW License No: POEA-104-LB-062920-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Prepare fields or greenhouses for planting by tilling soil, applying fertilizers, and setting up irrigation systems. Plant, cultivate, and harvest crops such as fruits, vegetables, grains, or other produce • Operate and maintain farm equipment, including tractors, plows, harvesters, and irrigation machinery. Feed, water, and care for livestock, ensuring proper housing, sanitation, and health monitoring. • Sort, grade, pack, and transport harvested products. Identify and control pests, weeds, and diseases using approved methods. Qualification: • A minimum of 1 year(s) of working experience is required. • No minimum educational attainment is required for this position. • with at least 2 years valid passport</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E32" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F32" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G32" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H32" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Kašina</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Zagreb</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Croatia (Hrvatska)</v>
+      </c>
+      <c r="L32" t="str">
+        <v>https://www.workabroad.ph/job/3348673</v>
+      </c>
+      <c r="M32" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N32" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c2664e711eefb909e98b61a01ed5afe16585d2e35954ebf6869e7ee07a6bd1c37c4ec79c4d72b5301e23c23c31508ece39c3f14fb025515513bd3ad3011e499cKyQ7kGrrW.862aAuESR.ulXMtrx6YswBNUK96bOphAQ-</v>
+      </c>
+      <c r="O32" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P32" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>3348673</v>
+      </c>
+      <c r="R32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Agricultural Worker (Poultry Farm)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>MAGSAYSAY GLOBAL SERVICES, INC.</v>
+      </c>
+      <c r="C33" t="str">
+        <v>• General labor during poultry transportation (loading/unloading) • Basic maintenance tasks on-site (repairing simple technological issues, e.g., reconnecting feed chains in case of breakage — no technical qualification required) • Poultry farm tasks – animal care, egg collection, maintaining cleanliness on-site • Incubator-related tasks that do not require qualifications – egg sorting, warehouse tasks Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Minimum 2 years of experience in poultry care • Basic Microsoft Office skills are an advantage • Good physical condition, with motivation and reliability valued. • Health-related exclusion criteria: Asthma, weak physical condition. Additional Information: • Minimum 2 years of experience in poultry care • Basic Microsoft Office skills are an advantage • Good physical condition, with motivation and reliability valued. • Health-related exclusion criteria: Asthma, weak physical condition.</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E33" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F33" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="G33" t="str">
+        <v>600</v>
+      </c>
+      <c r="H33" t="str">
+        <v>600</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Miskolc</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Hungary</v>
+      </c>
+      <c r="K33" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L33" t="str">
+        <v>https://www.workabroad.ph/job/3353339</v>
+      </c>
+      <c r="M33" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N33" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/5125032f93f68d3ae053fa57dbf4c6dc730ea21f82684aa74cbe27b4607c90d505bf4be55db685059b2130293e94adb1858713d8acd630d5b7176c788b52e808VVi6RyolpAGGHAmCI~Fm8PACWk2WZtgJ3WxGS475RsI-</v>
+      </c>
+      <c r="O33" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P33" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>3353339</v>
+      </c>
+      <c r="R33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>AI Development Consultant</v>
+      </c>
+      <c r="B34" t="str">
+        <v>LEADING INTERNATIONAL RECRUITMENT (LINRCO) CORP (FORMERLY LWV CORPORATION)</v>
+      </c>
+      <c r="C34" t="str">
+        <v>• Design, develop, and deploy AI and machine learning solutions aligned with client business objectives • Analyze business problems and identify opportunities where AI can add value • Develop prototypes, proof-of-concepts, and production-ready AI solution • Evaluate, test, and optimize AI models for performance and scalability Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Computer Science/Information technology; Others or similar fields. • Strong analytical, problem-solving, and critical thinking skills. • Experience in a consulting or professional services environment • Certifications in AI, analytics, or related technologies are preferable. • Experience working with AI frameworks, data platforms, or cloud-based AI services</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E34" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F34" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G34" t="str">
+        <v>15,000</v>
+      </c>
+      <c r="H34" t="str">
+        <v>20,250</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L34" t="str">
+        <v>https://www.workabroad.ph/job/3352156</v>
+      </c>
+      <c r="M34" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N34" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/08624b6689359439e6e3a5798330ac81ef733a0069c25fcb90f3813c5538a8ea35fa56abafd58b2f7657a2b20e8021f91e8e9688ed050a7c3c8ad2b9a140abb1hLaOeMjBIMb~5qivst.xd3vqf03BdRIVfAhegU4QRIE-</v>
+      </c>
+      <c r="O34" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P34" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>3352156</v>
+      </c>
+      <c r="R34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Air Brush Painter</v>
+      </c>
+      <c r="B35" t="str">
+        <v>FILIPINAS-GLOBAL MULTI-SERVICES, INC.</v>
+      </c>
+      <c r="C35" t="str">
+        <v>• Prepare surfaces for airbrushing by cleaning, sanding, or masking as necessary. • Select appropriate paints, colors, and finishes based on project requirements. • Operate airbrush equipment to apply paint with precision and consistency. • Create gradients, detailed designs, and custom patterns using airbrush techniques. • Maintain accurate color matching and blending to ensure product consistency. • Perform touch-ups and corrections to achieve flawless final finishes. • Clean and maintain airbrush tools and equipment to ensure longevity and optimal performance. • Adhere to health, safety, and environmental regulations during painting processes. • Collaborate with designers and production teams to meet project timelines. • Inspect painted products to ensure quality and consistency before final assembly or delivery. Qualification: • A minimum of 3 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Proven experience as an Airbrush Painter or similar role in a manufacturing or creative environment. • Strong understanding of airbrush techniques, paint types, and surface preparation methods. • Excellent attention to detail and color accuracy. • Creativity and artistic skills to deliver custom designs and effects. • Knowledge of safety protocols for handling paints and solvents. • Problem-solving skills for addressing painting challenges. • Ability to work efficiently under deadlines without compromising quality. • Ability to work with protective gear for extended periods. • Standing for prolonged hours while performing airbrushing tasks. • Lifting and handling materials as required during the painting process.</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E35" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F35" t="str">
+        <v>AED</v>
+      </c>
+      <c r="G35" t="str">
+        <v>2,200</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2,200</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="K35" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L35" t="str">
+        <v>https://www.workabroad.ph/job/3352456</v>
+      </c>
+      <c r="M35" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N35" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/82ed859564ddd02308d8c6a243848a623989a2a7161685fc56091929958b82dc401987be443b8e9960113cb2ad88bbf84a7f0ec71ad1fcb1c508c3bcd3521c2bZJcj5ZE5yVx3xrSwp35z6kVT1ZcNUGcgLna1czmk.pY-</v>
+      </c>
+      <c r="O35" t="str">
+        <v>01/09/2026</v>
+      </c>
+      <c r="P35" t="str">
+        <v>02/07/2026</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>3352456</v>
+      </c>
+      <c r="R35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Air Condition Mechanic (HVAC)</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ORANGE INTERNATIONAL RECRUITMENT SERVICES (FORMERLY INFRACELL PHILIPPINE)</v>
+      </c>
+      <c r="C36" t="str">
+        <v>• Minimum 2 year's Technical qualification • Diploma. 4+ years’ experience in maintenance of HVAC systems ( AHU, AHU, FCU, DX Units, chillers etc) • installing, repairing, and maintaining heating, ventilation, and air conditioning systems • Carry out mechanical and electrical inspection and maintenance on equipment to bring them to optimal performance Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Strong communication skills to explain technical information</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E36" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F36" t="str">
+        <v>AED</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2,250</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="K36" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L36" t="str">
+        <v>https://www.workabroad.ph/job/3349102</v>
+      </c>
+      <c r="M36" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N36" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/e4626e4c1830632174d24367692b633b2de2d26c81effc1e69ff86b44294ee3730902f93275f9556a887499ad0e499422026b4b371909f7ac8bc2470901e920bsvyyiXNPciuexoMB1~qGhjbNCuS66pUTF2tkZi2Q3Ow-</v>
+      </c>
+      <c r="O36" t="str">
+        <v>11/28/2025</v>
+      </c>
+      <c r="P36" t="str">
+        <v>01/26/2026</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>3349102</v>
+      </c>
+      <c r="R36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Aircraft Mechanic-Sheet Metal Worker-Composite</v>
+      </c>
+      <c r="B37" t="str">
+        <v>INSANA INTL PLACEMENT AGENCY INC.</v>
+      </c>
+      <c r="C37" t="str">
+        <v>• Good knowledge of materials used in the construction of individual aircraft types and their surface treatment. • Knowledge of pain schemes and other means for surface protection on individual aircrafts types and types of surface; understanding of painting and coating works technology (training of aircraft paint manufacturers) basic orientation in aviation docum • . ⁠Experience in Base or Heavy Maintenance participating on C Checks and D Checks of these aircraft Qualification: • A minimum of 4 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Airline Transport or similar fields. • Considerable experience 4+ years on B737 series and Airbus 320 fam. / A330 • Ideally those who have been doing “C Check” and “D Check” • JBase maintenance and AD and SB accomplishment</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E37" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F37" t="str">
+        <v>CZK</v>
+      </c>
+      <c r="G37" t="str">
+        <v>37,500</v>
+      </c>
+      <c r="H37" t="str">
+        <v>37,500</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Nový Jičín District</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Czech Republic</v>
+      </c>
+      <c r="K37" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L37" t="str">
+        <v>https://www.workabroad.ph/job/3353829</v>
+      </c>
+      <c r="M37" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N37" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/fedd4a3011f5c89436751380e2812d18d03c1adaa32a5d5bf6f6c34957089b9f6b6f7499e13fa000adf58b8e6706818d13f5bc198492be066cd29da72d14c797ja6MjOl48VBf5.f67BPC0n2VRRha9wcL15F2WgjIX8U-</v>
+      </c>
+      <c r="O37" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P37" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>3353829</v>
+      </c>
+      <c r="R37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>ALL AROUND BEAUTICIAN</v>
+      </c>
+      <c r="B38" t="str">
+        <v>LUXURY &amp; JP INTERNATIONAL CORPORATION</v>
+      </c>
+      <c r="C38" t="str">
+        <v>• WITH PLEASING PERSONALITY AND PROPER HYGIENE • MUST BE ALL AROUND CA N DO MAKE UP,HAIR TREATMENT,MANI/PED,WAXING • APPLICANTS MUST BE FLEXIBLE IN WORK • Beautician responsibilities include removing hair, recommending skin care therapies and managing client appointments. You should be well-versed in beauty treatments, including hairstyling, makeup, facials, hair removal, manicures and pedicures. • Must have NCII in Massage Therapy</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E38" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F38" t="str">
+        <v>BHD</v>
+      </c>
+      <c r="G38" t="str">
+        <v>160</v>
+      </c>
+      <c r="H38" t="str">
+        <v>205</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Manama</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Capital Governorate</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Bahrain</v>
+      </c>
+      <c r="L38" t="str">
+        <v>https://www.workabroad.ph/job/3351136</v>
+      </c>
+      <c r="M38" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N38" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c77ae6d50143a04e4aa28a4ead3561927455abea310fa4433deaf23f04fee1d429d5389e637fdf10bfe5c468f48f63fdbe448005f41f02cd675c006238cbeee57h4ZPDs0vrMta6LIuFj4UKYUwCh1jAT96tc76C9r43w-</v>
+      </c>
+      <c r="O38" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P38" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>3351136</v>
+      </c>
+      <c r="R38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>ALL AROUND BEAUTICIAN / Salon Worker</v>
+      </c>
+      <c r="B39" t="str">
+        <v>PACIFIC BUSINESS VENTURES, INC.</v>
+      </c>
+      <c r="C39" t="str">
+        <v>• Minimum TWO (2) Years Contract. • Duties and functions of an EXPERT and QUALIFIED ALL AROUND BEAUTICIAN HAIRSTYLIST. • Provide a variety of beauty and grooming services such as cutting, styling, , coloring hair and massage to the customers satisfaction. • You may be assigned to any of the various branches of the Employer's company. Qualification: • A minimum of 3 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Valid Passport "Minimum validity EIGHTEEN (18) Months" • Latest Certificate Of Employment (COE) from a reputable establishment is required. • This job is for IMMEDIATE DEPLOYMENT only. Please do not apply to us if you're not decided for IMMEDIATE DEPLOYMENT only. Additional Information: • Valid Passport "Minimum validity EIGHTEEN (18) Months" • Latest Certificate Of Employment (COE) from a reputable establishment is required. • This job is for IMMEDIATE DEPLOYMENT only. Please do not apply to us if you're not decided for IMMEDIATE DEPLOYMENT only.</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E39" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F39" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3,800</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L39" t="str">
+        <v>https://www.workabroad.ph/job/3353516</v>
+      </c>
+      <c r="M39" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N39" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/4a5eee3db4eb5021178318f50b168a0b19cc199eec9ce6e95ad112fdd9c8ba8e3aea8afcdf2d8deec9c2d744cc72d730208303ba17ed6362df133920859015c2ZHvyknjOuFsHKkkHZrhYi~r2jDWJZm0~QEAgx5C672o-</v>
+      </c>
+      <c r="O39" t="str">
+        <v>01/16/2026</v>
+      </c>
+      <c r="P39" t="str">
+        <v>02/14/2026</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>3353516</v>
+      </c>
+      <c r="R39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>ALL AROUND THERAPIST/BARBER</v>
+      </c>
+      <c r="B40" t="str">
+        <v>LUXURY &amp; JP INTERNATIONAL CORPORATION</v>
+      </c>
+      <c r="C40" t="str">
+        <v>• PROVEN MASSAGE EXPERIENCE IS A MUST, EXPERIENCE ABROAD IS A PLUS. • CAN DO MANICURE, PEDICURE, AND FOOT SPA. • CAN DO FACIAL AND BODY WAXING, STEAM BATH. • Listen to clients during appointments and adjust technique as they desire • Meeting with clients to determine the type of massage they needs, creating a relaxing ambiance in their office and kneading or rubbing muscles to release tension. • Responsible for providing relaxation or treating body pain and discomfort through physical touch and moving a client’s muscles.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E40" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F40" t="str">
+        <v>BHD</v>
+      </c>
+      <c r="G40" t="str">
+        <v>170</v>
+      </c>
+      <c r="H40" t="str">
+        <v>250</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Ar Rifā‘</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Southern Governorate</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Bahrain</v>
+      </c>
+      <c r="L40" t="str">
+        <v>https://www.workabroad.ph/job/3351140</v>
+      </c>
+      <c r="M40" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N40" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/9ccb4b46725d7fb9abd6051fc6997bb3889734689db934f5b1366e7dc463230bd353c70fd288efe3def1f799a0577b23d68579a307ac4e7864f56dc39e000ba2mCg~IazUeGqaEOB70sfGdERaIXfCHDum92xM6YfvYQM-</v>
+      </c>
+      <c r="O40" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P40" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>3351140</v>
+      </c>
+      <c r="R40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>ALL-AROUND CARPENTER (General / Skilled Carpenter)</v>
+      </c>
+      <c r="B41" t="str">
+        <v>PIONEER ASIA MANPOWER INTERNATIONAL INC.</v>
+      </c>
+      <c r="C41" t="str">
+        <v>• Perform structural and finishing carpentry • Install ceilings, flooring, panels, partitions, and fixtures • Conduct repair and maintenance work across different areas • Assist in minor masonry, painting, or basic electrical/plumbing (if required) • Use tools and equipment safely • Work independently or with minimal supervision Qualification: • A minimum of 3 year(s) of working experience is required. • No minimum educational attainment is required for this position. • This position is open to applicants with experience as Carpenter, Finishing Carpenter, or General Carpenter • Knowledge of general construction, repair, and maintenance • Flexible and able to adapt to various site tasks Additional Information: • This position is open to applicants with experience as Carpenter, Finishing Carpenter, or General Carpenter • Knowledge of general construction, repair, and maintenance • Flexible and able to adapt to various site tasks</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E41" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F41" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G41" t="str">
+        <v>700</v>
+      </c>
+      <c r="H41" t="str">
+        <v>800</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Weno</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Chuuk State</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Micronesia</v>
+      </c>
+      <c r="L41" t="str">
+        <v>https://www.workabroad.ph/job/3349163</v>
+      </c>
+      <c r="M41" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N41" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a8841ee06cd71eec4824654db498bf6abe8510167f7f612f876e9f58a92673f176b02af62536ae401953347a1311b6f1456111224d0b309d0687b94215ce1a0eSOf7UTwQ~GHnZQTQoDPIb~ow6dhoeibeuUoGBl.24tQ-</v>
+      </c>
+      <c r="O41" t="str">
+        <v>11/29/2025</v>
+      </c>
+      <c r="P41" t="str">
+        <v>01/27/2026</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>3349163</v>
+      </c>
+      <c r="R41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Allied Infant Educarer</v>
+      </c>
+      <c r="B42" t="str">
+        <v>SKILLSTRADER INC.</v>
+      </c>
+      <c r="C42" t="str">
+        <v>• Ability to plan and implement age-appropriate activities. • Patience, empathy, and genuine care for infants. • Physically fit and emotionally stable to handle young children. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Nursing or similar fields. • At least 2 years of relevant experience in handling infants or toddlers. • Experience in a childcare center, nursery, or early learning environment is an advantage. • Applicants from any field of study may apply, especially those related to caregiving or early childhood care.</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E42" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F42" t="str">
+        <v>SGD</v>
+      </c>
+      <c r="G42" t="str">
+        <v>1,840</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Central Singapore Community Development Council</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Singapore</v>
+      </c>
+      <c r="L42" t="str">
+        <v>https://www.workabroad.ph/job/3353883</v>
+      </c>
+      <c r="M42" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N42" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/080916bd51ca9035b9e1c3a0ff9dd50ae6a51ea08b0123f99c7bb50dccc8e4133baa104b12596319864416186bb99464af0974afb5fd88815d5ad15f17810e12FTtgu6ONJZ2P0K0j63mILl.pNLvSYuxkPGt7Xwr0GEQ-</v>
+      </c>
+      <c r="O42" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P42" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>3353883</v>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Aluminum Boat MIG and TIG welder fabricator</v>
+      </c>
+      <c r="B43" t="str">
+        <v>JOBLANE INTERNATIONAL MANPOWER SERVICES</v>
+      </c>
+      <c r="C43" t="str">
+        <v>• To perform as aluminum welder / fabricator using TIG and MIG welding procedure • Can fully understand blueprint drawing for light fabrications • Relevant experience in boat / yacht building as welder fabricator preferred but not required. • Must have process awareness and use of general workshop tools Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Can speak and understand the English Language as mode of communication. Additional Information: • Can speak and understand the English Language as mode of communication.</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E43" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F43" t="str">
+        <v>NZD</v>
+      </c>
+      <c r="G43" t="str">
+        <v>30</v>
+      </c>
+      <c r="H43" t="str">
+        <v>30</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Napier</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Hawke's Bay Region</v>
+      </c>
+      <c r="K43" t="str">
+        <v>New Zealand</v>
+      </c>
+      <c r="L43" t="str">
+        <v>https://www.workabroad.ph/job/3348504</v>
+      </c>
+      <c r="M43" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N43" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/48efcacb2e3c32036dd5ef9dd9654d9bffb336a6c39ddcfe7543bd689f6117ae877fa8ef8d3f9a43a57dc95c29abab6230cd0f6c34d2991af90768fa499f5bc3ISQXJHyfqFzSKBD71ltoK73P.JHyI6hk99qzhRMIa~s-</v>
+      </c>
+      <c r="O43" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P43" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>3348504</v>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>ALUMINUM FABRICATORS &amp;amp; JOINERS</v>
+      </c>
+      <c r="B44" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C44" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Read and interpret technical drawings, blueprints, and work orders • Measure, cut, bend, and shape aluminium materials using hand tools, power tools, and machinery • Weld, grind, and polish aluminium components to required specifications. • Assemble fabricated parts into complete units or sub-assemblies. • Inspect finished products for accuracy, durability, and compliance with standards. • Maintain tools, equipment, and work areas in safe and efficient condition. • Collaborate with supervisors and team members to meet production deadlines • Install aluminium-framed glass products according to drawings and specifications. • Cut, assemble, and fit aluminium frames and sashes for glass installation • Safely transport, unload, and handle glass panels and aluminium components. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Metal Fabrication/Tool &amp; Die/Welding) or similar fields. • Responsible for manufacturing, assembling, and finishing aluminium components to meet project specifications</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E44" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F44" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G44" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H44" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Suva</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Central Division</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L44" t="str">
+        <v>https://www.workabroad.ph/job/3351688</v>
+      </c>
+      <c r="M44" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N44" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/f4dc039232beebfc22fa977b95ccfe725f1712b42217e6b93829d5497a2e418c1e0fd28ceabe973b73071bb41114f63c5f55a0da59d32f36ec38813b5aa1954c5PhdYZSkxW05wDSeHpc3RTnxw3AMLVdEupjDJh1P9jU-</v>
+      </c>
+      <c r="O44" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P44" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>3351688</v>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>AMUSEMENT RIDES MECHANIC</v>
+      </c>
+      <c r="B45" t="str">
+        <v>PROFILE OVERSEAS MANPOWER SERVICES INC.</v>
+      </c>
+      <c r="C45" t="str">
+        <v>• Prepare ride and carousels for daily guest operation • perform start up inspection according to internal checklist • test and vrify that all mechanical system function safety before opening • asist ride operators and technical control with any issues arising during the day Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Others) or similar fields. • With expereince in amusement park Additional Information: • With expereince in amusement park</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E45" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F45" t="str">
+        <v>NOK</v>
+      </c>
+      <c r="G45" t="str">
+        <v>22,166</v>
+      </c>
+      <c r="H45" t="str">
+        <v>22,166</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Stavanger</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Rogaland</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="L45" t="str">
+        <v>https://www.workabroad.ph/job/3352033</v>
+      </c>
+      <c r="M45" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N45" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/588cbce48345399efb466e7a1185e3249e4d632a3e8db8e80c596d232e160fe27500579cdc18cef712a602cd6f50353da97b25408cd055da7f3a5eab846c4285MKlalf7IAuztU80BJlWmkK48ZKD0xu2B9SRORf.pUpM-</v>
+      </c>
+      <c r="O45" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P45" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>3352033</v>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>ANIMAL BREEDING SPECIALIST</v>
+      </c>
+      <c r="B46" t="str">
+        <v>EUROASIA PHILIPPINES INC.</v>
+      </c>
+      <c r="C46" t="str">
+        <v>• Consult with pet owners to understand their expectations and preferences for pet grooming • Wash, rinse, and dry pets’ coats using grooming shampoos and conditioners • Trim, cut, or shave pets’ fur, hair, or nails using grooming tools • Inspect pets for any skin conditions, ticks, fleas, or other health concerns and alert pet owners • Ensure the safety and comfort of the pets during grooming procedures • Keep grooming facilities clean and sanitized • Maintain records of pet grooming services provided and any observed health concerns • Provide advice to pet owners on home grooming techniques Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Flexible and can function with minimum supervision • Pet grooming experience local or overseas • Good English communication skills is a must</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E46" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F46" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G46" t="str">
+        <v>2,250</v>
+      </c>
+      <c r="H46" t="str">
+        <v>2,250</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Khobar</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L46" t="str">
+        <v>https://www.workabroad.ph/job/3351921</v>
+      </c>
+      <c r="M46" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N46" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d16bbb7489a81907015a213242376a40d108834c78604d44f430cded5f45b3798fc77f90daa95992ee625c49f7874721b5d80319608943fd39eea3fe510c11bc7gxqwVuSfXo.Zocsog1s.6p~K2IptRzyo9FITvmuaAA-</v>
+      </c>
+      <c r="O46" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P46" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>3351921</v>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>ANTENNA RIGGER TELECOM TOWERS TECHN</v>
+      </c>
+      <c r="B47" t="str">
+        <v>AL AWA`EL INTERNATIONAL MANPOWER, INC.</v>
+      </c>
+      <c r="C47" t="str">
+        <v>DMW License No: POEA-190-LB-120622-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • PERFORM INSTALLATIONS, ALIGNMENT, AND SECURING OF ANTENNAS, TOWERS, MASTS, AND SUPPORTING HARDWARE • CLIMB COMMUNICATION TOWERS AND WROK AT ELEVATED HEIGHTS USING PROPER FALL PROTECTION AND SAFETY GEAR • ASSEMBLE AND MOUNT ANTENNAS (VHF, UHF, RADAR, MICROWAVE, NAVIGATION SYSTEMS) PER LAY OUT DRAWINGS AND TECHNICAL SPECIFICATIONS • RUN, SECURE AND TERMINATE COAXIAL CABLES, WAVEGUIDES, AND FIBER OPTIC CABLES AS REQUIRED • USE RIGGING EQUIPMENT (ROPES, PULLEYS, WINCHES, HARNESSES) SAFELY AND EFFECIENTLT TO HOSIST MATERIALS • PERFORM ANTENNA ALIGNMENT AND ORINETATION USING AZIMUTH/ ELEVATION TOOLS AND TEST EQUIPMENT • ENSURE COMPLIANCE WITH SITE SAFETY RULES, RF EXPOSURE LIMITS AND AVIATION REGULATIONS • COORDINATE WITH ENGINEERS AND TECHNICIANS TO VERIFY SIGNAL STRENGTH AND INSTALLATION ACCURACY Additional Information:</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E47" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F47" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G47" t="str">
+        <v>4,500</v>
+      </c>
+      <c r="H47" t="str">
+        <v>5,500</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L47" t="str">
+        <v>https://www.workabroad.ph/job/3349147</v>
+      </c>
+      <c r="M47" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N47" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/30766964f47b23fdf20cdb6ddd9680636599f134a1f07ab9c0f9733e7ba80daab1e10b769c9ad7fc202df6348f46f733d9256c373a504ddc3f2ebbb72221a7a3fmnbxl8HulXsICHcy1jlzMnWIuKuHCa~Nhl6SDpvE~U-</v>
+      </c>
+      <c r="O47" t="str">
+        <v>11/28/2025</v>
+      </c>
+      <c r="P47" t="str">
+        <v>01/26/2026</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>3349147</v>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Appliance Technician</v>
+      </c>
+      <c r="B48" t="str">
+        <v>EDI STAFFBUILDERS INTERNATIONAL INC (EDI)</v>
+      </c>
+      <c r="C48" t="str">
+        <v>• Inspect and diagnose faults in appliances using tools and diagnostic equipment. • Perform repairs and maintenance on a wide range of appliances. • Replace defective parts such as motors, switches, and heating elements. • Install and test new appliances to ensure proper functioning. • Provide customers with detailed explanations of issues and repairs. • Maintain accurate records of services performed, parts used, and time spent. • Follow safety procedures and manufacturer specifications. • Keep tools and equipment in good working order. • Order and manage spare parts inventory as needed. • Offer advice on the care and maintenance of appliances. • Maintain a clean and professional appearance and work environment. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Proven experience working as an Appliance Technician. Willing to work overseas</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E48" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F48" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G48" t="str">
+        <v>1,900</v>
+      </c>
+      <c r="H48" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Khobar</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L48" t="str">
+        <v>https://www.workabroad.ph/job/3353946</v>
+      </c>
+      <c r="M48" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N48" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O48" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="P48" t="str">
+        <v>02/19/2026</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>3353946</v>
+      </c>
+      <c r="R48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>APPLICATION OF CONSTRUCTION EQUIPMENT - BACK HOE</v>
+      </c>
+      <c r="B49" t="str">
+        <v>PRUDENTIAL EMPLOYMENT AGENCY INC</v>
+      </c>
+      <c r="C49" t="str">
+        <v>• Drives and manages heavy machinery for digging, loading, and grading earth, focusing on safety, efficiency, and following project plans by conducting pre/post-checks • Interpreting blueprints, performing basic maintenance, and communicating with the crew, ensuring tasks like trenching • Foundation work, and material movement meet quality standards. Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Candidates must possess a VALID PASSPORT. (NOT EXPIRED) Additional Information: • Candidates must possess a VALID PASSPORT. (NOT EXPIRED)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E49" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F49" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="G49" t="str">
+        <v>127,139</v>
+      </c>
+      <c r="H49" t="str">
+        <v>172,600</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Hamamatsu-shi</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Shizuoka Prefecture</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="L49" t="str">
+        <v>https://www.workabroad.ph/job/3350318</v>
+      </c>
+      <c r="M49" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N49" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/af7d8c0ec4ee124ccc3cd8a04682f9383fe55fccb34139318426d5da555b4b53ddbfb9487b56b8c95700f3e24a251a4271d6cfbab59924e1e3994ec8b4a5ddfdC22TXGGzBq7nWsVTsNHrDpsnYaNKmOStI722eRBV~7I-</v>
+      </c>
+      <c r="O49" t="str">
+        <v>12/13/2025</v>
+      </c>
+      <c r="P49" t="str">
+        <v>02/10/2026</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>3350318</v>
+      </c>
+      <c r="R49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Applicator (Window TInter)</v>
+      </c>
+      <c r="B50" t="str">
+        <v>GFI MANPOWER INTERNATIONAL SPECIALIST</v>
+      </c>
+      <c r="C50" t="str">
+        <v>• Applying and smoothing tint onto vehicle windows • Cutting tint using authorized techniques. • Removing dirt and debris from windows • Using the shop tinting software program to input the vehicle specifications. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Must have at least 3 years of working experience as installer</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E50" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F50" t="str">
+        <v>QAR</v>
+      </c>
+      <c r="G50" t="str">
+        <v>2,400</v>
+      </c>
+      <c r="H50" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L50" t="str">
+        <v>https://www.workabroad.ph/job/3353857</v>
+      </c>
+      <c r="M50" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N50" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/1deb537a7a3f0dce6d287c18638e74f5474e424cae3165dc3de13ea881009ee527bb952c11f7b30c85905f6fe033ec15a2e45461e1f5147e995ff93eb745b2a9vehfCEAH1buedHau7wNMbi8zSF.5makndHZmLQv.Z5A-</v>
+      </c>
+      <c r="O50" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P50" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>3353857</v>
+      </c>
+      <c r="R50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>ARCHITECTURAL DESIGNER</v>
+      </c>
+      <c r="B51" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C51" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Prepare and produce complete Architectural Design Documents for large-scale and mega projects in the Gulf region, ensuring accuracy, technical quality, and compliance with international standards. • Coordinate and collaborate with top international consultant firms, contributing to design development, project detailing, and multidisciplinary integration. • Utilize architectural software such as Revit, AutoCAD, and other design tools to create drawings, models, and technical documentation required for project execution. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Prof'l License(Passed Board/Bar/Prof'l License Exam) holder. • 5-10 years’ experience in the production of Architectural Design Documents, in mega projects located in the gulf region. • Working experience with top international consultant firms • Skilled in the Architectural software such as Rivet, AutoCAD, AI, etc.</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E51" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F51" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G51" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H51" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L51" t="str">
+        <v>https://www.workabroad.ph/job/3350708</v>
+      </c>
+      <c r="M51" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N51" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a2c22f4f223e34b25ce3e344ddd53fbde825621ebaa7db03f15d3e4dbf84e8c7eb11634b41caf9883aa2dd042edde79b5ccd03e7e04534105de1d2d4f5a80ddd0vX4svjVcUikQIKsAh6IlivY4W26oN8OHlAk2rT6r6w-</v>
+      </c>
+      <c r="O51" t="str">
+        <v>12/17/2025</v>
+      </c>
+      <c r="P51" t="str">
+        <v>02/14/2026</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>3350708</v>
+      </c>
+      <c r="R51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Architectural Graphic Designer</v>
+      </c>
+      <c r="B52" t="str">
+        <v>IMES GLOBAL, INC.</v>
+      </c>
+      <c r="C52" t="str">
+        <v>DMW License No: POEA-189-LB-120720-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • SketchUp: Basic competence in using SketchUp for 3D modeling and design. • Develop high-quality visual content to support architectural and interior design projects. • Demonstrated proficiency in creating visually appealing and innovative graphic designs. • Use advanced graphic design software to enhance visual presentations and project documentations. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Prof'l License(Passed Board/Bar/Prof'l License Exam) holder. • Photoshop, Illustrator, and In Design for graphic design and presentation purposes.</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E52" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F52" t="str">
+        <v>QAR</v>
+      </c>
+      <c r="G52" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H52" t="str">
+        <v>5,000</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L52" t="str">
+        <v>https://www.workabroad.ph/job/3348980</v>
+      </c>
+      <c r="M52" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N52" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/3ce41e37c24b5aec8f739a9eddf0526f76623871c9cda9855e0f10f1349c71a9157d7a3225e5171161c690343b9c035c6ab6f023a4d9815736b3a7af63eea88eo3RpE3xyU8oQURqCVetQMJGSOVdNS87e~hncU6ZeVsg-</v>
+      </c>
+      <c r="O52" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P52" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>3348980</v>
+      </c>
+      <c r="R52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Architectural Model Maker (Technician)</v>
+      </c>
+      <c r="B53" t="str">
+        <v>ONTIME STAFFING SOLUTIONS, INC.</v>
+      </c>
+      <c r="C53" t="str">
+        <v>DMW License No: DMW-494-LB-02072025-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Proficient in CAD software (e.g., AutoCAD, SketchUp). • Experience with various model-making materials (wood, plastic, metal). • Proficiency in CAD software and model-making tools and knowledge about materials. • Knowledge of 3D printing and prototyping techniques. • Model Maker and Fabricator plays a crucial role in the architecture and installation industry, particularly in creating detailed scale models that represent architectural designs. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Architecture / Urban Studies or similar fields. • Has experience in Real Estate Maquette Companies</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E53" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F53" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G53" t="str">
+        <v>3,800</v>
+      </c>
+      <c r="H53" t="str">
+        <v>4,000</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Ta’if</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Makkah Region</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L53" t="str">
+        <v>https://www.workabroad.ph/job/3351848</v>
+      </c>
+      <c r="M53" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N53" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/701fcb8e8f549aae9e754cae79ff3b87c0f5da233e022c8d92113b1a9d2f2e13a5362a217a79f92a6a2c56ed7e59c7474f1455692e5ae549fd6e09cfbb30861dnkJAk.D1sIaV1lhlCy2CDLXaX1diSEuhtI.j8M8J6hw-</v>
+      </c>
+      <c r="O53" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P53" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>3351848</v>
+      </c>
+      <c r="R53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>AREA HOT/COLD MANAGER</v>
+      </c>
+      <c r="B54" t="str">
+        <v>EAST WEST PLACEMENT CENTER, INC</v>
+      </c>
+      <c r="C54" t="str">
+        <v>DMW License No: POEA-198-LB-121322-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Candidates must be Graduate of Bachelor's Degree in Engineering or related to the field. • Minimum of 5 years work experience with prior gulf experience in Oil &amp; Gas industry. • Open for all Ex-CCC / Ex-abroad.</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E54" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F54" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G54" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H54" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L54" t="str">
+        <v>https://www.workabroad.ph/job/3353780</v>
+      </c>
+      <c r="M54" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N54" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/28d7f37e92fce7b9c198fb9af5fadb284c7bb81be0c1c889b37a3188d8506360dac5730f82ebdd9c2247f78a4da86b833a8be0d9b3518dce9a4dbc1b5537ea4eR8bGmm1gJul2aTheLyunJQTo2gWqHuz8w0idTckuqUs-</v>
+      </c>
+      <c r="O54" t="str">
+        <v>01/19/2026</v>
+      </c>
+      <c r="P54" t="str">
+        <v>02/17/2026</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>3353780</v>
+      </c>
+      <c r="R54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>AREA MAANGER</v>
+      </c>
+      <c r="B55" t="str">
+        <v>PRINCIPALIA MANAGEMENT AND PERSONNEL CONSULTANTS, INC</v>
+      </c>
+      <c r="C55" t="str">
+        <v>DMW License No: POEA-104-LB-062920-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assist in managing daily restaurant operations to ensure smooth and efficient service Ensure high levels of customer satisfaction by addressing guest concerns promptly and professionally • Maintain restaurant standards for food quality, presentation, and service Monitor cleanliness and compliance with health and safety regulations • Assist in performance evaluations and disciplinary actions when necessary Ensure staff follow company policies, procedures, and service standards • Assist with inventory management, ordering supplies, and stock control • Strong leadership, communication, and interpersonal skills Excellent customer service and problem-solving abilities Ability to work flexible hours, including evenings, weekends, and holidays</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E55" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F55" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G55" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H55" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Kuwait City</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Capital Governorate</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="L55" t="str">
+        <v>https://www.workabroad.ph/job/3352146</v>
+      </c>
+      <c r="M55" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N55" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c8a5a4f6bf2e7abb69a40884b885f1c5acd8ac6db6a69d4172ad068f8d0637583226e512163752381972fe8bae78504776d8ece45c347018a8f327d77a597ec5JuOwIOkYOYfrDYL4s~7SO2oWZr6AC8z9n0nwGNgvT4M-</v>
+      </c>
+      <c r="O55" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P55" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>3352146</v>
+      </c>
+      <c r="R55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>ART HANDLER</v>
+      </c>
+      <c r="B56" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C56" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Safely pack, crate, load, unload, and transport fine art and delicate objects. handle artworks according to conservation and safety standards. • Assist with installation and de-installation at client sites, exhibitions, or storage facilities. conduct condition checks and report any damages or irregularities. • Maintain climate, security, and inventory requirements during storage and transit. Follow company and client procedures, including documentation and labeling.</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E56" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F56" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G56" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="H56" t="str">
+        <v>13,000</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Jeddah</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Makkah Region</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L56" t="str">
+        <v>https://www.workabroad.ph/job/3353911</v>
+      </c>
+      <c r="M56" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N56" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/7e43ea1084d9ff0a88774cf9dc3bfa719877b74f09103888bbba27ea83fa95a49191d06ed960bc1a4215929bb0729ff84de79df4192cc3837891b56e2a9a52142uXc3~YtcguHcf7XzTZqvmBhTWSb49vENlVm5FHQTGU-</v>
+      </c>
+      <c r="O56" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P56" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>3353911</v>
+      </c>
+      <c r="R56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Artisan Baker</v>
+      </c>
+      <c r="B57" t="str">
+        <v>IMES GLOBAL, INC.</v>
+      </c>
+      <c r="C57" t="str">
+        <v>DMW License No: POEA-189-LB-120720-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Skilled craftsperson who uses traditional, often handmade, methods and highquality, natural ingredients to produce unique, high-quality baked goods, such as specialty breads and pastries. • Responsible for all aspects of creating sourdough bread, including managing the natural starter, mixing dough, performing long fermentation, shaping, and baking. • Role requires a deep understanding of sourdough/hard dough science and how factors like temperature and humidity affect the process, as well as physical tasks like heavy lifting and early morning shifts. • Key duties also include ensuring product consistency, maintaining a clean work environment, and potentially contributing to recipe development and stock management.</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E57" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F57" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G57" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H57" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L57" t="str">
+        <v>https://www.workabroad.ph/job/3348617</v>
+      </c>
+      <c r="M57" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N57" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/2bf1183218cea7def901a01c83cd10b7e10af6acf908e058cc5a524cba4788cdf65a393faec97ea0b86131e0aa16c40e04f087e0410141e155587a0232ad63a7CFba8Kp6Piy9k.Q2CH1BRYXkz0A6FkEKqd9vg68v5co-</v>
+      </c>
+      <c r="O57" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P57" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>3348617</v>
+      </c>
+      <c r="R57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Artistic Cake Sculptor/ Pastry Artist</v>
+      </c>
+      <c r="B58" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C58" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • A portfolio demonstrating sculpted cakes, sugar work, and chocolate artistry. • Strong foundation in advanced confectionery techniques and ingredient behavior. • Proven ability to work under pressure while maintaining high design standards.</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E58" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F58" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G58" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H58" t="str">
+        <v>4,000</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L58" t="str">
+        <v>https://www.workabroad.ph/job/3349301</v>
+      </c>
+      <c r="M58" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N58" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a5b3b1988d0f8320aac69ac9a049930f285c63ea186a95fbef0a01201b79adebe8d9f771eeb7c168327cb91c9dc38a248886414972b50bd009f5fe51c5c0ef283qKsg0LDGgxuLLmpkbvVXEtk1RGSwtgvEcwY.SjRbA8-</v>
+      </c>
+      <c r="O58" t="str">
+        <v>12/01/2025</v>
+      </c>
+      <c r="P58" t="str">
+        <v>01/29/2026</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>3349301</v>
+      </c>
+      <c r="R58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>ARTS &amp;amp; CRAFTS TEACHERS</v>
+      </c>
+      <c r="B59" t="str">
+        <v>SILVER SKILLED RECRUITMENT INC.</v>
+      </c>
+      <c r="C59" t="str">
+        <v>• Must be a Graduate of Bachelor Degree in Education • Teach students the fundamentals of drawing, painting, sculpture, and other art forms. • Excellent communication and interpersonal skills</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E59" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F59" t="str">
+        <v>AED</v>
+      </c>
+      <c r="G59" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="H59" t="str">
+        <v>3,500</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Bani Yas City</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Abu Dhabi Emirate</v>
+      </c>
+      <c r="K59" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L59" t="str">
+        <v>https://www.workabroad.ph/job/3353483</v>
+      </c>
+      <c r="M59" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N59" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O59" t="str">
+        <v>01/16/2026</v>
+      </c>
+      <c r="P59" t="str">
+        <v>02/14/2026</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>3353483</v>
+      </c>
+      <c r="R59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>ASSISTANT CHILLER TECHNICIAN</v>
+      </c>
+      <c r="B60" t="str">
+        <v>GRANDER EMPLOYMENT &amp; MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C60" t="str">
+        <v>DMW License No: DMW-139-LB-07252023-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Conduct regular inspection, preventive maintenance, and servicing of chiller units • Troubleshoot and repair mechanical and electrical faults in chillers. • Monitor and maintain optimal operation of cooling systems, including temperature, pressure, and refrigerant levels. • Maintain accurate maintenance logs and reports for chiller operations. Qualification: • A minimum of 2 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Minimum 2–5 years of experience in chiller maintenance, installation, and troubleshooting. • Strong knowledge of HVAC and refrigeration systems, including water-cooled and air-cooled chillers. • Familiarity with PLC, VFDs (Variable Frequency Drives), and building management systems (BMS) is preferred. • Skilled in preventive maintenance, fault diagnosis, and repair of chiller units.</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E60" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F60" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G60" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H60" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L60" t="str">
+        <v>https://www.workabroad.ph/job/3351169</v>
+      </c>
+      <c r="M60" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N60" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/dadb20e77703e014c751edcd170a4bb7f9a08a5cbc9400002e719cd789636e95efe5ce2dd6e0ba3d1864716591a1e042d2a46057e916fb2574039a8f8dd6cafc~7.v5ds7aTISI8Wk4pDzIz9jZXquOr068EWItfznWDA-</v>
+      </c>
+      <c r="O60" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P60" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>3351169</v>
+      </c>
+      <c r="R60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>ASSISTANT CIVIL TECHNICIAN</v>
+      </c>
+      <c r="B61" t="str">
+        <v>GRANDER EMPLOYMENT &amp; MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C61" t="str">
+        <v>DMW License No: DMW-139-LB-07252023-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assist senior civil engineers or site supervisors in both construction projects and maintenance activities. • Support preventive and corrective maintenance of building structures, including walls, flooring, roofs, and finishes. • Assist in executing minor repair works, site leveling, concreting, or finishing tasks. • Coordinate with contractors, suppliers, and maintenance staff for material and equipment needs. Qualification: • A minimum of 2 year(s) of working experience is required. • No minimum educational attainment is required for this position. • experience in civil works, building maintenance, or site supervision (experience in facilities management is a plus). • Knowledge of construction methods, building systems, structural maintenance, and repair works. • Ability to read and interpret civil/structural drawings, blueprints, and maintenance manuals. • Good communication and teamwork skills</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E61" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F61" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G61" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H61" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L61" t="str">
+        <v>https://www.workabroad.ph/job/3351170</v>
+      </c>
+      <c r="M61" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N61" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/cb7bad94c35140d602bc98cdfce3a30d1b74c0ce6e47db8b6a2cbde50f5c2c508d1a3106a991dcfa7cd1eca527e1546677cda3ee9cfe87e45930749499db0499blnZZ3qNoqirJ7wCulrm1SF0hdxZdTm2KOnJAFl02NI-</v>
+      </c>
+      <c r="O61" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P61" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>3351170</v>
+      </c>
+      <c r="R61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>ASSISTANT COOK</v>
+      </c>
+      <c r="B62" t="str">
+        <v>DLB INTERNATIONAL INC</v>
+      </c>
+      <c r="C62" t="str">
+        <v>• PREPARING INGREDIENTS TO BE USED FOR COOKING • CHOPPING MEAT AND VEGETABLES AS PER COMPANY STANDARD • PROPER RECEIVING AND STOCKING OF SUPPLIES ESPECIALLY FOOD SHOULD BE HANDLED CAREFULLY TO MAINTAIN FRESHNESS AND QUALITY • FIFO , CLEANING COOKING UTENSILS AND MAINTAIN CLEANLINESS OF KITCHEN AREAS. Additional Information:</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E62" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F62" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G62" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="H62" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L62" t="str">
+        <v>https://www.workabroad.ph/job/3349247</v>
+      </c>
+      <c r="M62" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N62" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/30291d7c17d3d51ee8129a6101a19c866db310a0eae1f0fbaef905cf3b12d34760a757f9ac014dbb975642357ac49768ec2e60b023578865739907d18d52b40cuY~P7Q8bmGCY.zSxYWvEWzw~T6nNI4M6GHUYOCwFcmQ-</v>
+      </c>
+      <c r="O62" t="str">
+        <v>12/01/2025</v>
+      </c>
+      <c r="P62" t="str">
+        <v>01/29/2026</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>3349247</v>
+      </c>
+      <c r="R62" t="str">
+        <v>TRSCOK212, TRSCOK214</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>ASSISTANT ELECTRICAL TECHNICIAN</v>
+      </c>
+      <c r="B63" t="str">
+        <v>GRANDER EMPLOYMENT &amp; MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C63" t="str">
+        <v>DMW License No: DMW-139-LB-07252023-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assist senior electricians or electrical engineers in maintaining building electrical systems. • Conduct routine inspections, preventive maintenance, and minor repairs on electrical installations. • Monitor and maintain lighting, power supply, generators, UPS, and other electrical equipment. • Assist in diagnosing electrical faults and implementing corrective actions. • Support installation of new electrical systems or equipment as required. Qualification: • A minimum of 2 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Basic knowledge of electrical systems, including lighting, power distribution, wiring, and control panels. • Familiarity with preventive maintenance procedures for electrical equipment. • Ability to read and interpret electrical diagrams, schematics, and manuals. • Knowledge of safety standards, electrical codes, and lockout/tagout procedures. • Basic troubleshooting skills for electrical faults and minor repairs.</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E63" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F63" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G63" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H63" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L63" t="str">
+        <v>https://www.workabroad.ph/job/3351171</v>
+      </c>
+      <c r="M63" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N63" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/29af1774179d486a8c7ade3934799510cd49e076cf15dd048bc217d1af94fec90b4a2a1d4d2e077e4c214b0cf5ef84904fe08f71af2ee255670a1207e50f768bjussNT0~yRhc5TEkpehaGKd1XcusfiUPGZcwadTJh.I-</v>
+      </c>
+      <c r="O63" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P63" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>3351171</v>
+      </c>
+      <c r="R63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Assistant Processing Plant Manager</v>
+      </c>
+      <c r="B64" t="str">
+        <v>QUESTCORE INC</v>
+      </c>
+      <c r="C64" t="str">
+        <v>DMW License No: POEA-019-LB-021521-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • -Assist with planning, coordination and management of production activities across slaughtering, evisceration, chilling, deboning, cutting, packaging, storage and dispatch. • Ensures production targets for volume, yield, quality and cost efficiency are met • -Identify bottlenecks and implement operational improvements to increase productivity and reduce downtime. • -Monitor equipment performance and coordinate with the maintenance team to minimize downtime. • Support the implementation of continuous improvement initiatives to enhance processing efficiency • -Form control measures to minimize wastages (i.e., labor, raw materials, packaging materials, office supplies, sanitation supplies, etc.). • -Lead, mentor and train processing supervisors and operational teams. • -Participate in recruitment, on-boarding and performance management of staff. • -Promote Teamwork, discipline, efficiency, safety, continuous improvement and high morale among the 470+ workforce. • -Manage compliance with HACCP principles, SSOP, GHP and other sanitation protocols. • -Support quality assurance with audits, documentation and corrective actions. • -Ensure cold chain integrity, hygiene and microbiological control at all processing stages. • Respond to non-conformances and customer complaints with root-cause analysis • -Support training programs in HACCP, WHS, Sanitation and operational efficiency. • -Ensure compliance with PNG HS Regulations. • -Monitor WHS practices and enforce use of PPE. • -Conduct incident investigations and ensure corrective actions are implemented. • -Participate in WHS safety meetings and training sessions. • -Ensure compliance to PNG Food Safety Regulations, CEPA environmental regulations and PNG Health Standards. • -Maintains accurate records: production data, temperatures, environmental compliance based on approved EP, sanitation logs, downtime, yields and staff attendance. • -Assists with internal and external audits. • -Review Inventory Reporting and investigate variances. • -Coordinate with procurement, warehousing and cold storage teams to ensure continuous supply of raw materials and packaging. • -Monitory inventory levels and reduce wastage of meat, packaging and chemicals. • -Support risk mitigation plans for fire, power outages, product recall/withdrawal, equipment failure, natural calamities, and any other emergencies. • -Participates in disaster preparedness drills and environmental management programs. • -Manage Capital Expenditure Projects related to the continual improvement of the Processing Plant. • -Assist with review of purchase order requests and other costs related to the Processing Plant. • Any other tasks requested by management. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Engineering(Chemical); Engineering(Mechanical) or similar fields. • Diploma or a Bachelors Degree in Engineering (Mechanical or Chemical Engineering), Food Technology, Business Management or any relevant courses. • 5+ years work experience in a Food Processing / Manufacturing management role (prefarrably poultry processing). • Strong understanding of HACCP, GHP and food safety systems. • Sound leadership and people management skills, ability to handle large teams. • Excellent Oral (English) and Written communication skills. • Practical problem solving &amp; decision-making skills. • High level of integrity, discipline, and attention to detail. • Ability to motivate a diverse workforce and handle industrial relation sensitivities • Strong organization &amp; planning skills • Good understanding on food processing and engineering operations. Additional Information: • Diploma or a Bachelors Degree in Engineering (Mechanical or Chemical Engineering), Food Technology, Business Management or any relevant courses. • 5+ years work experience in a Food Processing / Manufacturing management role (prefarrably poultry processing). • Strong understanding of HACCP, GHP and food safety systems. • Sound leadership and people management skills, ability to handle large teams. • Excellent Oral (English) and Written communication skills. • Practical problem solving &amp; decision-making skills. • High level of integrity, discipline, and attention to detail. • Ability to motivate a diverse workforce and handle industrial relation sensitivities • Strong organization &amp; planning skills • Good understanding on food processing and engineering operations.</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E64" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F64" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G64" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H64" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L64" t="str">
+        <v>https://www.workabroad.ph/job/3352655</v>
+      </c>
+      <c r="M64" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N64" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/2adc0105c1f5ee0af1a5b373b92c463c39f8563896b8d006bd93402294ed1754397a193c89111480d4c18acfca92228a50a7d95e01d3026314dc797f23f73031j0lPn5KvxAetrdUqZaw0OOcKumaWfD6jjX7yoRtw9UY-</v>
+      </c>
+      <c r="O64" t="str">
+        <v>01/12/2026</v>
+      </c>
+      <c r="P64" t="str">
+        <v>02/10/2026</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>3352655</v>
+      </c>
+      <c r="R64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>ASSISTANT RESTAURANT MANAGER</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Y HMD INTERNATIONAL MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C65" t="str">
+        <v>• Help store manager in creating restaurant target • Help in driving incremental sales growth by encouraging suggestive selling techniques daily • Support store in responding to customer complaints to achieve recovery, help store manager implement new marketing programs</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E65" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F65" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G65" t="str">
+        <v>2,100</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J65" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L65" t="str">
+        <v>https://www.workabroad.ph/job/3348971</v>
+      </c>
+      <c r="M65" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N65" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O65" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P65" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>3348971</v>
+      </c>
+      <c r="R65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>ASSISTANT RESTAURANT MANAGER BOH</v>
+      </c>
+      <c r="B66" t="str">
+        <v>DLB INTERNATIONAL INC</v>
+      </c>
+      <c r="C66" t="str">
+        <v>• « To support my GM in putting in place a robust Family Tree and Plan Bs for each role to ensure business needs are met « To drive Team Happiness by role modelling Pret’s Values and Behaviours and by bringing Joy of Pret and fun to my team and custome • To support in-house training, legal compliance training and graduations by ensuring that they are carried out following the agreed standards and guidelines and at the right time. This includes completing Journals and reviews accordingly • To embrace the Thoughtful Leadership Principles (Being Kind, Honest and Generous), « To contribute to minimising turnover by following the Turnover Principles • To regularly complete 1:1s to review the team’s performance using Pret Behaviours, KPIs and SMART targets « To contribute to the team’s wellbeing by promoting and nurturing a healthy work-life balance • To support my GM with following up meaningful actions from Pret’s Big Conversation • ASSIGNED AT THE BACK OF THE HOUSE FOR PROPER MONITORING TO DELIVER QUALITY SERVICE AND FOOD PRODUCTION Additional Information:</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E66" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F66" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G66" t="str">
+        <v>2,800</v>
+      </c>
+      <c r="H66" t="str">
+        <v>3,200</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J66" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L66" t="str">
+        <v>https://www.workabroad.ph/job/3351569</v>
+      </c>
+      <c r="M66" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N66" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/8d0e648a45695fc20be80f6870ecfff2b9c876c99589ee31e39b748cc77abc080254a9d0464ec50cd0f3f7f3c12a4b28900db307fe9e93b450566c6b8023303fYwPUF.QX2QKrkiPSCTWoTyPgUL1uerbISLqRwmxHBPg-</v>
+      </c>
+      <c r="O66" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P66" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>3351569</v>
+      </c>
+      <c r="R66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>ASSISTANT RESTAURANT MANAGER FOH</v>
+      </c>
+      <c r="B67" t="str">
+        <v>DLB INTERNATIONAL INC</v>
+      </c>
+      <c r="C67" t="str">
+        <v>• « To support my GM in putting in place a robust Family Tree and Plan Bs for each role to ensure business needs are met « To drive Team Happiness by role modelling Pret’s Values and Behaviours and by bringing Joy of Pret and fun to my team &amp; customer • To support in-house training, legal compliance training and graduations by ensuring that they are carried out following the agreed standards and guidelines and at the right time. This includes completing Journals and reviews accordingly • To embrace the Thoughtful Leadership Principles (Being Kind, Honest and Generous, To contribute to minimizing turnover by following the Turnover Principles • To regularly complete 1:1s to review the team’s performance using Pret Behaviours, KPIs and SMART targets « To contribute to the team’s wellbeing by promoting and nurturing a healthy work-life balance • To support my GM with following up meaningful actions from Pret’s Big Conversation</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E67" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F67" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G67" t="str">
+        <v>2,800</v>
+      </c>
+      <c r="H67" t="str">
+        <v>3,200</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L67" t="str">
+        <v>https://www.workabroad.ph/job/3351568</v>
+      </c>
+      <c r="M67" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N67" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/70c76b137977a6131dfc7eef0b90d79f4068c7984c4215dff8d49dbcb34e722421c72fed75a71fc595996470d5a62a62b18460c944cfee32e67673d35db58528ZFq8WltWLU8VeHIj6yQkqDsQ0hW5g64FOyUxl3Ceeyc-</v>
+      </c>
+      <c r="O67" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P67" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>3351568</v>
+      </c>
+      <c r="R67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Assistant SCC Reporter (Data Entry)</v>
+      </c>
+      <c r="B68" t="str">
+        <v>ARAM ENTERPRISES INC.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>• Bachelor's degree, with minimum 1 year experience as per specified position • Strong Communication Skills in English and Strong Computer Knowledge. • Must have experience certificate (COE) match on the position reflected in the CV Additional Information:</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E68" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F68" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G68" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="H68" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J68" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L68" t="str">
+        <v>https://www.workabroad.ph/job/3352266</v>
+      </c>
+      <c r="M68" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N68" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/7212e04fdae78869da05f87a73a806c4d9099aa46c4c1d836624b7ec02223d7eb5b27b022782a0077148f7472c1cc3f05e0d87348a47166644fecc98caf7a646zy63Qk1nFk377eh0RPTLPZFuzNKdJOgm.0i4SgJbq2o-</v>
+      </c>
+      <c r="O68" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P68" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>3352266</v>
+      </c>
+      <c r="R68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>ASSISTANT SHIFT MANAGER</v>
+      </c>
+      <c r="B69" t="str">
+        <v>PRINCIPALIA MANAGEMENT AND PERSONNEL CONSULTANTS, INC</v>
+      </c>
+      <c r="C69" t="str">
+        <v>DMW License No: POEA-104-LB-062920-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assist in managing daily restaurant operations to ensure smooth and efficient service Ensure high levels of customer satisfaction by addressing guest concerns promptly and professionally • Maintain restaurant standards for food quality, presentation, and service Monitor cleanliness and compliance with health and safety regulations • Assist in performance evaluations and disciplinary actions when necessary Ensure staff follow company policies, procedures, and service standards • Assist with inventory management, ordering supplies, and stock control • Strong leadership, communication, and interpersonal skills Excellent customer service and problem-solving abilities Ability to work flexible hours, including evenings, weekends, and holidays</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E69" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F69" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G69" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H69" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Kuwait City</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Capital Governorate</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="L69" t="str">
+        <v>https://www.workabroad.ph/job/3352145</v>
+      </c>
+      <c r="M69" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N69" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/b803f9bc69215aa48b58631b77acb4a3245dfb69a4494c486a44582fe916dab2275bf68e40847da0a40736fdca061a8322ab34353c5062fe206bda10bfa88f3fXFBKzqlcD9a9e3RAeVcCyy.O9xJByWxNlW.~4JFgw.8-</v>
+      </c>
+      <c r="O69" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P69" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>3352145</v>
+      </c>
+      <c r="R69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Assistant Shipbuilding Welders</v>
+      </c>
+      <c r="B70" t="str">
+        <v>FILIPINAS-GLOBAL MULTI-SERVICES, INC.</v>
+      </c>
+      <c r="C70" t="str">
+        <v>• Selecting, measuring, cutting, and joining appropriate metals to specifications. • Preparing metals and work surfaces to ensure safe and effective assemblage. • Interpreting specifications and blueprints accurately. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • 3 years relevant experience in ship building, oil &amp; gas &amp; construction • with Tesda NC2 certificate (welding &amp; pipe fitting)</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E70" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F70" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="G70" t="str">
+        <v>600</v>
+      </c>
+      <c r="H70" t="str">
+        <v>600</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Tulcea</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Tulcea County</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="L70" t="str">
+        <v>https://www.workabroad.ph/job/3352450</v>
+      </c>
+      <c r="M70" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N70" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/59c80179313a3a2602023441178e995d7f73709581cfa05a1e5da2823dbd0153c599ea3ed49554cc0901128815851f4b19a06d3a85f22b65bf964368df6ef371FdN9AwprbCNVZb62Hiyaa5JHiIvgdBD5jeogUltNBI4-</v>
+      </c>
+      <c r="O70" t="str">
+        <v>01/09/2026</v>
+      </c>
+      <c r="P70" t="str">
+        <v>02/07/2026</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>3352450</v>
+      </c>
+      <c r="R70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Assistant Technician Forklift Maintenance</v>
+      </c>
+      <c r="B71" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C71" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Experience in maintaining/troubleshooting electrical forklifts, • Diagnosing, repairing, and maintaining the electrical systems of forklifts, such as wiring, motors, and lighting. Experience assisting in forklift maintenance. • Troubleshooting Electrical issues, replacing faulty components, performing preventative maintenance, and keeping detailed records of all work performed while adhering to strict safety protocols • Inspect and troubleshoot electrical systems to identify and fix issues in forklifts and related heavy equipment. Perform routine electrical maintenance, including battery checks, motor servicing, and system testing,</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E71" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F71" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G71" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H71" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L71" t="str">
+        <v>https://www.workabroad.ph/job/3352888</v>
+      </c>
+      <c r="M71" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N71" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/4d31feaa3b42c7acdacbac5d8ea119de1dfce79c32654de925ec3b275c11dcb4ace472322cb7aa750872a608995c64321918177418d31f6fb6ef6f972ce2e4ab80jx9AY2ov6ozB7NydFMfVW7EAS2Ygh1BOc1zoLAW2k-</v>
+      </c>
+      <c r="O71" t="str">
+        <v>01/13/2026</v>
+      </c>
+      <c r="P71" t="str">
+        <v>02/11/2026</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>3352888</v>
+      </c>
+      <c r="R71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>ASSISTANT WAITER</v>
+      </c>
+      <c r="B72" t="str">
+        <v>PREMIER GLOBAL RECRUITMENT OPC</v>
+      </c>
+      <c r="C72" t="str">
+        <v>• Support waiters with food and beverage service, which can include delivering food from the kitchen, carrying plates, and helping with drinks. • Set up tables with silverware, glassware, and other settings before service begins. • Clear used plates, glasses, and utensils from tables efficiently and reset them for new guests. • Respond to guest requests, such as refilling water or bread baskets, and ensure a positive dining experience. • Maintain a clean and organized work area, including tables, service stations, and the overall dining space. • ssist with special events, buffets, and other service needs as they arise. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • With good communication skills • Experience in food and beverage service is often preferred</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E72" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F72" t="str">
+        <v>PHP</v>
+      </c>
+      <c r="G72" t="str">
+        <v>51,000</v>
+      </c>
+      <c r="H72" t="str">
+        <v>55,000</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Zagreb</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Zagreb</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Croatia (Hrvatska)</v>
+      </c>
+      <c r="L72" t="str">
+        <v>https://www.workabroad.ph/job/3352735</v>
+      </c>
+      <c r="M72" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N72" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/19ca6b378e1586fdc9391ab8be96e42a3a126ffde93eb248edf31ba626b399e1b74c2c84338e8f3219bb478ddc29f39911bdf29b64e972febdaec653b1ab7551mkSq6etA~72HodPgOO0w3c6x~OFJGj3SPkqj2TU.r6E-</v>
+      </c>
+      <c r="O72" t="str">
+        <v>01/12/2026</v>
+      </c>
+      <c r="P72" t="str">
+        <v>02/10/2026</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>3352735</v>
+      </c>
+      <c r="R72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>ASSITANT RESTAURANT MANAGER</v>
+      </c>
+      <c r="B73" t="str">
+        <v>PRINCIPALIA MANAGEMENT AND PERSONNEL CONSULTANTS, INC</v>
+      </c>
+      <c r="C73" t="str">
+        <v>DMW License No: POEA-104-LB-062920-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assist in supervising restaurant operations and staff performance.  Ensure guest satisfaction and handle customer feedback professionally. • Oversee inventory control, ordering, and cost management.  Train, schedule, and motivate team members.  Ensure compliance with hygiene, safety, and service standards • Supervise daily kitchen operations and assist in menu planning.  Ensure dishes meet established quality and presentation standards Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be at least a high school graduate. • with at least 2 years valid passport</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E73" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F73" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G73" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H73" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L73" t="str">
+        <v>https://www.workabroad.ph/job/3348605</v>
+      </c>
+      <c r="M73" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N73" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/65c202b0ace057974d6375c87cedc6117e76ce4a09c3c6c16c1faf65de93156a71ea3d1de5989d43ebfc9f5d6ae965e3c19461a065a99ff2779500decf6de6e7mzDidGXCLzTX3~yNuri3YklMa~ed7Jdzv6sNfYgc4vI-</v>
+      </c>
+      <c r="O73" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P73" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>3348605</v>
+      </c>
+      <c r="R73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>AUTO BODY BUILDER</v>
+      </c>
+      <c r="B74" t="str">
+        <v>GLOBAL HOSPITALITY PLACEMENT AGENCY PHILIPPINES CORPORATION</v>
+      </c>
+      <c r="C74" t="str">
+        <v>• Assemble, repair and modify vehicle bodies frames and parts according to specifications. • Use welding, cutting and fabrication techniques to shape and fit body components. • Install special equipment or modify vehicle for specification purposes. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Proficiency in welding, metal working, and fabrication. • Strong mechanical aptitude and knowledge of vehicle systems • Ability to interpret technical drawings and schematics.</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E74" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F74" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G74" t="str">
+        <v>750</v>
+      </c>
+      <c r="H74" t="str">
+        <v>800</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Colonia</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Yap State</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Micronesia</v>
+      </c>
+      <c r="L74" t="str">
+        <v>https://www.workabroad.ph/job/3352036</v>
+      </c>
+      <c r="M74" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N74" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O74" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P74" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>3352036</v>
+      </c>
+      <c r="R74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Auto Body Technician</v>
+      </c>
+      <c r="B75" t="str">
+        <v>1ST DYNAMIC PERSONNEL RESOURCES INC.</v>
+      </c>
+      <c r="C75" t="str">
+        <v>DMW License No: DMW-011-LB-051822-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Repair and replace damaged body parts • Perform straightening, alignment, and finishing work • Prepare vehicle surfaces according to dealership and manufacturer standards Deliver high-quality work while meeting safety and quality requirements. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Must have atleast 5 years Experience and 2 years of mandatory experience in an automotive dealership Additional Information: • Must have atleast 5 years Experience and 2 years of mandatory experience in an automotive dealership</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E75" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F75" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G75" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H75" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Montréal</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="L75" t="str">
+        <v>https://www.workabroad.ph/job/3353736</v>
+      </c>
+      <c r="M75" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N75" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/0ee6c67d6fd30e663732f66203f3e0dd7c0c646989687dbe99e6e29c9cd1f22269aa27b1f5471ded28195d2dcc0135d07e22b1c1c95ceb36be813dbdfb0e72a3FCXQBfbt6LVEoincrWiE3ou.VdtMrLEOq.b0b1YqlCs-</v>
+      </c>
+      <c r="O75" t="str">
+        <v>01/19/2026</v>
+      </c>
+      <c r="P75" t="str">
+        <v>02/17/2026</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>3353736</v>
+      </c>
+      <c r="R75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Auto Body Worker/ Auto Denter</v>
+      </c>
+      <c r="B76" t="str">
+        <v>1ST DYNAMIC PERSONNEL RESOURCES INC.</v>
+      </c>
+      <c r="C76" t="str">
+        <v>DMW License No: DMW-011-LB-051822-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Responsible for minor body repairs, painting, wrapping, and aesthetic finishing to ensure the car is delivered impeccable to the customer. • Solid experience in these activities, high school diploma and body work certificate, and proven ties to the Philippines • Repairs and restores damaged vehicle bodies by assessing accidents, straightening and reshaping metal panels, replacing parts, and preparing surfaces for painting to bring them to their original condition. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Have a good English communication skills and Present yourself professionally Additional Information: • Have a good English communication skills and Present yourself professionally</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E76" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F76" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G76" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H76" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Laval</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Quebec</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="L76" t="str">
+        <v>https://www.workabroad.ph/job/3348841</v>
+      </c>
+      <c r="M76" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N76" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/f0221e6c8877d821d8204cc3027582592c0cd5a1c6c4ed29ecd5915c924a5c1dc4765947b43c776bef69fd7d094f409aff38e9cbbaa98083edb54a362ba74fbcuCTBB0GxH9zCIn457sx0GN0sheohx0X6EIVi~HOXjh8-</v>
+      </c>
+      <c r="O76" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P76" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>3348841</v>
+      </c>
+      <c r="R76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>AUTO DENTER</v>
+      </c>
+      <c r="B77" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C77" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Follow safety and quality standards at all times • Knowledge of vehicle body structures and repair techniques • Vocational or technical training preferred</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E77" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F77" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G77" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H77" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="J77" t="str">
+        <v>Doha</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Qatar</v>
+      </c>
+      <c r="L77" t="str">
+        <v>https://www.workabroad.ph/job/3351256</v>
+      </c>
+      <c r="M77" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N77" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/9ea0c111c9b06259efe66f033a8b24fcc77bdc0f3e35a8090e55639a9764bf779b0e1e788599f63f71902c93aac61423bd2a21503d0e555cf437c6ce4308a63b.agYRLG24~n~yN7XEjuJ3w8Fn8AOBVB7duAMJUHvkPo-</v>
+      </c>
+      <c r="O77" t="str">
+        <v>12/26/2025</v>
+      </c>
+      <c r="P77" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>3351256</v>
+      </c>
+      <c r="R77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>AUTO DENTER/ BODY REPAIR</v>
+      </c>
+      <c r="B78" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C78" t="str">
+        <v>• Assess vehicle damage through structural analysis, using measuring systems and frame machines to develop accurate repair plans and estimates • Perform advanced body repairs, including dent removal, metal straightening, sectioning, welding (MIG/TIG), and plastic repair on steel, aluminum, and composite materials. • Supervise a team of 4-6 body technicians, assigning workloads, providing technical guidance, and conducting inspections to uphold OEM specifications and minimize rework. • Replace or realign body panels, frames, and unibody structures, ensuring proper fitment, corrosion protection, and alignment using adhesives, rivets, and fasteners. • Collaborate with painters, estimators, and management to integrate bodywork into overall repair timelines, sourcing parts efficiently and documenting progress for insurance and warranty purposes. • Adhere to safety protocols, including proper use of PPE, ventilation for welding fumes, and compliance with OSHA, EPA, and I-CAR standards in the repair bay. • Implement quality control measures, such as pre- and post-repair scans for structural integrity, and recommend tools or processes to enhance shop efficiency. • Stay informed on industry advancements, like electric vehicle body structures and sustainable repair methods, through training and certification updates. Qualification: • A minimum of 3 year(s) of working experience is required. • No minimum educational attainment is required for this position. • ASE Body Structural Repair certification (B2-B5) required; I-CAR Platinum or Gold Class designation highly recommended • Proficiency with tools like frame racks, pullers, welders, and measuring systems (e.g., Car-O-Liner or Blackhawk). • Work in confined spaces, and handle physical demands in a shop environment with noise, dust, and varying temperatures. • Valid driver's license with a clean driving record and ability to pass a background and drug screening.</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E78" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F78" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G78" t="str">
+        <v>800</v>
+      </c>
+      <c r="H78" t="str">
+        <v>833</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Suva</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Central Division</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L78" t="str">
+        <v>https://www.workabroad.ph/job/3350837</v>
+      </c>
+      <c r="M78" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N78" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/46381011a77c2e99baaff56ecd4cd2a7f3478a2e0a8d038da26a2313a6a7ab0e1e870bcb98af83d534947e7dbf7e6e20ef0de2a1de05225ed63788e00f7132e82JaID67dGv2hHEm0c7UgNYt9jOVo0xNj0DYCWztcdl4-</v>
+      </c>
+      <c r="O78" t="str">
+        <v>12/18/2025</v>
+      </c>
+      <c r="P78" t="str">
+        <v>02/15/2026</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>3350837</v>
+      </c>
+      <c r="R78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Auto Die Cutter Machine Operator</v>
+      </c>
+      <c r="B79" t="str">
+        <v>1ST DYNAMIC PERSONNEL RESOURCES INC.</v>
+      </c>
+      <c r="C79" t="str">
+        <v>DMW License No: DMW-011-LB-051822-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Set up machines accurately in accordance with proper techniques and job specifications, which includes installing dies, guides, and cutting plates. • Operate the equipment to meet production schedules, monitoring its function (e.g., speed, temperature, pressure) and detecting malfunctions to ensure continuous and safe operation. • Inspect sample and in-process cuts frequently to determine conformity to specifications, using measuring tools such as rulers, calipers, and micrometers • Maintenance and Troubleshooting: Perform routine cleaning and lubrication, as well as basic maintenance and troubleshooting of machine issues to minimize downtime. • Load, position, and adjust raw materials into the feeding mechanisms, and stack or move finished products to the next processing area using carts or lift trucks • Accurately record production data, quality checks, and maintenance logs. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Have a good English communication skills and Present yourself professionally and Must have minimum 5 years of experience Additional Information: • Have a good English communication skills and Present yourself professionally and Must have minimum 5 years of experience</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E79" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F79" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G79" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H79" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="L79" t="str">
+        <v>https://www.workabroad.ph/job/3350284</v>
+      </c>
+      <c r="M79" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N79" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/27fc00b530753b075e150ad46877371ab10037ebda4a07ac594ca9b0d5e4fc9d6cd73b49accc81500a11b5c92c92957f0301c4a564ecd9e6bcfb9b452063f152c7j8yIMX55kABlh0K5PUE9EA9k38V6vBMKHFpHBf~0s-</v>
+      </c>
+      <c r="O79" t="str">
+        <v>12/12/2025</v>
+      </c>
+      <c r="P79" t="str">
+        <v>02/09/2026</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>3350284</v>
+      </c>
+      <c r="R79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Auto Electrical and AC Techn – Vehicles, EV/Hybrid</v>
+      </c>
+      <c r="B80" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C80" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Diagnose service and repair auto-electrical systems of fleet vehicles such as, trucks, forklifts and plant machinery. • Able to read and diagnose fully electrical wiring diagram and repair electrical short circuits. • Performs alternators and starter motors overhauling, repairs lighting and wiring harnesses, diagnosis sensors and control modules and replace as necessary. • Perform specialised diagnostics and testing on hybrid and EV battery management systems, drive inverters and charging systems. • Methodical in troubleshooting complex faults across multiple electrical domains • Team Collaboration – Works closely with mechanics, operations, and technical staff to deliver cross-functional solutions Qualification: • A minimum of 4 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Electrical/Electronic); Engineering(Mechanical) or similar fields. • or Diploma or Trade Certification in Automotive Electrical, Mechatronics or related field • Proven experience with EV and hybrid vehicle systems (diagnostics, servicing, and safety protocols) • Ability to repair electrical wiring diagrams and use diagnostic software and equipment effectively • Able to use PC for reading repair manuals efficiently • Valid driver’s license and Relevant experience in fleet or commercial maintenance is preferable</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E80" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F80" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G80" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="H80" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Nadi</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Western Division</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L80" t="str">
+        <v>https://www.workabroad.ph/job/3349225</v>
+      </c>
+      <c r="M80" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N80" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c32316ebc060c71ff18cd49cd7c3365043b3bf4c677c4cb3ec94a7b66249228195db9a5ac938dc7a91e2d841dc169a2123a09ec33001a006bc2c621e6599952djUYrnQk62yhvdwz8p1a7~japykaKa4Kiav5gRadjAYM-</v>
+      </c>
+      <c r="O80" t="str">
+        <v>12/01/2025</v>
+      </c>
+      <c r="P80" t="str">
+        <v>01/29/2026</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>3349225</v>
+      </c>
+      <c r="R80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>AUTO ELECTRICAL MECHANIC</v>
+      </c>
+      <c r="B81" t="str">
+        <v>PHILIPPINE HUMAN RESOURCE WORLDWIDE EMPLOYMENT CO.</v>
+      </c>
+      <c r="C81" t="str">
+        <v>• diagnoses, installs, and repairs the electrical systems in vehicles, including components like lights, alternators, alarms, and air conditioning systems • This role requires using diagnostic equipment and hand tools to troubleshoot issues, and may also involve customer service, such as discussing repairs and providing estimates. • Key skills include technical knowledge of automotive electronics, problem-solving, and attention to safety. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Engineering(Others); Engineering(Petroleum/Oil/Gas); Others or similar fields. • High School  Diploma holder in Engineering or equivalent</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E81" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F81" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G81" t="str">
+        <v>1,600</v>
+      </c>
+      <c r="H81" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Al Jubayl</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L81" t="str">
+        <v>https://www.workabroad.ph/job/3349026</v>
+      </c>
+      <c r="M81" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N81" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/fbc584c212d2b54cc9de4c25f877eda93d95efd5160c69957ba9f3cf3c255ece213d54bf77706fee864e7162e220ff28127fe9e2cb26667e004785a7c9364f1evqoOM~fsO8ARRrZrOzxG4LSUXOiUdSO9FR49cTJuX~8-</v>
+      </c>
+      <c r="O81" t="str">
+        <v>11/28/2025</v>
+      </c>
+      <c r="P81" t="str">
+        <v>01/26/2026</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>3349026</v>
+      </c>
+      <c r="R81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>AUTO ELECTRICAL TECHNICIANS</v>
+      </c>
+      <c r="B82" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C82" t="str">
+        <v>• Perform on-site installation and servicing of GPS tracking devices • Troubleshoot and repair auto electrical systems • Ensure timely and quality service delivery to clients Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Valid Driver’s License in Philippines</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E82" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F82" t="str">
+        <v>FJD</v>
+      </c>
+      <c r="G82" t="str">
+        <v>1,400</v>
+      </c>
+      <c r="H82" t="str">
+        <v>1,400</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Suva</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Central Division</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L82" t="str">
+        <v>https://www.workabroad.ph/job/3351495</v>
+      </c>
+      <c r="M82" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N82" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a62939fa612a2903513f3eeb717dc860d0ddc5e32419b24ae0ebb64c87a10e96caa9df501608fc3587aa1174b2a5d9f2721fcf23902f7328c49ae2f011db1dc6orvCgiSkCSDOHqc8NMT111exPGx7H~Zo3TtsE~1ikHk-</v>
+      </c>
+      <c r="O82" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P82" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>3351495</v>
+      </c>
+      <c r="R82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>AUTO ELECTRICIAN</v>
+      </c>
+      <c r="B83" t="str">
+        <v>NAWRAS MANPOWER SERVICES INC.</v>
+      </c>
+      <c r="C83" t="str">
+        <v>• Undertake electrical repairs on various vehicles and plant • Repair parts and equipment when needed • Maintain and repair various kinds of petrol and diesel engine motor vehicles</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E83" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F83" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G83" t="str">
+        <v>2,300</v>
+      </c>
+      <c r="H83" t="str">
+        <v>2,300</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="J83" t="str">
+        <v>Jizan Region</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L83" t="str">
+        <v>https://www.workabroad.ph/job/3351133</v>
+      </c>
+      <c r="M83" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N83" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/7281be7fe237860e4cc5da22173be92b4241734cca217b926a7b16b9e33724389fd1e2e804e4cb8e61a9a9024359a23067c245db86100af4eff648735d1f0de1DEJEykm0h22XUDgll3T6u61wIHWtmokKaNKW~MxN7Kw-</v>
+      </c>
+      <c r="O83" t="str">
+        <v>12/23/2025</v>
+      </c>
+      <c r="P83" t="str">
+        <v>01/21/2026</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>3351133</v>
+      </c>
+      <c r="R83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>AUTO ELECTRICIAN (EXP IN EUROPEAN CARS)</v>
+      </c>
+      <c r="B84" t="str">
+        <v>21ST CENTURY MANPOWER RESOURCES INC.</v>
+      </c>
+      <c r="C84" t="str">
+        <v>DMW License No: DMW-324-LB-04112024-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Solid knowledge of automotive electrical systems • Proficiency in using various diagnostic and measuring tools (multimeters and other specialized tools for diagnosing and repairing electrical systems) • Knowledge of ECU reprogramming and coding for new components • Experience with electric and hybrid vehicles (Tesla, VW, Audi, Mercedes, BYD) will be considered as bonus • Willingness and motivation to work hard to earn good salary Qualification: • A minimum of 15 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Good command of English – ability to communicate fluently, explain vehicle problems, and clearly describe repair solutions to colleagues and clients • Minimum 15 years of experience as an auto mechanic including minimum 10 years’ experience as auto electrician • International work experience with European and Japanese vehicles: At least 5 years of experience working abroad as auto electrician with European brands (like VW, Mercedes-Benz, Audi, Peugeot, ) and Japanese brands (Toyota), OR o At least 10 years o • At least 5 years of experience with European/Japan car brands in diagnosing and troubleshooting vehicle electrical systems, including identifying and fixing wiring issues, replacing damaged components, and system adjustments</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E84" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F84" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G84" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H84" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Riga</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Riga</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="L84" t="str">
+        <v>https://www.workabroad.ph/job/3351732</v>
+      </c>
+      <c r="M84" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N84" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/65395242a5b75ba27e644c5b66b175cfb294cf7c2a65e581c83b7180f4fcfc163161233f8f14862a3bda297a5d0cd22fcbdc158ac50962f327cc75107f8693d4n~3Rg2iDqmww7EJmlku45Sx77x0C7ecYb1JresQnZLM-</v>
+      </c>
+      <c r="O84" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P84" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>3351732</v>
+      </c>
+      <c r="R84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>AUTO ELECTRICIAN (HEAVY EQUIPMENT)</v>
+      </c>
+      <c r="B85" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C85" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Inspect, diagnose, and repair electrical and electronic systems of heavy equipment and vehicles • Use diagnostic tools and equipment to identify electrical faults and perform corrective actions. • Read and interpret electrical wiring diagrams, schematics, and service manuals. • Perform preventive maintenance to ensure all electrical systems are in good working condition. • Test and calibrate sensors, relays, switches, and control systems. • Replace or repair defective parts such as motors, circuit boards, and control panels.</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E85" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F85" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G85" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H85" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L85" t="str">
+        <v>https://www.workabroad.ph/job/3348391</v>
+      </c>
+      <c r="M85" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N85" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/14358354d54bd898ade7f4c8fd234a70f9e31e1cf91dc0652b7ef6e43b17c7458f742b7d195eb9bb21cb2e14ac73641524bb292e51adeee7085984c08a59115479DG0Kocagy.ElTUM5S0dgtkvHDtXm5IPC0mCPZPP4o-</v>
+      </c>
+      <c r="O85" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P85" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>3348391</v>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>AUTO ELECTRICIANS</v>
+      </c>
+      <c r="B86" t="str">
+        <v>INTERNATIONAL SKILL DEVELOPMENT, INCORPORATED</v>
+      </c>
+      <c r="C86" t="str">
+        <v>• To manage the repairs and servicing of all Transport Assets (On Highway Trucks, Off Highway Trucks, Haul Trucks). • Scheduled Maintenance, Workshop, Diagnostics and Component Change outs working on of a fleet of prime movers, earthmoving equipment, Hiab and Waste Trucks fleet, Generators and Forklifts • Monitoring plant and equipment for electrical and electronic faults and repair as required. • Conducting routine tests on vehicles, trailers, plants, and equipment to ensure the best performance. Order parts and equipment. • Complete maintenance records using computerized software • Actively participating in toolbox safety meetings • Work respectfully in a small team environment. • Knowledge of Occupational, Health and Welfare Act and application to the workplace. Any other duties as required. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Others) or similar fields. • Minimum of 5 years’ relevant experience. • Trade Qualified – Auto Electrical Services • Qualification in operating Heavy Vehicles. • Must be at least a graduate of 1-year vocational course or Completed at least 1 year in college. • Must have a Valid Driver’s License • Current Refrigeration Handling License (ARC) is an advantage Additional Information: • Minimum of 5 years’ relevant experience. • Trade Qualified – Auto Electrical Services • Qualification in operating Heavy Vehicles. • Must be at least a graduate of 1-year vocational course or Completed at least 1 year in college. • Must have a Valid Driver’s License • Current Refrigeration Handling License (ARC) is an advantage</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E86" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F86" t="str">
+        <v>AUD</v>
+      </c>
+      <c r="G86" t="str">
+        <v>42.5</v>
+      </c>
+      <c r="H86" t="str">
+        <v>42.5</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Perth</v>
+      </c>
+      <c r="J86" t="str">
+        <v>Western Australia</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="L86" t="str">
+        <v>https://www.workabroad.ph/job/3353566</v>
+      </c>
+      <c r="M86" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N86" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O86" t="str">
+        <v>01/17/2026</v>
+      </c>
+      <c r="P86" t="str">
+        <v>02/15/2026</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>3353566</v>
+      </c>
+      <c r="R86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Auto Fitter Accessory Mechanic - 4x4</v>
+      </c>
+      <c r="B87" t="str">
+        <v>QRD INTERNATIONAL PLACEMENT, INC.</v>
+      </c>
+      <c r="C87" t="str">
+        <v>• Perform Diagnostic using Scan Tool • Do Fitting installation and modification of 4x4 accessories • Repairing and replacing defective parts • Re-assembling mechanical components and referring to service manuals as needed. Qualification: • A minimum of 5 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Appropriate engslish communication and comprehension skills • Minimum of 5 years experience in Installing 4x4 Accessories • Minimum of 5 years experience in 4x4 or Off-Road Cars • Must be able to do installation and modification of 4x4 accessories • With an experience installing bull bars, roof racks, towbars, side steps, dual batteries, LED bar lights • With suspension upgrade experience</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E87" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F87" t="str">
+        <v>AUD</v>
+      </c>
+      <c r="G87" t="str">
+        <v>70,000</v>
+      </c>
+      <c r="H87" t="str">
+        <v>73,000</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Thornleigh</v>
+      </c>
+      <c r="J87" t="str">
+        <v>New South Wales</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="L87" t="str">
+        <v>https://www.workabroad.ph/job/3352442</v>
+      </c>
+      <c r="M87" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N87" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/1654a9692802f400ac2633840ff898a2fad40246c53cc71623cd22b30a71a9f842429f8f73fa238eaa0c66a9550eb05b3ee41a075a7bd1cc950923e6e59caccd69b5YmBv08Kbr7cQ9M8v1rMxH2dO71kzoX76t4fapSY-</v>
+      </c>
+      <c r="O87" t="str">
+        <v>01/09/2026</v>
+      </c>
+      <c r="P87" t="str">
+        <v>02/07/2026</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>3352442</v>
+      </c>
+      <c r="R87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Auto Folder Gluer Operator</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1ST DYNAMIC PERSONNEL RESOURCES INC.</v>
+      </c>
+      <c r="C88" t="str">
+        <v>DMW License No: DMW-011-LB-051822-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Read and interpret job orders and schematics to configure the machine, which involves installing tooling, setting glue application systems, adjusting belts and guides, and aligning feed mechanisms • Operate the auto folder gluer machine, constantly monitoring speed, alignment, glue application, and overall production quality to ensure consistent output and detect malfunctions promptly • Regularly inspect finished products for defects such as improper folding, incorrect gluing, misalignments, or print errors, using measuring tools to verify compliance with precise specifications and maintaining quality control logs • Perform routine preventive maintenance, including cleaning glue pots and nozzles, lubricating moving parts, and conducting basic troubleshooting and minor repairs to minimize equipment downtime • Safely load blank materials into the machine's feeder and offload finished products, potentially using a pallet jack or forklift, while ensuring efficient material flow. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Must have at least 5 years Experience in Auto Folder Gluer Operator Additional Information: • Must have at least 5 years Experience in Auto Folder Gluer Operator</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E88" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F88" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G88" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H88" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Ontario</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Canada</v>
+      </c>
+      <c r="L88" t="str">
+        <v>https://www.workabroad.ph/job/3350285</v>
+      </c>
+      <c r="M88" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N88" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/e9822db05f0aabf65e9a237f9dba472b8b92ccff08d2c87d5f51714ef9ece8361663dea629652cf4c917207652dbd3ce159a32cd19689aa41858604db2c68349CtsK5ZyvzYsFbBNpHd6bBSnpDxmPK04H~WEq3Yl8jS0-</v>
+      </c>
+      <c r="O88" t="str">
+        <v>12/12/2025</v>
+      </c>
+      <c r="P88" t="str">
+        <v>02/09/2026</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>3350285</v>
+      </c>
+      <c r="R88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>AUTO MECHANIC</v>
+      </c>
+      <c r="B89" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C89" t="str">
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E89" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F89" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G89" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="H89" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L89" t="str">
+        <v>https://www.workabroad.ph/job/3348210</v>
+      </c>
+      <c r="M89" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N89" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/7a1c0c3669db42961d9b1450398f16340b62c5535f0a9848b692daa2df7b812a8f55b59a64eab3e30c74b0c64d4a37a06fa6b0fd81a02b5c0a5b1436fded75c2qfP3VnnPJL3uZsxLdbU5jq59zO9YiGhwF0wXY27L~cc-</v>
+      </c>
+      <c r="O89" t="str">
+        <v>11/24/2025</v>
+      </c>
+      <c r="P89" t="str">
+        <v>01/22/2026</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>3348210</v>
+      </c>
+      <c r="R89" t="str">
+        <v>ALTATS204, ALTATS213, ALTATS106, ALTATS113, ALTATS118, ALTATS308, ALTATS313, ALTATS406, ALTATS413, ALTASN220, ALTASC220, ALTASL220, ALTAER204</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Auto Mechanic - 4x4 Cars</v>
+      </c>
+      <c r="B90" t="str">
+        <v>QRD INTERNATIONAL PLACEMENT, INC.</v>
+      </c>
+      <c r="C90" t="str">
+        <v>• Perform Diagnostic using Scan Tool and electrical Repairs • Aircondition Troubleshooting Repair • Perform repairing and Replacing worn defective parts • Re-assembling mechanical components and referring to service manuals as needed. Qualification: • A minimum of 5 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Minimum of 5 years experience in repairing 4x4 vehicles • Appropriate engslish communication and comprehension skills • Strong diagnostic tech experience • With experience in Diesel 4x4 experience is a must • Above electrical knowledge is a must • Strong air-condition experience • Toyota Brand experience is a bonus</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E90" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F90" t="str">
+        <v>AUD</v>
+      </c>
+      <c r="G90" t="str">
+        <v>70,000</v>
+      </c>
+      <c r="H90" t="str">
+        <v>73,000</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Dalby</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Queensland</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="L90" t="str">
+        <v>https://www.workabroad.ph/job/3352441</v>
+      </c>
+      <c r="M90" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N90" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d69175a2d07997f467048eefca77b7a04e5c3346019c62a2c364306ac6bf7d6150f5a6f67701842f259ef3436afac03456541394969a183e442ba8f1c57b31a2UT136Jx3fpWSz2xjVQPLV.chvkGDT8waamQXNmhBvqU-</v>
+      </c>
+      <c r="O90" t="str">
+        <v>01/09/2026</v>
+      </c>
+      <c r="P90" t="str">
+        <v>02/07/2026</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>3352441</v>
+      </c>
+      <c r="R90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Auto Mechanic - Manual Transmissions</v>
+      </c>
+      <c r="B91" t="str">
+        <v>QRD INTERNATIONAL PLACEMENT, INC.</v>
+      </c>
+      <c r="C91" t="str">
+        <v>• Overhauling Manual Transmissions • Overhauling Diffs &amp;; Transfer cases • Full service , Preventive Maintainance Service Qualification: • A minimum of 5 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Appropriate engslish communication and comprehension skills • Experience in Overhauling Manual Transmissions is a must • Full service experience is a must • Experience overhauling Diffs &amp;amp; Transfer cases is a bonus • 4 Wheel Drive Experience is a bunos • experience overseas is a bonus but not a requirement</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E91" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F91" t="str">
+        <v>AUD</v>
+      </c>
+      <c r="G91" t="str">
+        <v>70,000</v>
+      </c>
+      <c r="H91" t="str">
+        <v>76,000</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Wagga Wagga</v>
+      </c>
+      <c r="J91" t="str">
+        <v>New South Wales</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Australia</v>
+      </c>
+      <c r="L91" t="str">
+        <v>https://www.workabroad.ph/job/3352443</v>
+      </c>
+      <c r="M91" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N91" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/ca44d3493dcdb91054110e622d58f7dacccae9c471cf05696fa84207d77ec14096ef8dd897111fdec97164cb8781cf7361d7a26ed43744aac7e17c4a61b0f3df1EEbzlyVAKVjW66Ra4b605V~1KW5xJk4vZQpcVeVMYI-</v>
+      </c>
+      <c r="O91" t="str">
+        <v>01/09/2026</v>
+      </c>
+      <c r="P91" t="str">
+        <v>02/07/2026</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>3352443</v>
+      </c>
+      <c r="R91" t="str">
+        <v>ALTATS204, ALTATS213, ALTATS106, ALTATS113, ALTATS118, ALTATS308, ALTATS313, ALTATS406, ALTATS413, ALTASN220, ALTASC220, ALTASL220, ALTAER204</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>AUTO MECHANIC ( ENGINE&amp;amp;GEARBOXES )</v>
+      </c>
+      <c r="B92" t="str">
+        <v>PACIFIC BUSINESS VENTURES, INC.</v>
+      </c>
+      <c r="C92" t="str">
+        <v>• Minimum of FIVE (5) years’ Verifiable Certificate of Employment (COE). All Certificates of Employment (COE) must be CLEAR AND VERIFIABLE and must match the criteria asked. • AUTOMOTIVE MACHANIC TECHNICIAN SPECIALIZED IN ENGINE AND GEARBOX MAIINTENANCE AND REPAIR • Preferably have experience in GULF Country and HYUNDAI COMPANY Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Valid Passport "Minimum validity EIGHTEEN (18) Months"</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E92" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F92" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G92" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H92" t="str">
+        <v>3,800</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Jizan</v>
+      </c>
+      <c r="J92" t="str">
+        <v>Jizan Region</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L92" t="str">
+        <v>https://www.workabroad.ph/job/3353819</v>
+      </c>
+      <c r="M92" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N92" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/24eb11a056e5956dc69372bc2de9cb0cc7bfb574b1f6564caf05a8f8b0732f1372d70eba230b45e123cbd24cd23f3e098e335f5176396354a346e4bcb207da11OdQxooZvUKUIUxQSKyUOZSauBU1LJ5TZ~OtToideBaw-</v>
+      </c>
+      <c r="O92" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P92" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>3353819</v>
+      </c>
+      <c r="R92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>AUTO MECHANIC (EXP IN EUROPEAN CARS)</v>
+      </c>
+      <c r="B93" t="str">
+        <v>21ST CENTURY MANPOWER RESOURCES INC.</v>
+      </c>
+      <c r="C93" t="str">
+        <v>DMW License No: DMW-324-LB-04112024-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Chassis and suspension repairs (braking systems, suspension components, all types of fluids) • Engine repairs (petrol and diesel engines) and Fuel systems • Timing belt replacement and other belts/chains and Clutch replacement and repair • Tire services (mounting, repair, balancing) Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Good command of English – ability to communicate fluently, explain vehicle problems, and clearly describe repair solutions to colleagues and clients • Minimum 15 years of experience as an auto mechanic including minimum 10 years’ experience as auto electrician • International work experience with European and Japanese vehicles: At least 5 years of experience working abroad as Mechanic/ Senior Mechanic with European brands (like VW, Mercedes-Benz, Audi, Peugeot, ) and Japanese brands (Toyota), OR o At least 1 • Strong knowledge of chassis and suspension diagnostics and the ability to independently identify and resolve issues • Welding skills are required and Willingness and motivation to work hard to earn good salary</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E93" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F93" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G93" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H93" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Riga</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Riga</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="L93" t="str">
+        <v>https://www.workabroad.ph/job/3351746</v>
+      </c>
+      <c r="M93" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N93" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/09d038b093439719aec4e58936d38ab5bf2148aa4a077ad1682285ea4623474c721d1ffd20258f57b81bf122d4ba162c8f308dd44a923af3c43ee327076ccae5U1B1i.ogywfF2ZMGpcQegTWTy4sXJqwMwMMi89OL.4Y-</v>
+      </c>
+      <c r="O93" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P93" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>3351746</v>
+      </c>
+      <c r="R93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Auto Painter</v>
+      </c>
+      <c r="B94" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C94" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Perform machine and hand polishing to remove scratches, swirl marks, oxidation, and paint defects • Apply wax, sealant, or ceramic coatings to protect vehicle paint • Inspect paintwork before and after polishing to ensure quality standards</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E94" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F94" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G94" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H94" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J94" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K94" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L94" t="str">
+        <v>https://www.workabroad.ph/job/3351322</v>
+      </c>
+      <c r="M94" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N94" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/87d0724923d8e1e34a5e271d963cd783a49d7ddc01987d7d36eb5c547411aaca17f89978b02801448282a0214b302b4a8c8a58ed8a0aaf57ffdd4b090f92e5fe7WeK2gTxS3U4SGbY3SiE~i339mZUvLsXFrGH1koHlFc-</v>
+      </c>
+      <c r="O94" t="str">
+        <v>12/27/2025</v>
+      </c>
+      <c r="P94" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>3351322</v>
+      </c>
+      <c r="R94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Auto Spray Painter / Mixer</v>
+      </c>
+      <c r="B95" t="str">
+        <v>JM INTERNATIONAL INC</v>
+      </c>
+      <c r="C95" t="str">
+        <v>• Operates and uses all body shop equipment properly and safely • Removes rust from metal, and grease and dirt from work surface • Masks and protects parts that are not to be painted or coated • Fills cavities and dents with putty to attain smooth surface • Mixes paint/thinner according to specifications • Manual mixing and matching of paint and coating liquid to produce desired color • Spot repairs and blending of colors to match body paint • Paints surface using sprayer. Inspects painted units for quality of workmanship, noting any runs, sags and unpainted areas • Maintains tools and keeps equipment clean and in a proper state of repair. • Keeps work area clean. Team oriented, flexible and focused. Other tasks as assigned Additional Information:</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E95" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F95" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G95" t="str">
+        <v>700</v>
+      </c>
+      <c r="H95" t="str">
+        <v>800</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Sitrah</v>
+      </c>
+      <c r="J95" t="str">
+        <v>Capital Governorate</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Bahrain</v>
+      </c>
+      <c r="L95" t="str">
+        <v>https://www.workabroad.ph/job/3348740</v>
+      </c>
+      <c r="M95" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N95" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/730c92e294b10f84e64f4db41e6d022416df26d8cf7ac5423f9c1dee617114269bb80bd13b11d623180539282ce5daa33bd7d2c213e304fc9a56e4ad1046157eaNykaAyfp63Q6wlvF6GkZMTPJrCPUb7diVcZlEw.ukY-</v>
+      </c>
+      <c r="O95" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P95" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>3348740</v>
+      </c>
+      <c r="R95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Auto Technician</v>
+      </c>
+      <c r="B96" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C96" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Perform mechanical repairs such as engine, transmission, suspension, steering, and brake work • Troubleshoot electrical and electronic systems • Conduct routine maintenance including oil changes, filters, fluid checks, and tire services</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E96" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F96" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G96" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H96" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L96" t="str">
+        <v>https://www.workabroad.ph/job/3351321</v>
+      </c>
+      <c r="M96" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N96" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/67b0c2e42b80d93f0777b38af9cc59212fc7fa34f880c78b56dd8ea68010ab348c7d203c705bfd7f2286b1ae7adcfdd68e54adddcf373e1eb30e2c21c8a374c2hLFjCx8WQL~5LCnSm56U.tvmyJGbofdm48ftlzw8qrw-</v>
+      </c>
+      <c r="O96" t="str">
+        <v>12/27/2025</v>
+      </c>
+      <c r="P96" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>3351321</v>
+      </c>
+      <c r="R96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>AUTO TECHNICIANS</v>
+      </c>
+      <c r="B97" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C97" t="str">
+        <v>• with at least 5 years experience • At least High Graduate or Vocational • With relevant experience in automobile</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E97" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F97" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G97" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="H97" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J97" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L97" t="str">
+        <v>https://www.workabroad.ph/job/3352258</v>
+      </c>
+      <c r="M97" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N97" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/666337c45ed8fae72ae308615df821f635f0e9af0e4c34b8bd05d537cae4b1eb97cb05aa3b046fba2d30fea26ea11d747b115b8d96cba2cfc06ce99f6e844877AUF53BO2XjOqSBtLp83v2IPCwcXIt4goBDLtpicTaII-</v>
+      </c>
+      <c r="O97" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P97" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>3352258</v>
+      </c>
+      <c r="R97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>AUTOCAD DRAFTSMAN</v>
+      </c>
+      <c r="B98" t="str">
+        <v>E-GMP INTERNATIONAL CORPORATION</v>
+      </c>
+      <c r="C98" t="str">
+        <v>• Prepare detailed 2D CAD drawings for architectural metal products including gates, railings, fences, staircases, grills, doors, and other decorative elements • Interpret architectural and structural drawings to create shop/fabrication drawings • Take and/or work with site measurements to ensure precise fabrication and fitting • Develop detailed sections, elevations, and isometric views as required • Coordinate with fabrication and installation teams to ensure design feasibility and accuracy • Revise drawings based on client feedback, engineer comments, or site adjustments • Prepare material take-offs and cutting lists from approved drawings • Ensure compliance with company standards and project specifications • Maintain a drawing library and update project records regularly • Assist in 3D modeling or presentation drawings (optional, if applicable) Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Architecture / Urban Studies; Art &amp; Design; Computer Science/Information technology or similar fields. • Diploma or degree in Civil/Mechanical Engineering, Drafting, or related field • Minimum 2–4 years of experience as an AutoCAD Draftsman in architectural or structural metal works • Proficiency in AutoCAD (2D a must; 3D is a plus) • Strong knowledge of architectural metalwork detailing (wrought iron, stainless steel, aluminum) • Ability to interpret architectural, structural, and MEP drawings • Good understanding of fabrication processes, metal joinery, and site conditions • Excellent attention to detail and accuracy in drafting • Ability to manage multiple projects and meet tight deadlines • Good communication and coordination skills</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E98" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F98" t="str">
+        <v>KWD</v>
+      </c>
+      <c r="G98" t="str">
+        <v>300</v>
+      </c>
+      <c r="H98" t="str">
+        <v>400</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Kuwait City</v>
+      </c>
+      <c r="J98" t="str">
+        <v>Capital Governorate</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="L98" t="str">
+        <v>https://www.workabroad.ph/job/3348974</v>
+      </c>
+      <c r="M98" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N98" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/907ba02709b7855b337fc6f26d9698c3d51638941a2749817e7698604f7dab5586780cf2791e5ff566cb6973add8af8ec06afb01dd2172d2807f650d1e738f31NcRQeG9YRR7q8XhRi~1u2gXdqMgvMnTGtmjaIXWhJhE-</v>
+      </c>
+      <c r="O98" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P98" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>3348974</v>
+      </c>
+      <c r="R98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Automated Assembly Line Operator</v>
+      </c>
+      <c r="B99" t="str">
+        <v>AL ASSAL MANPOWER INC.</v>
+      </c>
+      <c r="C99" t="str">
+        <v>DMW License No: POEA-190-LB-091918-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • With valid passport and documents • flexible and with good communication skills • • responsible for operating and monitoring automated machinery used in the production and assembly of goods. The role involves ensuring the smooth flow of operations, maintaining product quality, and following all safety and operational guidelines. • The operator is expected to perform basic troubleshooting, handle materials, and contribute to achieving production targets within a fast-paced manufacturing environment. Additional Information:</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E99" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G99" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H99" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L99" t="str">
+        <v>https://www.workabroad.ph/job/3348430</v>
+      </c>
+      <c r="M99" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N99" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/42f08c900d6558f79870c86f0acd176f09cf9736ecf4a9de2f5fd0d005cf2fe3379ea41b07024a0310d4fa5b29a2cfcaeb48e82e8c18d2dae36b5652373ef7a0cFLSE1EJZ.mrPUhDgBcUc2oBLaG2IBQJHMl7jwAblOQ-</v>
+      </c>
+      <c r="O99" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P99" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>3348430</v>
+      </c>
+      <c r="R99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>AUTOMATIC DOOR TECHNICIAN</v>
+      </c>
+      <c r="B100" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C100" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Installs, maintains, and repairs automatic doors, including sliding, swing, revolving, and industrial systems. • Performs troubleshooting on mechanical, electrical, and sensor components to ensure proper operation. • Interprets blueprints and technical manuals while complying with safety regulations and site requirements.</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E100" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F100" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G100" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="H100" t="str">
+        <v>2,200</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Dammam</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L100" t="str">
+        <v>https://www.workabroad.ph/job/3349513</v>
+      </c>
+      <c r="M100" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N100" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/ff7c919db5c070a71e722a33a7b02459bc066bc8a4b0bae736691b74b05988b1d46d755f8cefe5cd1ce040fd39ad96fe48da83ae1b869392056ccb6d8905c70fTQ4S6.9BByfoc2riyFa4AeLnqVA6SOJvmPoyKdXmTYA-</v>
+      </c>
+      <c r="O100" t="str">
+        <v>12/03/2025</v>
+      </c>
+      <c r="P100" t="str">
+        <v>01/31/2026</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>3349513</v>
+      </c>
+      <c r="R100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>AUTOMATION ENGINEER</v>
+      </c>
+      <c r="B101" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C101" t="str">
+        <v>• Research and design automated equipment and systems. Oversee production, installation and maintenance activities. • Design equipment and systems. Specify performance and quality standards. • Oversee maintenance and repair of equipment. • Ensure health and safety, Manage projects, Conduct research • Develop policies and procedures to ensure compliance with health, safety and environmental regulations. Oversee their implementation. • Manage the installation of equipment and systems. Establish schedules and cost estimates. • Develop new theories and enhance existing methods in the field. • • Certified from one of the following automation certificates (CAP,CCST,ITSQB,CSE,CSTAA) • Practical experience in machine learning and artificial intelligent. • Exploring and implementing new ways to automate systems. • Designing and testing automat</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E101" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F101" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G101" t="str">
+        <v>6,000</v>
+      </c>
+      <c r="H101" t="str">
+        <v>8,500</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Jeddah</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Makkah Region</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L101" t="str">
+        <v>https://www.workabroad.ph/job/3352292</v>
+      </c>
+      <c r="M101" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N101" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/3fb697fe010827012d905c1ae1de86ed4df8677b02fe188ce51847724c2ee41f887f5e2c65b4d4ab4630fd8d1dda844bf17f4bef2b5c4eb0f86bbc0170df97f6XFPtIuAAke6fC8rHImfQlrATCMEDTPtlVJDltdayQG4-</v>
+      </c>
+      <c r="O101" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P101" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>3352292</v>
+      </c>
+      <c r="R101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>AUTOMATION TECHNICIAN</v>
+      </c>
+      <c r="B102" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C102" t="str">
+        <v>• Installs, maintains, and repairs automated equipment, including robotics, PLCs, and sensors, to ensure production lines run efficiently and safely • Maintenance and repair: Perform routine maintenance and emergency repairs on automated machinery, such as filling, packaging, and processing systems. • Troubleshooting: Diagnose and resolve electromechanical faults in automated systems and control systems using diagnostic tools and schematics. • Installation and modification: Install and modify automated equipment, control systems, and associated wiring. • System programming: Program and modify computer programs for PLCs (Programmable Logic Controllers) and other automated systems. • Calibration: Ensure machines and instruments are properly calibrated and performing to specifications.</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E102" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F102" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G102" t="str">
+        <v>4,000</v>
+      </c>
+      <c r="H102" t="str">
+        <v>4,500</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Jeddah</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Makkah Region</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L102" t="str">
+        <v>https://www.workabroad.ph/job/3352293</v>
+      </c>
+      <c r="M102" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N102" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/522828d0fcd1c920e4925f22842854d5404b69c6b067e59f74abb9fc348dcdf3cc1dc5200d528f852bd54e6b47001e8fba36f1600ff5f281e7a7bcbe378278878V8umv0alKnH28WrpeMDkXq4qvozdSFVCM3Q8Xv22H0-</v>
+      </c>
+      <c r="O102" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P102" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>3352293</v>
+      </c>
+      <c r="R102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>AUTOMECHANIC</v>
+      </c>
+      <c r="B103" t="str">
+        <v>MEC INTERNATIONAL MANPOWER RESOURCES INCORPORATED</v>
+      </c>
+      <c r="C103" t="str">
+        <v>DMW License No: DMW-229-LB-12182023-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Assembly of all types of combat vehicles and superstructures. • Assembly of mechanical components, combat equipment, and wheeled chassis. • Follow safety procedures and regulations during repairs and use of tools/equipment. Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Must provide a certificate of vocational diploma in one of the following fields: auto mechanic, auto electronics technician, motor vehicle repair mechanic, car body repair technician, or mechanic for trucks and commercial vehicles. • Must be able to communicate in English.</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E103" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F103" t="str">
+        <v>CZK</v>
+      </c>
+      <c r="G103" t="str">
+        <v>21,192</v>
+      </c>
+      <c r="H103" t="str">
+        <v>25,376</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Šternberk</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Olomouc Region</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Czech Republic</v>
+      </c>
+      <c r="L103" t="str">
+        <v>https://www.workabroad.ph/job/3350250</v>
+      </c>
+      <c r="M103" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N103" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d062904aaf4f4ffcaad8491f0621e58d31bc187f42d3eb024499007da70d9f770f1750fb3aca4722e7f301c8389bd5b5fdc676029b768b8e89eac747e0cfb8f48zlwPpl2n4KnF9IY7JoYnK9WwdGLwvq3FUQ.LlJttTw-</v>
+      </c>
+      <c r="O103" t="str">
+        <v>12/11/2025</v>
+      </c>
+      <c r="P103" t="str">
+        <v>02/08/2026</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>3350250</v>
+      </c>
+      <c r="R103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Automobile Mechanic (Specified Skilled Worker-SSW)</v>
+      </c>
+      <c r="B104" t="str">
+        <v>PHILNOS CORPORATION</v>
+      </c>
+      <c r="C104" t="str">
+        <v>• Experience working in an automobile industry • at least 1 year work experience as car mechanic, automobile mechanic, car technician domestic and abroad • General Automobile repair and maintenance work. Engine change oil • Tire changing/wheel alignment/Flat Tire repair • Wiper changing and Battery Changing • With experience and knowledgeable in auto denter and car metal painting Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • With Valid Passport at least 1 year • With certificate of completion of technical intern training (JITCO OR OTIT) if EX-TITP • If first timer ,must have Prometric (Both Skills and Language) Additional Information: • With Valid Passport at least 1 year • With certificate of completion of technical intern training (JITCO OR OTIT) if EX-TITP • If first timer ,must have Prometric (Both Skills and Language)</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E104" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F104" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="G104" t="str">
+        <v>190,000</v>
+      </c>
+      <c r="H104" t="str">
+        <v>190,000</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Fukuoka</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Fukuoka Prefecture</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="L104" t="str">
+        <v>https://www.workabroad.ph/job/3349990</v>
+      </c>
+      <c r="M104" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N104" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/b984367195c2ee2eb33662997cbf1422cadc3fecfeae2dbd209704c8a1eb845d70441b13f66d3bbfd00092e61db77439052470a8eb178e0e379d3df295e15799aoQI.Q6XlNpPvdK3BXZD5BTCNWcb9ZFxwwPbhFLY8kU-</v>
+      </c>
+      <c r="O104" t="str">
+        <v>12/09/2025</v>
+      </c>
+      <c r="P104" t="str">
+        <v>02/06/2026</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>3349990</v>
+      </c>
+      <c r="R104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>AUTOMOBILE REPAIR AND MAINTENANCE</v>
+      </c>
+      <c r="B105" t="str">
+        <v>NIHON KOKUSAI RECRUITMENT AGENCY INC.</v>
+      </c>
+      <c r="C105" t="str">
+        <v>• * Automobile Repair and Maintenance work • * Automobile inspection and maintenance work • * Automobile inspection of each equipment, good/bad judgment of periodic inspection items and supplementary work based on that steering device, travelling equipment, suspension device, power transmission, electrical device, engine device. Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Must be a holder of Valid Passport Additional Information: • Must be a holder of Valid Passport</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E105" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F105" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="G105" t="str">
+        <v>133,196</v>
+      </c>
+      <c r="H105" t="str">
+        <v>186,680</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Nagoya</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Aichi Prefecture</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="L105" t="str">
+        <v>https://www.workabroad.ph/job/3351417</v>
+      </c>
+      <c r="M105" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N105" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/94ecba63d10d0738aac129a8fe0be74d7c27622e4839ce27fc9c299c8a3e04371f494e90fd04176a0f3b12a5ed42ae6ad82e9dbe27ac5c5bbbbeb05178b36429ek1Jxo37rAmbZi2Ze3KjTUV1ptR1tGKfBzJ~hqC3w64-</v>
+      </c>
+      <c r="O105" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="P105" t="str">
+        <v>01/31/2026</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>3351417</v>
+      </c>
+      <c r="R105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>AUTOMOTIVE</v>
+      </c>
+      <c r="B106" t="str">
+        <v>UNIONSKILLS INTERNATIONAL INC.</v>
+      </c>
+      <c r="C106" t="str">
+        <v>• Perform maintenance and repair on customer vehicles. • Identify problems with vehicles using the diagnostic equipment. • Explain automotive repairs and issues and provide great customer service. • Plan repair procedures using charts manuals and experience. • Test the functionality of parts and systems Perform basic auto care and maintenance tasks such as oil changes, fluid level checks, and tire rotation. • Repair and replace brake pads, wheel bearings, sensors and other parts. • Perform routine maintenance and general mechanic work on vehicles. • Prepared to get additional certification as needed. Willingness to learn with hands-on training • Help keep repair shop clean and organized. Keep a professional appearance. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • WITH TITP CERTIFICATE, JLPT, N3 OR N4 PASSER • WITH CERTIFICATE OF EMPLOYEMENT</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E106" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F106" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="G106" t="str">
+        <v>175,000</v>
+      </c>
+      <c r="H106" t="str">
+        <v>175,000</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Matsue Shi</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Shimane Prefecture</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="L106" t="str">
+        <v>https://www.workabroad.ph/job/3352210</v>
+      </c>
+      <c r="M106" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N106" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/4e9439f46d262d7a32fdaab674684a1a3c097796323e4f0d1174ca59b5e179f0aae17b9b4dd41fe6a961a671ef51e2fdf84e36c53eac88979d9e967c37d4c9d441u6nI8A~V7JLagkTNMdHDgHNpwqZCx~5RyhFyj15eg-</v>
+      </c>
+      <c r="O106" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P106" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>3352210</v>
+      </c>
+      <c r="R106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Automotive Body Repair Technician (Panel Beater)</v>
+      </c>
+      <c r="B107" t="str">
+        <v>CENTRO PROJECT MANPOWER SERVICES CORP (NEW)</v>
+      </c>
+      <c r="C107" t="str">
+        <v>• Diagnose and repair vehicle body damage according to manufacturer specifications. • Carry out bodywork, panel replacement, dent removal, and alignment of body components. • Perform welding, grinding, filling, and preparation for painting. • Work closely with the paint department to ensure smooth workflow and high-quality results. • Ensure all repairs meet internal quality standards and safety regulations. • Maintain a clean and organized work area and use tools responsibly. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Others) or similar fields. • Must have a minimum of 5 Years of experience in automotive paint application and body repair • Completed at least a 3-year Automotive course • Must present proof of training and experience</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E107" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F107" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="G107" t="str">
+        <v>2,600</v>
+      </c>
+      <c r="H107" t="str">
+        <v>2,700</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Baden-Württemberg</v>
+      </c>
+      <c r="K107" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="L107" t="str">
+        <v>https://www.workabroad.ph/job/3353261</v>
+      </c>
+      <c r="M107" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N107" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/11da174651bf4761cbdcc416a179f980e07f261fbeeeb59c07a184ad411bd34cde4b51e31948014be01feca3dd160d437f617de46f065737272fbca75e474adewKTwtC~N4I7rPSD~563RlMhvtbXhpxEYoJZh~lE5i64-</v>
+      </c>
+      <c r="O107" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P107" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>3353261</v>
+      </c>
+      <c r="R107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>AUTOMOTIVE MECHANIC</v>
+      </c>
+      <c r="B108" t="str">
+        <v>GLOBAL HOSPITALITY PLACEMENT AGENCY PHILIPPINES CORPORATION</v>
+      </c>
+      <c r="C108" t="str">
+        <v>• Diagnose mechanical issues using diagnostic tools and equipment. • Perform routine maintenance such as oil changes, tire rotations, and brake inspections. • Repair and replace defective or worn-out parts like engines, transmission, and brakes. • Test vehicles post-repair to ensure issues are resolved and performance meets safety standards. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • Strong mechanical aptitude and familiarity with automotive systems. • Profieciency with tools, diagnostic equipment, and repair techniques. • Familiarity with specific brands, models, or system (preferred but not mandatory.)</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E108" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F108" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G108" t="str">
+        <v>750</v>
+      </c>
+      <c r="H108" t="str">
+        <v>800</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Colonia</v>
+      </c>
+      <c r="J108" t="str">
+        <v>Yap State</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Micronesia</v>
+      </c>
+      <c r="L108" t="str">
+        <v>https://www.workabroad.ph/job/3352039</v>
+      </c>
+      <c r="M108" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N108" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O108" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P108" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>3352039</v>
+      </c>
+      <c r="R108" t="str">
+        <v>ALTATS204, ALTATS213, ALTATS106, ALTATS113, ALTATS118, ALTATS308, ALTATS313, ALTATS406, ALTATS413, ALTASN220, ALTASC220, ALTASL220, ALTAER204</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Automotive Painter</v>
+      </c>
+      <c r="B109" t="str">
+        <v>CENTRO PROJECT MANPOWER SERVICES CORP (NEW)</v>
+      </c>
+      <c r="C109" t="str">
+        <v>• Prepare vehicle surfaces for painting, including sanding, masking, and priming. • Mix and apply paints, varnishes, and coatings according to manufacturer specifications. • Perform spot repairs, full resprays, and blending work with high precision. • Evaluate paint damage and determine suitable repair methods. • Maintain and calibrate painting equipment and spray booths. • Collaborate with the bodywork department to ensure seamless repair and paint quality. • Conduct final quality checks to ensure flawless surface finishes Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Engineering(Others) or similar fields. • Must have a minimum of 5 Years of experience in automotive paint application and body repair • Completed at least a 3-year Automotive course • Must present proof of training and experience</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E109" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F109" t="str">
+        <v>EUR</v>
+      </c>
+      <c r="G109" t="str">
+        <v>2,700</v>
+      </c>
+      <c r="H109" t="str">
+        <v>2,700</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Stuttgart</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Baden-Württemberg</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="L109" t="str">
+        <v>https://www.workabroad.ph/job/3350502</v>
+      </c>
+      <c r="M109" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N109" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d2b2eb449b2e7fca8959a55cf45badb3551b171ed0ac0bb1c8ad162d01350ad5c9b15da6ca4d800486017a36b50402300c610e9b005bf642463741e4161b6a5cNXNU59mPCpTm9RJS5OPTmvs2X7ZO5TviLt72IHwJ0YE-</v>
+      </c>
+      <c r="O109" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P109" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>3350502</v>
+      </c>
+      <c r="R109" t="str">
+        <v>ALTABP106, ALTABP204, ALTABP306, ALTATP220</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Automotive Repair and Maintenance</v>
+      </c>
+      <c r="B110" t="str">
+        <v>JGB ASSOCIATES, INC.</v>
+      </c>
+      <c r="C110" t="str">
+        <v>• ???????????????????????????????????????? ???????????????? ???????????????????? ???????????????????????????????????????? ???????? ???????????????????????????????? ???????? ???????????? ???????????????? ???????????????????? ???????????? ???????????????????? • S???????????????????????? ???????????????????????????????????????????? ???????????????? ???????????????????????????????????????? ???????? ???????????????????????????????????????? ????????????????????????????????????????????, ????????????????????????????, • ????????????????????????????????????le ???????? ???????????????????????????????????? ????????????????????????????, ????????????????????????, ????????????????????????????????????????????????????, ???????????? ???????????????????? ???????????? ????????????? Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Others or similar fields. • JLPT N4 /JFT Certificate and Automotive Repair and Maintenance Prometric Certificate Holder</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E110" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F110" t="str">
+        <v>JPY</v>
+      </c>
+      <c r="G110" t="str">
+        <v>180,000</v>
+      </c>
+      <c r="H110" t="str">
+        <v>220,000</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Sapporo-shi</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Hokkaidō Prefecture</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="L110" t="str">
+        <v>https://www.workabroad.ph/job/3353885</v>
+      </c>
+      <c r="M110" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N110" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/107866f11a9048aeb836186b214497b16f38a43c105c48e4e37ea634d88178f65c281f330beea1607301ee39743ffa826d94743c692b9174dfcf77801ef14d29wLMgnLZ3DxwqUBZzaw4lxsfRfKIoNRZ8BWeQyIHCnO0-</v>
+      </c>
+      <c r="O110" t="str">
+        <v>01/20/2026</v>
+      </c>
+      <c r="P110" t="str">
+        <v>02/18/2026</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>3353885</v>
+      </c>
+      <c r="R110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>AUTOMOTIVE TECHNICIAN - PAPUA NEW GUINEA</v>
+      </c>
+      <c r="B111" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C111" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Knowledge of diagnostic software and equipment interact with customers. • Proficiency in using a variety of hand and power tools. • Strong understanding of both mechanical and electronic vehicle systems. Qualification: • A minimum of 3 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Attention to detail and problem-solving abilities. • Excellent communication skills to effectively interact with customers.</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E111" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G111" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H111" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I111" t="str">
+        <v>National Capital District</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L111" t="str">
+        <v>https://www.workabroad.ph/job/3353290</v>
+      </c>
+      <c r="M111" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N111" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c9ee2ecfa4aa4697174c1326f8cdce4d36b20912aa255fb84d4564384175ab03e7aa77336872d24f257a3a14872536b03113d69bbc709f8267999d2e15610067Ajw9C8LkhJXo19hG7RQArxli1lyNdbEHob70dzi5cJY-</v>
+      </c>
+      <c r="O111" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P111" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>3353290</v>
+      </c>
+      <c r="R111" t="str">
+        <v>ALTATS204, ALTATS213, ALTATS106, ALTATS113, ALTATS118, ALTATS308, ALTATS313, ALTATS406, ALTATS413, ALTASN220, ALTASC220, ALTASL220, ALTAER204</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>AUTOMOTIVE TINT AND LAMINATE INSTALLER - PNG</v>
+      </c>
+      <c r="B112" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C112" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Experience in window tinting and/or vinyl wrapping is often required. • The ability to handle small tools and work with precision is essential. • Ability to address challenges that arise during installation, such as handling curved or complex windows. Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Keen eye for details is crucial for achieving a high - quality, professional finish. • Efficiently completing jobs to meet deadlines and customer expectations. • Good communication and customer service skills.</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E112" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F112" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G112" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H112" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I112" t="str">
+        <v>National Capital District</v>
+      </c>
+      <c r="J112" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L112" t="str">
+        <v>https://www.workabroad.ph/job/3353289</v>
+      </c>
+      <c r="M112" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N112" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/a1f967e6960af949b33baefcb2d55b79440ce868cbf1f1db4829b939a10df6f0eadbf31cf2482c5f5bb324db1a561e85270e9c84a27734d7e0983392abb4615fC7p9mUr~CgE5UkpQMkx6Jwoyqtv5DBqBsDJ2SdARidg-</v>
+      </c>
+      <c r="O112" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="P112" t="str">
+        <v>02/13/2026</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>3353289</v>
+      </c>
+      <c r="R112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>AV TECHNICIAN</v>
+      </c>
+      <c r="B113" t="str">
+        <v>PSC PRIMARY SKILLS INC.</v>
+      </c>
+      <c r="C113" t="str">
+        <v>• Managing a wide Audio-Visual-Lighting, sound reinforcement and outdoor lighting for special events, as well as maintaining all said areas daily. • The position is operational and requires monitoring of audio-visual-lighting equipment, show effects equipment (consists of snow-smoke- elements), thorough knowledge of techniques, and tools used in simple on-site repair/troubleshoot/maintenance/serv • Will be scheduled at every set-up, pre-productions, tech rehearsal, dress rehearsals, and all stage show performances showing timely • They will be expected to be involved closely to any requirement from other entertainment needs from shows, parades, street shows, openings and closings. Additional Information:</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E113" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F113" t="str">
+        <v>AED</v>
+      </c>
+      <c r="G113" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="H113" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="J113" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="K113" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L113" t="str">
+        <v>https://www.workabroad.ph/job/3351666</v>
+      </c>
+      <c r="M113" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N113" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/00561c1bf61fdfde95fdf022a1b94bfe5b86b0a8a48d30f0a4317f20f9a9b01a2873796e7304b86400771fffc3761e13d844fc2d9e99950544214676846def9fI~W1S237RnshmO1WPegq9Yacf.jyLqU8.5WVLdbvgg4-</v>
+      </c>
+      <c r="O113" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P113" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>3351666</v>
+      </c>
+      <c r="R113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>BA SINGLE LINE TECHNICIAN</v>
+      </c>
+      <c r="B114" t="str">
+        <v>LANDBASE HUMAN RESOURCES COMPANY</v>
+      </c>
+      <c r="C114" t="str">
+        <v>DMW License No: POEA-230-LB-112215-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Install, commission, and maintain single-line burner automation (BA) systems, including valves, sensors, actuators, and control panels Troubleshoot and repair mechanical, electrical, and instrumentation issues in single-line systems • Perform preventive and corrective maintenance to ensure uninterrupted operation Read and interpret P&amp;IDs, schematics, single-line diagrams, and technical manuals • Calibrate and test instrumentation devices, pressure sensors, flow meters, and temperature controllers Ensure compliance with HSE procedures, Permit to Work (PTW), and site safety standards • Maintain tools, equipment, and spare parts inventory Coordinate with engineers, supervisors, and other technicians for system integration and troubleshooting • Maintain accurate maintenance logs, service reports, and work completion records Support startup, shutdown, and commissioning activities related to single-line systems</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E114" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F114" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G114" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H114" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Al Jubayl</v>
+      </c>
+      <c r="J114" t="str">
+        <v>Eastern Province</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L114" t="str">
+        <v>https://www.workabroad.ph/job/3351876</v>
+      </c>
+      <c r="M114" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N114" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/88fcc9694d683d42a821627d1d6affde576e581a9b9df7c7de897b3f04c752661fdd10078afc0bc94d8dbfb8627a483ed580e2112ecfc7564a35a72cd037c7dfnBjpKIMk7g4gnM0xXEz3sKuoBTYXMNIA~ac91oWOGZU-</v>
+      </c>
+      <c r="O114" t="str">
+        <v>01/06/2026</v>
+      </c>
+      <c r="P114" t="str">
+        <v>02/04/2026</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>3351876</v>
+      </c>
+      <c r="R114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>BABYSITTER</v>
+      </c>
+      <c r="B115" t="str">
+        <v>UNIONSKILLS INTERNATIONAL INC.</v>
+      </c>
+      <c r="C115" t="str">
+        <v>• Reviewing caregivers' instructions and requesting helpful clarification when needed. • Monitoring self-directed feeding, hygiene-related, and tidying activities. • Aiding applicable minors with routine tasks, if required.Fortifying every access point around dusk. • Encouraging sufficient, cognitively stimulating individual and group play. • Promoting adherence to nonnegotiable curfews. • Modeling actions that emulate caregivers' principles, unless deemed inappropriate. • Securing help from medical, familial, and similar structures, as required.</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E115" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F115" t="str">
+        <v>AED</v>
+      </c>
+      <c r="G115" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="H115" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Abu Dhabi Island and Internal Islands City</v>
+      </c>
+      <c r="J115" t="str">
+        <v>Abu Dhabi Emirate</v>
+      </c>
+      <c r="K115" t="str">
+        <v>United Arab Emirates</v>
+      </c>
+      <c r="L115" t="str">
+        <v>https://www.workabroad.ph/job/3352207</v>
+      </c>
+      <c r="M115" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N115" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/90100d62dfaf44085392fafe4cc66c7bdf7c25d3711d249338f193293371e7ea1c139d9a839a4a87b3e12c2c9eb00d1e66eab46eb9badea2ef6e6d733f587497SMHM3Rgt1FyR7yjYFI.tpsbnUlZ48pGVE76gtUcFMAQ-</v>
+      </c>
+      <c r="O115" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="P115" t="str">
+        <v>02/05/2026</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>3352207</v>
+      </c>
+      <c r="R115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>BABYSITTER for KYRGYZSTAN</v>
+      </c>
+      <c r="B116" t="str">
+        <v>TRANSNATIONAL SERVICES, INC.</v>
+      </c>
+      <c r="C116" t="str">
+        <v>DMW License No: POEA-035-LB-022120-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Candidate have at least High School Graduate . • Knows how to take care children and keep them safe and clean • Minimum of 1 year experience as a Nanny /Baby sitter</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E116" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F116" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G116" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H116" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Bishkek</v>
+      </c>
+      <c r="J116" t="str">
+        <v>Bishkek</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Kyrgyzstan</v>
+      </c>
+      <c r="L116" t="str">
+        <v>https://www.workabroad.ph/job/3348771</v>
+      </c>
+      <c r="M116" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N116" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/9b04f3c6077e5dd70278f3835cc4e837bc88aaa0cac7aa4ec76f2d85dfe8aab28b62b3339d09718324b2c13e649278956540b3fa0865fc5fa17ae35df84f4c9a3Ip39tpGJNV6mOmBOPH.qgnfAnXKfHljZbhO28EHBNs-</v>
+      </c>
+      <c r="O116" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P116" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>3348771</v>
+      </c>
+      <c r="R116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>BABYSITTER FOR VIP FAMILY</v>
+      </c>
+      <c r="B117" t="str">
+        <v>STELLAR ACES OVERSEAS INT'L INC</v>
+      </c>
+      <c r="C117" t="str">
+        <v>• Bathing the children,Dressing the children, including diapering including bottles and baby food. • Keeping the children’s areas neat and clean. • Transporting children to and from activities and appointments. Additional Information:</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E117" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F117" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G117" t="str">
+        <v>400</v>
+      </c>
+      <c r="H117" t="str">
+        <v>500</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J117" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L117" t="str">
+        <v>https://www.workabroad.ph/job/3351423</v>
+      </c>
+      <c r="M117" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N117" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/bb053c911548e07fcfdc645ccb2161e25b1f4f4ed12cedb57e05bb60a1c3784e06882369b87371c4fef4e686c59c50cb9a223cdd4585fc0ec9dbe5bcaf43d471fW8Nq~uwUMiSw.LtHf7780d1CyQGuM723zyjhwmPPz8-</v>
+      </c>
+      <c r="O117" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="P117" t="str">
+        <v>01/31/2026</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>3351423</v>
+      </c>
+      <c r="R117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>BABYSITTER/ DOMESTIC HELPER</v>
+      </c>
+      <c r="B118" t="str">
+        <v>WIZARD INTERNATIONAL MANPOWER SERVICES, INC.</v>
+      </c>
+      <c r="C118" t="str">
+        <v>DMW License No: DMW-023-LB-09162024-PL For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Providing basic child care and support • Ensuring a safe and healthy environment in the parent's absence • Preparing meals and snacks for the kid • Helping with homework of the kid • Cleaning involves the removal of dirt, dust, fur, and disinfecting as well as tidying. • Transporting children to school Qualification: • A minimum of 2 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Knowledgeable of household chores • Knows how to drive and with the driver's license</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E118" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F118" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G118" t="str">
+        <v>700</v>
+      </c>
+      <c r="H118" t="str">
+        <v>800</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Gaziantep</v>
+      </c>
+      <c r="J118" t="str">
+        <v>Gaziantep Province</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Turkey</v>
+      </c>
+      <c r="L118" t="str">
+        <v>https://www.workabroad.ph/job/3351340</v>
+      </c>
+      <c r="M118" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N118" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O118" t="str">
+        <v>12/29/2025</v>
+      </c>
+      <c r="P118" t="str">
+        <v>01/27/2026</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>3351340</v>
+      </c>
+      <c r="R118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>BAKER</v>
+      </c>
+      <c r="B119" t="str">
+        <v>DLB INTERNATIONAL INC</v>
+      </c>
+      <c r="C119" t="str">
+        <v>• mixing, baking, and decorating goods like bread, cakes, and pastries, while ensuring quality, managing ingredients, maintaining hygiene, and sometimes developing recipes or overseeing staff, • Accurately weigh and combine ingredients (flour, sugar, eggs) using scales, mixers, and blenders. • Knead, shape, and cut dough for various products like breads, cookies, and pastries. • Set oven temperatures, monitor baking times, and adjust as needed to ensure even cooking. • Decorate items with glazes, icings, fillings, and toppings for visual appeal. • Inspect raw ingredients and finished products for freshness and quality. • Maintain clean workstations, sanitize equipment, and follow all health and hygiene regulations. • Clean and maintain baking tools, mixers, ovens, and utensils. • Monitor stock, order supplies, and ensure proper storage of ingredients. • Coordinate baking schedules with customer orders and delivery needs. • Maintain accurate records of operations, supplies, and production.</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E119" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F119" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G119" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="H119" t="str">
+        <v>1,800</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J119" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L119" t="str">
+        <v>https://www.workabroad.ph/job/3351243</v>
+      </c>
+      <c r="M119" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N119" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d768587a33aff7c37dfdd2c3d0cd88ca94f9f0d4b2a20cd13a4ea280cff57c5c1687cba1dbae614a924fff764d5d7864e2d613e62881ab9c7a7ffd97aab16debgyDuxzR7kPYCGNOKIaP~p3hBifmluLzefzIDJB5bYog-</v>
+      </c>
+      <c r="O119" t="str">
+        <v>12/26/2025</v>
+      </c>
+      <c r="P119" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>3351243</v>
+      </c>
+      <c r="R119" t="str">
+        <v>TRSBPP209, TRSFBP223</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Baker (Bakery Manager)</v>
+      </c>
+      <c r="B120" t="str">
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+      </c>
+      <c r="C120" t="str">
+        <v>• Oversee daily bakery operations, including production, inventory management, and quality control. • Ensure compliance with health and safety regulations, food safety standards, and cleanliness protocols. • Implement and streamline efficient workflow processes to maximize productivity. • Recruit, train, and manage bakery staff, fostering a positive and collaborative work environment. • Schedule shifts, assign tasks, and provide guidance to ensure the team meets production goals and customer satisfaction. • Utilize hands-on baking experience to maintain and improve product quality and consistency. • Stay informed about industry trends and new baking techniques to enhance the bakery's offerings, including the addition of new products to introduce to the market. • Manage inventory levels, order raw materials, and coordinate with suppliers to ensure a steady supply of high-quality ingredients. • Monitor and control waste to optimize cost-effectiveness and sustainability. • Interact with customers, addressing inquiries, feedback, and ensuring a positive customer experience. • Implement strategies to increase customer loyalty and satisfaction. • Develop and manage budgets, analyze financial reports, and implement cost-effective measures. • Collaborate with the leadership team to contribute to the overall financial success of the bakery. Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Food and Beverage Preparation/Service Management or similar fields. • Strong baking skills and a deep understanding of various baking techniques and recipes. • Demonstrated leadership and team management experience. • Knowledge of health and safety regulations, food safety standards, and sanitation practices. • Effective communication and interpersonal skills. • Flexibility and adaptability to handle changing priorities and a dynamic work environment. Additional Information: • Strong baking skills and a deep understanding of various baking techniques and recipes. • Demonstrated leadership and team management experience. • Knowledge of health and safety regulations, food safety standards, and sanitation practices. • Effective communication and interpersonal skills. • Flexibility and adaptability to handle changing priorities and a dynamic work environment.</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E120" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F120" t="str">
+        <v>PGK</v>
+      </c>
+      <c r="G120" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="H120" t="str">
+        <v>3,500</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="J120" t="str">
+        <v>Port Moresby</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L120" t="str">
+        <v>https://www.workabroad.ph/job/3348340</v>
+      </c>
+      <c r="M120" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N120" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/eecad6523c266c545eaca16547360c1189e19b2c0cde30190628d1ab11a3cbf01047a3c7639d95bf59750cb6a03adf4a35310b698267ea617566c27a54e370e9G4uTZHdqOAC~smt7hlZ.KCUmO58jk.Rjduwhw72A8B8-</v>
+      </c>
+      <c r="O120" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P120" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>3348340</v>
+      </c>
+      <c r="R120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Bakery Production Manager</v>
+      </c>
+      <c r="B121" t="str">
+        <v>1ST DYNAMIC PERSONNEL RESOURCES INC.</v>
+      </c>
+      <c r="C121" t="str">
+        <v>DMW License No: DMW-011-LB-051822-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Ability to produce varieties of cakes, pastries, breads and other bakery products • Demonstrated ability to manage operating costs in accordance with budgets • Comfortable setting priorities and delegating tasks as needed Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Food and Beverage Preparation/Service Management or similar fields. • Must have at least 5 years experience in Bakery Products Additional Information: • Must have at least 5 years experience in Bakery Products</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E121" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F121" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G121" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H121" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Lae</v>
+      </c>
+      <c r="J121" t="str">
+        <v>Morobe Province</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Papua new Guinea</v>
+      </c>
+      <c r="L121" t="str">
+        <v>https://www.workabroad.ph/job/3349742</v>
+      </c>
+      <c r="M121" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N121" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/2e306c2fe4b09db7d2f18efff7d2a8bf282e604544d0e9b74c08a022e2122342f8ffa00c56dd7415f270ef1622ff8d917df8d44fc6407c850e4f2dc55791452eYW6hLtFuBodXeUARZnj2rjPIUDKhePU8jgT1Nsq~jY0-</v>
+      </c>
+      <c r="O121" t="str">
+        <v>12/04/2025</v>
+      </c>
+      <c r="P121" t="str">
+        <v>02/01/2026</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>3349742</v>
+      </c>
+      <c r="R121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>BALLET INSTRUCTOR</v>
+      </c>
+      <c r="B122" t="str">
+        <v>RISING STAR HUMAN RESOURCES, INC</v>
+      </c>
+      <c r="C122" t="str">
+        <v>• Certification from a recognized dance institution or association is frequently preferred • Experience in choreography is often beneficial, especially for preparing students for performances • Must have a deep understanding of classical ballet techniques, terminology, and age-appropriate instruction • Excellent verbal and written communication skills to connect with students, parents, and fellow instructors</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E122" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F122" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G122" t="str">
+        <v>800</v>
+      </c>
+      <c r="H122" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Malé</v>
+      </c>
+      <c r="J122" t="str">
+        <v>Maldives</v>
+      </c>
+      <c r="K122" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L122" t="str">
+        <v>https://www.workabroad.ph/job/3348776</v>
+      </c>
+      <c r="M122" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N122" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/28974fa03d985083d1d042047830b1441fec53e826a685dbb2e3b4ea20a9847af35a4ac2fb9a98df142300ffdf9916ef74fcf88d3ac1d45dca539274860025daLoMj6tHGGBQxfCEJ4UocE2Q0dsW376mRe8UwD4Gbsj0-</v>
+      </c>
+      <c r="O122" t="str">
+        <v>11/27/2025</v>
+      </c>
+      <c r="P122" t="str">
+        <v>01/25/2026</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>3348776</v>
+      </c>
+      <c r="R122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Banquets Manager</v>
+      </c>
+      <c r="B123" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C123" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Coordinate daily banquet operations and staffing. Ensure function spaces are set up and maintained • Liaise with event organizers and resolve issues. Control costs, minimize waste and breakages • Experience managing banquets/events in hotel or resort . Strong leadership and organisational skills . Problem-solving and guest-service focus Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Bachelor's / College Degree holder in Hospitality/Tourism Management or similar fields. • Oversee banquet and function operations ensuring smooth delivery, guest satisfaction, and profitability.</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E123" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F123" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G123" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H123" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Nadi</v>
+      </c>
+      <c r="J123" t="str">
+        <v>Western Division</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L123" t="str">
+        <v>https://www.workabroad.ph/job/3350912</v>
+      </c>
+      <c r="M123" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N123" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/16b39ad51761978d39a57da44570c6658cdf04f049a4e559536d4278823ce1daac3fefd194a2bffa723afcc9fac07a8d6e31e37405445ec25f27108e5c6d731ete1YtsIeteIr8r38L23U7ncEq2i.ZPaGLXYKcmoU3LE-</v>
+      </c>
+      <c r="O123" t="str">
+        <v>12/19/2025</v>
+      </c>
+      <c r="P123" t="str">
+        <v>02/16/2026</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>3350912</v>
+      </c>
+      <c r="R123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Bar Supervisor</v>
+      </c>
+      <c r="B124" t="str">
+        <v>FINEST ASIA RESOURCES, INC.</v>
+      </c>
+      <c r="C124" t="str">
+        <v>DMW License No: POEA-033-LB-022020-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Supervise bar staff and support Head Mixologist/Outlet Manager • Prepare and serve cocktails, wines, and beverages • Maintain bar readiness, hygiene, and equipment . Monitor stock, restocking, and ordering Qualification: • A minimum of 5 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Food and Beverage Preparation/Service Management; Hospitality/Tourism Management or similar fields. • Oversee bar operations to ensure high-quality service, beverage consistency, and compliance with standards.</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E124" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F124" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G124" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H124" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I124" t="str">
+        <v>Nadi</v>
+      </c>
+      <c r="J124" t="str">
+        <v>Western Division</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Fiji Islands</v>
+      </c>
+      <c r="L124" t="str">
+        <v>https://www.workabroad.ph/job/3350898</v>
+      </c>
+      <c r="M124" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N124" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/953693f40259aa13ccdac322b7f805823e70add7e006212f136e6c6e96b632f84b463c275e852c49d96f16646f22502675d49770a89a620a21409403bf627383A9nzH~O.zZJfgdBUB2Re35BGTPVSgzJOGXGAu0pZLfM-</v>
+      </c>
+      <c r="O124" t="str">
+        <v>12/19/2025</v>
+      </c>
+      <c r="P124" t="str">
+        <v>02/16/2026</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>3350898</v>
+      </c>
+      <c r="R124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Barista</v>
+      </c>
+      <c r="B125" t="str">
+        <v>SANGUINE GLOBAL STAFF RESOURCES CORP.</v>
+      </c>
+      <c r="C125" t="str">
+        <v>• Prepare and serve coffee, tea, and specialty beverages consistently to brand standards. • Greet customers warmly and take their orders accurately. • Operate espresso machines, grinders, blenders, and other equipment safely and efficiently. • Follow health, safety, and sanitation guidelines at all times. Qualification: • A minimum of 2 year(s) of working experience is required. • No minimum educational attainment is required for this position. • Speaks English Very Well, Willing to be train</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E125" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F125" t="str">
+        <v>KWD</v>
+      </c>
+      <c r="G125" t="str">
+        <v>150</v>
+      </c>
+      <c r="H125" t="str">
+        <v>150</v>
+      </c>
+      <c r="I125" t="str">
+        <v>Al Aḩmadī</v>
+      </c>
+      <c r="J125" t="str">
+        <v>Al Ahmadi Governorate</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="L125" t="str">
+        <v>https://www.workabroad.ph/job/3348511</v>
+      </c>
+      <c r="M125" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N125" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/d0a03af9e0686e2d1e2774ef6f71b335ff55f1c62ba7180cb47f5095d2229d0a29fad5e7dd5b15bae5ef98b2c678782d3c1b9eecb266803239b7a9568db8eccdLI2L3xx.TUSGHTPO6L9dRnhFWQPYBFkkHhYF1aFT3DM-</v>
+      </c>
+      <c r="O125" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P125" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>3348511</v>
+      </c>
+      <c r="R125" t="str">
+        <v>TRSBRT213</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>BARISTA - RESTAURANT WORKER</v>
+      </c>
+      <c r="B126" t="str">
+        <v>J-MAC INTERNATIONAL MANPOWER AGENCY</v>
+      </c>
+      <c r="C126" t="str">
+        <v>• WILLING TO WORK IN SAUDI ARABIA • PREFERABLY HAVE EXPERIENCE IN RESTAURANT SET UP • ACCURATELY TAKE FOOD AND DRINK ORDERS, INPUTTING THEM INTO THE POINT-OF-SALE (POS) SYSTEM AND COMMUNICATING WITH THE KITCHEN Additional Information:</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E126" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F126" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G126" t="str">
+        <v>1,875</v>
+      </c>
+      <c r="H126" t="str">
+        <v>2,175</v>
+      </c>
+      <c r="I126" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J126" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L126" t="str">
+        <v>https://www.workabroad.ph/job/3348368</v>
+      </c>
+      <c r="M126" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N126" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O126" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P126" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>3348368</v>
+      </c>
+      <c r="R126" t="str">
+        <v>TRSBRT213</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>BARISTA (FOOD AND BEVERAGE COUNTER WORKER)</v>
+      </c>
+      <c r="B127" t="str">
+        <v>STAFFHOUSE INTERNATIONAL RESOURCES</v>
+      </c>
+      <c r="C127" t="str">
+        <v>• Making a variety of hot and cold drinks, including coffee, espresso-based drinks, teas, and specialty beverages. • Operating coffee machines and other equipment. • Understanding different types of coffee, brewing methods, and latte art (optional, but can be beneficial). Qualification: • A minimum of 1 year(s) of working experience is required. • Candidates must be at least a high school graduate. • Knowledgeable in Coffee MAchine</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E127" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F127" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G127" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="H127" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="I127" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J127" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L127" t="str">
+        <v>https://www.workabroad.ph/job/3348254</v>
+      </c>
+      <c r="M127" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N127" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/54ac3bb059c3840e8b84a375b4ff5651e4fe72a5219fda2e7a5b5653cdbc698198392ffeea657ac1f9ccbe4f09c2d22aa695dc13af708eb105b57d6004aea28b3F6VCw8xw.m0UULJdjXO9KG~mk0yQmOpNFPKbianEHo-</v>
+      </c>
+      <c r="O127" t="str">
+        <v>11/24/2025</v>
+      </c>
+      <c r="P127" t="str">
+        <v>01/22/2026</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>3348254</v>
+      </c>
+      <c r="R127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>BARISTA-KITCHEN WORKER</v>
+      </c>
+      <c r="B128" t="str">
+        <v>J-MAC INTERNATIONAL MANPOWER AGENCY</v>
+      </c>
+      <c r="C128" t="str">
+        <v>• PREPARING DIFFERENT KINDS OF COFFEE • KNOWLEDGE IN LATTE ART AND SPECIALTY COFFEE • WITH HOTEL EXPRIENCED OR IN A FINE DINE IN RESTAURANT</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E128" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F128" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G128" t="str">
+        <v>1,875</v>
+      </c>
+      <c r="H128" t="str">
+        <v>2,175</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Riyadh</v>
+      </c>
+      <c r="J128" t="str">
+        <v>Riyadh Region</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L128" t="str">
+        <v>https://www.workabroad.ph/job/3348337</v>
+      </c>
+      <c r="M128" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N128" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O128" t="str">
+        <v>11/25/2025</v>
+      </c>
+      <c r="P128" t="str">
+        <v>01/23/2026</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>3348337</v>
+      </c>
+      <c r="R128" t="str">
+        <v>TRSBRT213</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>BARISTA/ MIXOLOGISTS</v>
+      </c>
+      <c r="B129" t="str">
+        <v>ARDCORP - MAIN</v>
+      </c>
+      <c r="C129" t="str">
+        <v>• Excellent verbal skills for customer interaction and teamwork. Friendly, polite, patient, and focused on satisfaction. • Willingness to work early mornings, night, weekends, and holidays • Ability to stand, walk, and bend for long periods. Work well with others in fast paced environments • Accuracy in orders and drink preparation. Quickly address customer concerns • Adhere to health/safety standards and recipes. Eagerness to learn coffee types, brewing and new trends • Food handlers permit or serve safe certification. Knowledge of coffee equipment and brewing methods and mexicology techs • Good experience in managing live station and make some activities and shows • Please note that the salary package is very negotiable and attractive Qualification: • A minimum of 8 year(s) of working experience is required. • Candidates must be a Vocational Diploma / Short Course Certificate holder in Food and Beverage Preparation/Service Management or similar fields. • Excellent English communication skill and can work in a fast-paced environment.</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E129" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F129" t="str">
+        <v>OMR</v>
+      </c>
+      <c r="G129" t="str">
+        <v>250</v>
+      </c>
+      <c r="H129" t="str">
+        <v>350</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Muscat</v>
+      </c>
+      <c r="J129" t="str">
+        <v>Muscat Governorate</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Oman</v>
+      </c>
+      <c r="L129" t="str">
+        <v>https://www.workabroad.ph/job/3351594</v>
+      </c>
+      <c r="M129" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N129" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/aed621f2cff559bd66d4dfa1a783465a6aee991a4801f1cebeb11bb55fd700a892408776acccf6ecede16a1c07cafcf95453907ac15a9ca7cc9584f90fd6c344iSjrcjsCuBDRXzeGtfUEkIZn9T7.UyRWcCXHq5YM.QI-</v>
+      </c>
+      <c r="O129" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="P129" t="str">
+        <v>02/03/2026</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>3351594</v>
+      </c>
+      <c r="R129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>BARTENDER</v>
+      </c>
+      <c r="B130" t="str">
+        <v>PRINCIPALIA MANAGEMENT AND PERSONNEL CONSULTANTS, INC</v>
+      </c>
+      <c r="C130" t="str">
+        <v>DMW License No: POEA-104-LB-062920-R For manpower pooling only. No fees in any form and/or purpose will be collected from the applicants. Beware of illegal recruiters and human traffickers. • Mix, garnish, and serve drinks according to standard recipes or customer preferences. • Maintain cleanliness of the bar area, including counters, sinks, utensils, shelves, and storage areas • To create and serve beverages in a timely and professional manner while delivering excellent customer service Qualification: • A minimum of 1 year(s) of working experience is required. • No minimum educational attainment is required for this position. • with at least 2 years valid passport</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E130" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F130" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G130" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="H130" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="I130" t="str">
+        <v>Kašina</v>
+      </c>
+      <c r="J130" t="str">
+        <v>Zagreb</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Croatia (Hrvatska)</v>
+      </c>
+      <c r="L130" t="str">
+        <v>https://www.workabroad.ph/job/3348589</v>
+      </c>
+      <c r="M130" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N130" t="str">
+        <v>https://www.workabroad.ph/download/document/hirer/logos/c0c85bbed0da3427153ef3fd567805081ca0fe78575a3a5824d90cdcacc0ab652095ae2e36298c7079ebd92f26ef7d60b2949bcc1f81b40ec8ef81b055e7b54cNzZ0lrvWwEggETBIvDaCSWj2Cq146kbM9hL0C~MVwC0-</v>
+      </c>
+      <c r="O130" t="str">
+        <v>11/26/2025</v>
+      </c>
+      <c r="P130" t="str">
+        <v>01/24/2026</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>3348589</v>
+      </c>
+      <c r="R130" t="str">
+        <v>TRSBAR205, TRSBAR213, TRSBRT213</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>BEAUTICIAN</v>
+      </c>
+      <c r="B131" t="str">
+        <v>VICTORIA SERVICES INC.</v>
+      </c>
+      <c r="C131" t="str">
+        <v>• We are looking for a well-presented beautician to provide beauty services to our clients • services include hair care, skincare, nail care, hair removal treatments, and advising clients on personal care routines to match their style and needs • should have a wide range of skills in beauty services, good communication skills, and the ability to advise clients on suitable hairstyles, nail colors</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="E131" t="str">
+        <v>WorkAbroad.ph</v>
+      </c>
+      <c r="F131" t="str">
+        <v>SAR</v>
+      </c>
+      <c r="G131" t="str">
+        <v>2,500</v>
+      </c>
+      <c r="H131" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Buraydah</v>
+      </c>
+      <c r="J131" t="str">
+        <v>Al-Qassim Region</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Saudi Arabia</v>
+      </c>
+      <c r="L131" t="str">
+        <v>https://www.workabroad.ph/job/3349029</v>
+      </c>
+      <c r="M131" t="str">
+        <v>On-site</v>
+      </c>
+      <c r="N131" t="str">
+        <v>https://www.workabroad.ph/assets/img/default-logo.png</v>
+      </c>
+      <c r="O131" t="str">
+        <v>11/28/2025</v>
+      </c>
+      <c r="P131" t="str">
+        <v>01/26/2026</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>3349029</v>
+      </c>
+      <c r="R131" t="str">
+        <v>SOCBEC205, SOCBEC305, SOCBEC219</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R131"/>
   </ignoredErrors>
 </worksheet>
 </file>